--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="166">
   <si>
     <t>순번</t>
   </si>
@@ -144,9 +144,6 @@
     <t>율전삼성2단지</t>
   </si>
   <si>
-    <t>합판보수 관련 비용 협의 없이 차감_협의예정</t>
-  </si>
-  <si>
     <t>드림종합건설(주)</t>
   </si>
   <si>
@@ -267,22 +264,13 @@
     <t>연산동현대홈타운</t>
   </si>
   <si>
-    <t>양산유탑유블레스 ( 에폭시 )</t>
-  </si>
-  <si>
     <t>자재대금 2달 후 정산 협의</t>
   </si>
   <si>
     <t>경기이앤에스(주)</t>
   </si>
   <si>
-    <t>연향금호타운 ( 에폭시 )</t>
-  </si>
-  <si>
     <t>남양산역반도유보라아이파크5차</t>
-  </si>
-  <si>
-    <t>잠실리센츠 ( 에폭시 )</t>
   </si>
   <si>
     <t>(주)우단건설</t>
@@ -534,6 +522,26 @@
   </si>
   <si>
     <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>잠실리센츠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산유탑유블레스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연향금호타운</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산유탑유블레스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장마감미흡으로 600만원 입금보류하였으나 2/13에지급하기로 협의됨(2/5확인)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1090,7 +1098,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>11</v>
@@ -1220,7 +1228,7 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>20</v>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>20</v>
@@ -1431,7 +1439,7 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>20</v>
@@ -1485,7 +1493,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>33</v>
@@ -1536,7 +1544,7 @@
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>20</v>
@@ -1637,7 +1645,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>33</v>
@@ -1687,7 +1695,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -1774,7 +1782,7 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>20</v>
@@ -1828,7 +1836,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>33</v>
@@ -1855,13 +1863,13 @@
         <v>C</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="H15" s="4">
         <v>5000000</v>
@@ -1877,18 +1885,18 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1904,13 +1912,13 @@
         <v>B</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="4">
         <v>1265000</v>
@@ -1926,13 +1934,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -1951,13 +1959,13 @@
         <v>B</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4">
         <v>48041200</v>
@@ -1973,13 +1981,13 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -1998,13 +2006,13 @@
         <v>B</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="4">
         <v>8096900</v>
@@ -2020,13 +2028,13 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -2045,13 +2053,13 @@
         <v>B</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="4">
         <v>486000</v>
@@ -2067,13 +2075,13 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -2092,13 +2100,13 @@
         <v>B</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="4">
         <v>54866200</v>
@@ -2114,13 +2122,13 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
@@ -2139,13 +2147,13 @@
         <v>B</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="4">
         <v>9090909</v>
@@ -2161,13 +2169,13 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14">
@@ -2188,13 +2196,13 @@
         <v>B</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" s="4">
         <v>3479000</v>
@@ -2210,18 +2218,18 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2237,13 +2245,13 @@
         <v>B</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="4">
         <v>5080000</v>
@@ -2259,18 +2267,18 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2286,13 +2294,13 @@
         <v>B</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="4">
         <v>775500</v>
@@ -2308,18 +2316,18 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2335,13 +2343,13 @@
         <v>B</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="4">
         <v>658000</v>
@@ -2357,18 +2365,18 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2384,13 +2392,13 @@
         <v>B</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="4">
         <v>3126000</v>
@@ -2406,18 +2414,18 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2433,13 +2441,13 @@
         <v>B</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="4">
         <v>329000</v>
@@ -2455,18 +2463,18 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2482,13 +2490,13 @@
         <v>B</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="4">
         <v>3066000</v>
@@ -2504,18 +2512,18 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2531,13 +2539,13 @@
         <v>B</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="4">
         <v>474000</v>
@@ -2553,18 +2561,18 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2580,13 +2588,13 @@
         <v>B</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="4">
         <v>4867000</v>
@@ -2602,18 +2610,18 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2629,13 +2637,13 @@
         <v>B</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" s="4">
         <v>607500</v>
@@ -2651,18 +2659,18 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2678,13 +2686,13 @@
         <v>B</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="4">
         <v>3253400</v>
@@ -2700,18 +2708,18 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2727,13 +2735,13 @@
         <v>B</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="4">
         <v>2426000</v>
@@ -2749,18 +2757,18 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2776,13 +2784,13 @@
         <v>B</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="4">
         <v>2390000</v>
@@ -2798,18 +2806,18 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2825,13 +2833,13 @@
         <v>B</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G35" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="4">
         <v>432000</v>
@@ -2847,18 +2855,18 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2874,13 +2882,13 @@
         <v>B</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="4">
         <v>727</v>
@@ -2900,7 +2908,7 @@
         <v>20</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
@@ -2922,10 +2930,10 @@
         <v>24</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="4">
         <v>37830200</v>
@@ -2941,22 +2949,22 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="11">
         <v>46062</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S37" s="10"/>
     </row>
@@ -2973,13 +2981,13 @@
         <v>B</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="G38" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="4">
         <v>60697390.909090906</v>
@@ -2997,16 +3005,16 @@
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="Q38" s="11">
         <v>46029</v>
@@ -3029,13 +3037,13 @@
         <v>B</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="G39" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" s="4">
         <v>2331400</v>
@@ -3053,13 +3061,13 @@
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q39" s="11">
         <v>46029</v>
@@ -3082,13 +3090,13 @@
         <v>B</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" s="4">
         <v>981900</v>
@@ -3110,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
@@ -3132,10 +3140,10 @@
         <v>24</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="4">
         <v>15846200</v>
@@ -3151,22 +3159,22 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q41" s="11">
         <v>46062</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S41" s="10"/>
     </row>
@@ -3183,13 +3191,13 @@
         <v>B</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="G42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="4">
         <v>6300000</v>
@@ -3207,13 +3215,13 @@
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q42" s="11">
         <v>46029</v>
@@ -3239,10 +3247,10 @@
         <v>39</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="4">
         <v>7276000</v>
@@ -3264,10 +3272,10 @@
         <v>20</v>
       </c>
       <c r="O43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -3286,13 +3294,13 @@
         <v>B</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" s="4">
         <v>-9744900</v>
@@ -3314,7 +3322,7 @@
         <v>20</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q44" s="11">
         <v>46029</v>
@@ -3337,13 +3345,13 @@
         <v>B</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G45" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" s="4">
         <v>3380000</v>
@@ -3357,7 +3365,7 @@
         <v>장기미수</v>
       </c>
       <c r="K45" s="11">
-        <v>46052</v>
+        <v>46066</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="10"/>
@@ -3381,13 +3389,13 @@
         <v>B</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" s="4">
         <v>1180000</v>
@@ -3401,7 +3409,7 @@
         <v>장기미수</v>
       </c>
       <c r="K46" s="11">
-        <v>46052</v>
+        <v>46066</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="10"/>
@@ -3425,13 +3433,13 @@
         <v>B</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" s="4">
         <v>801700</v>
@@ -3453,7 +3461,7 @@
         <v>20</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -3472,13 +3480,13 @@
         <v>B</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="4">
         <v>556000</v>
@@ -3500,7 +3508,7 @@
         <v>20</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
@@ -3522,10 +3530,10 @@
         <v>26</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H49" s="4">
         <v>7920000</v>
@@ -3547,7 +3555,7 @@
         <v>33</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -3566,13 +3574,13 @@
         <v>B</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" s="4">
         <v>5253000</v>
@@ -3610,13 +3618,13 @@
         <v>B</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H51" s="4">
         <v>1120000</v>
@@ -3657,10 +3665,10 @@
         <v>26</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" s="4">
         <v>1969400</v>
@@ -3682,7 +3690,7 @@
         <v>33</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -3704,10 +3712,10 @@
         <v>24</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H53" s="4">
         <v>54744000</v>
@@ -3727,16 +3735,16 @@
         <v>20</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q53" s="11">
         <v>46036</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S53" s="10"/>
     </row>
@@ -3753,13 +3761,13 @@
         <v>B</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" s="4">
         <v>321000</v>
@@ -3798,10 +3806,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" s="4">
         <v>15840000</v>
@@ -3823,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -3842,13 +3850,13 @@
         <v>C</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H56" s="4">
         <v>1632000</v>
@@ -3864,13 +3872,13 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
@@ -3889,13 +3897,13 @@
         <v>C</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H57" s="4">
         <v>5380000</v>
@@ -3911,13 +3919,13 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
@@ -3936,13 +3944,13 @@
         <v>C</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" s="4">
         <v>765000</v>
@@ -3958,13 +3966,13 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
@@ -3983,13 +3991,13 @@
         <v>C</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59" s="4">
         <v>2738900</v>
@@ -4013,13 +4021,13 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
@@ -4038,13 +4046,13 @@
         <v>C</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="4">
         <v>1648500</v>
@@ -4082,13 +4090,13 @@
         <v>C</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61" s="4">
         <v>2625000</v>
@@ -4126,13 +4134,13 @@
         <v>C</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62" s="4">
         <v>495000</v>
@@ -4170,13 +4178,13 @@
         <v>C</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H63" s="4">
         <v>485000</v>
@@ -4214,13 +4222,13 @@
         <v>C</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H64" s="4">
         <v>662500</v>
@@ -4258,13 +4266,13 @@
         <v>C</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H65" s="4">
         <v>3537700</v>
@@ -4302,13 +4310,13 @@
         <v>C</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66" s="4">
         <v>3802500</v>
@@ -4344,13 +4352,13 @@
         <v>C</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H67" s="4">
         <v>138050</v>
@@ -4386,13 +4394,13 @@
         <v>C</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H68" s="4">
         <v>6675050</v>
@@ -4428,13 +4436,13 @@
         <v>C</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69" s="4">
         <v>7500000</v>
@@ -4473,13 +4481,13 @@
         <v>C</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H70" s="4">
         <v>179500</v>
@@ -4528,10 +4536,10 @@
         <v>24</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71" s="4">
         <v>26182000</v>
@@ -4551,16 +4559,16 @@
         <v>20</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q71" s="11">
         <v>46036</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S71" s="10"/>
     </row>
@@ -4580,10 +4588,10 @@
         <v>26</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H72" s="4">
         <v>1100000</v>
@@ -4605,7 +4613,7 @@
         <v>33</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -4627,10 +4635,10 @@
         <v>24</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73" s="4">
         <v>799000</v>
@@ -4652,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q73" s="11">
         <v>46036</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S73" s="10"/>
     </row>
@@ -4678,13 +4686,13 @@
         <v>B</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H74" s="4">
         <v>3430000</v>
@@ -4722,13 +4730,13 @@
         <v>B</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H75" s="4">
         <v>528000</v>
@@ -4767,10 +4775,10 @@
         <v>24</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H76" s="4">
         <v>2200000</v>
@@ -4792,16 +4800,16 @@
         <v>20</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q76" s="11">
         <v>46036</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S76" s="10"/>
     </row>
@@ -4821,10 +4829,10 @@
         <v>24</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H77" s="4">
         <v>580000</v>
@@ -4846,16 +4854,16 @@
         <v>20</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q77" s="11">
         <v>46036</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S77" s="10"/>
     </row>
@@ -4872,13 +4880,13 @@
         <v>B</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H78" s="4">
         <v>3418000</v>
@@ -4916,13 +4924,13 @@
         <v>B</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H79" s="4">
         <v>496500</v>
@@ -4960,13 +4968,13 @@
         <v>B</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H80" s="4">
         <v>280000</v>
@@ -5002,13 +5010,13 @@
         <v>B</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H81" s="4">
         <v>380000</v>
@@ -5049,10 +5057,10 @@
         <v>24</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H82" s="4">
         <v>36816000</v>
@@ -5072,16 +5080,16 @@
         <v>20</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q82" s="11">
         <v>46036</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S82" s="10"/>
     </row>
@@ -5101,10 +5109,10 @@
         <v>24</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H83" s="4">
         <v>7390000</v>
@@ -5124,16 +5132,16 @@
         <v>20</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q83" s="11">
         <v>46036</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S83" s="10"/>
     </row>
@@ -5153,10 +5161,10 @@
         <v>24</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H84" s="4">
         <v>56770000</v>
@@ -5176,16 +5184,16 @@
         <v>20</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q84" s="11">
         <v>46036</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S84" s="10"/>
     </row>
@@ -5202,13 +5210,13 @@
         <v>B</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H85" s="4">
         <v>321000</v>
@@ -5247,10 +5255,10 @@
         <v>24</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H86" s="4">
         <v>4784000</v>
@@ -5270,16 +5278,16 @@
         <v>20</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q86" s="11">
         <v>46036</v>
       </c>
       <c r="R86" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S86" s="10"/>
     </row>
@@ -5296,13 +5304,13 @@
         <v>B</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H87" s="4">
         <v>15356500</v>
@@ -5341,10 +5349,10 @@
         <v>24</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H88" s="4">
         <v>17250000</v>
@@ -5364,16 +5372,16 @@
         <v>20</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q88" s="11">
         <v>46036</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S88" s="10"/>
     </row>
@@ -5393,10 +5401,10 @@
         <v>24</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H89" s="4">
         <v>5750000</v>
@@ -5416,16 +5424,16 @@
         <v>20</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q89" s="11">
         <v>46036</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S89" s="10"/>
     </row>
@@ -5442,13 +5450,13 @@
         <v>B</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H90" s="4">
         <v>231000</v>
@@ -5486,13 +5494,13 @@
         <v>B</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H91" s="4">
         <v>219000</v>
@@ -5528,13 +5536,13 @@
         <v>B</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H92" s="4">
         <v>432000</v>
@@ -5572,13 +5580,13 @@
         <v>C</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H93" s="4">
         <v>478000</v>
@@ -5616,13 +5624,13 @@
         <v>C</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H94" s="4">
         <v>1206700</v>
@@ -5651,20 +5659,20 @@
         <v>94</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D95" s="10" t="str">
         <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H95" s="4">
         <v>2627900</v>
@@ -5693,20 +5701,20 @@
         <v>95</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D96" s="10" t="str">
         <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H96" s="4">
         <v>1210000</v>
@@ -12754,63 +12762,63 @@
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="169">
   <si>
     <t>순번</t>
   </si>
@@ -542,6 +542,15 @@
   <si>
     <t>현장마감미흡으로 600만원 입금보류하였으나 2/13에지급하기로 협의됨(2/5확인)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이음건설</t>
+  </si>
+  <si>
+    <t>성남메트로칸</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
   </si>
 </sst>
 </file>
@@ -551,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,13 +616,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -656,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,11 +736,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1095,10 +1180,10 @@
   <dimension ref="A1:S408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1294,7 @@
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:I55" ca="1" si="1">IF(C2="","",IF(L2="",TODAY()-C2,L2-C2))</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="13" t="str">
         <f ca="1">IF(I2="","",
@@ -1273,7 +1358,7 @@
       </c>
       <c r="I3" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J58" ca="1" si="2">IF(I3="","",
@@ -1332,7 +1417,7 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1393,7 +1478,9 @@
       <c r="K5" s="11">
         <v>46063</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="11">
+        <v>46063</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
         <v>33</v>
@@ -1428,7 +1515,7 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1484,7 +1571,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1533,7 +1620,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1584,7 +1671,7 @@
       </c>
       <c r="I9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1636,7 +1723,7 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1680,7 +1767,7 @@
       </c>
       <c r="I11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1736,7 +1823,9 @@
       <c r="K12" s="11">
         <v>46063</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="11">
+        <v>46063</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
         <v>33</v>
@@ -1771,7 +1860,7 @@
       </c>
       <c r="I13" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1827,7 +1916,7 @@
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1876,7 +1965,7 @@
       </c>
       <c r="I15" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1925,7 +2014,7 @@
       </c>
       <c r="I16" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1972,7 +2061,7 @@
       </c>
       <c r="I17" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2019,7 +2108,7 @@
       </c>
       <c r="I18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2066,7 +2155,7 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2113,7 +2202,7 @@
       </c>
       <c r="I20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2160,7 +2249,7 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2209,7 +2298,7 @@
       </c>
       <c r="I22" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2258,7 +2347,7 @@
       </c>
       <c r="I23" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J23" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2307,7 +2396,7 @@
       </c>
       <c r="I24" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J24" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2356,7 +2445,7 @@
       </c>
       <c r="I25" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J25" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2405,7 +2494,7 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J26" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2454,7 +2543,7 @@
       </c>
       <c r="I27" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2503,7 +2592,7 @@
       </c>
       <c r="I28" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J28" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2552,7 +2641,7 @@
       </c>
       <c r="I29" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2601,7 +2690,7 @@
       </c>
       <c r="I30" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J30" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2650,7 +2739,7 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J31" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2699,7 +2788,7 @@
       </c>
       <c r="I32" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J32" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2748,7 +2837,7 @@
       </c>
       <c r="I33" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J33" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2797,7 +2886,7 @@
       </c>
       <c r="I34" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J34" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2846,7 +2935,7 @@
       </c>
       <c r="I35" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J35" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2895,7 +2984,7 @@
       </c>
       <c r="I36" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J36" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2940,7 +3029,7 @@
       </c>
       <c r="I37" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J37" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2994,7 +3083,7 @@
       </c>
       <c r="I38" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J38" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3050,7 +3139,7 @@
       </c>
       <c r="I39" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J39" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3103,7 +3192,7 @@
       </c>
       <c r="I40" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J40" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3150,7 +3239,7 @@
       </c>
       <c r="I41" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J41" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3204,7 +3293,7 @@
       </c>
       <c r="I42" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J42" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3257,7 +3346,7 @@
       </c>
       <c r="I43" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J43" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3307,7 +3396,7 @@
       </c>
       <c r="I44" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J44" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3358,7 +3447,7 @@
       </c>
       <c r="I45" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J45" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3402,7 +3491,7 @@
       </c>
       <c r="I46" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J46" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3446,7 +3535,7 @@
       </c>
       <c r="I47" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J47" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3493,7 +3582,7 @@
       </c>
       <c r="I48" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J48" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3540,7 +3629,7 @@
       </c>
       <c r="I49" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J49" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3587,7 +3676,7 @@
       </c>
       <c r="I50" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J50" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3631,7 +3720,7 @@
       </c>
       <c r="I51" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J51" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3675,7 +3764,7 @@
       </c>
       <c r="I52" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J52" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3722,7 +3811,7 @@
       </c>
       <c r="I53" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J53" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3781,7 +3870,9 @@
         <v>관리</v>
       </c>
       <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
+      <c r="L54" s="11">
+        <v>46063</v>
+      </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10" t="s">
         <v>33</v>
@@ -3816,7 +3907,7 @@
       </c>
       <c r="I55" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3863,7 +3954,7 @@
       </c>
       <c r="I56" s="12">
         <f t="shared" ref="I56:I65" ca="1" si="4">IF(C56="","",IF(L56="",TODAY()-C56,L56-C56))</f>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J56" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3910,7 +4001,7 @@
       </c>
       <c r="I57" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J57" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3957,7 +4048,7 @@
       </c>
       <c r="I58" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J58" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4004,7 +4095,7 @@
       </c>
       <c r="I59" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J59" s="13" t="str">
         <f t="shared" ref="J59:J113" ca="1" si="5">IF(I59="","",
@@ -4059,7 +4150,7 @@
       </c>
       <c r="I60" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J60" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4103,7 +4194,7 @@
       </c>
       <c r="I61" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J61" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4147,7 +4238,7 @@
       </c>
       <c r="I62" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J62" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4191,7 +4282,7 @@
       </c>
       <c r="I63" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J63" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4235,7 +4326,7 @@
       </c>
       <c r="I64" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4279,7 +4370,7 @@
       </c>
       <c r="I65" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J65" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4323,7 +4414,7 @@
       </c>
       <c r="I66" s="6">
         <f t="shared" ref="I66:I71" ca="1" si="7">IF(C66="","",IF(L66="",TODAY()-C66,L66-C66))</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J66" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4365,7 +4456,7 @@
       </c>
       <c r="I67" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J67" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4407,7 +4498,7 @@
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J68" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4449,7 +4540,7 @@
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J69" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4546,7 +4637,7 @@
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J71" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4598,7 +4689,7 @@
       </c>
       <c r="I72" s="6">
         <f t="shared" ref="I72:I75" ca="1" si="8">IF(C72="","",IF(L72="",TODAY()-C72,L72-C72))</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J72" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4743,7 +4834,7 @@
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J75" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4981,7 +5072,7 @@
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J80" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5067,7 +5158,7 @@
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J82" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5119,7 +5210,7 @@
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J83" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5171,7 +5262,7 @@
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J84" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5223,7 +5314,7 @@
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J85" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5265,7 +5356,7 @@
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J86" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5324,7 +5415,9 @@
         <v>정상</v>
       </c>
       <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
+      <c r="L87" s="11">
+        <v>46063</v>
+      </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
         <v>33</v>
@@ -5359,7 +5452,7 @@
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J88" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5411,7 +5504,7 @@
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J89" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5507,7 +5600,7 @@
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J91" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5637,7 +5730,7 @@
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J94" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5679,7 +5772,7 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5740,55 +5833,85 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="10" t="str">
+      <c r="B97" s="10">
         <f>IF(C97="","",COUNTA($C$2:C97))</f>
-        <v/>
-      </c>
-      <c r="C97" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D97" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H97" s="4"/>
-      <c r="I97" s="6" t="str">
+        <v>B</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" s="4">
+        <v>216000</v>
+      </c>
+      <c r="I97" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J97" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
+      <c r="N97" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="10" t="str">
+      <c r="B98" s="10">
         <f>IF(C98="","",COUNTA($C$2:C98))</f>
-        <v/>
-      </c>
-      <c r="C98" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="C98" s="11">
+        <v>46063</v>
+      </c>
       <c r="D98" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="6" t="str">
+        <v>B</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" s="4">
+        <v>154300</v>
+      </c>
+      <c r="I98" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J98" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
       <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
+      <c r="N98" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
       <c r="S98" s="10"/>
@@ -12704,28 +12827,38 @@
   <autoFilter ref="A1:S408"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E3 F56:F59">
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>$J3="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>$J8="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>$J4="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>$J9="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41 E37">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>$J37="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$J97="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:F98">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$J97="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -12735,7 +12868,7 @@
     <dataValidation type="list" allowBlank="1" sqref="G2:G70">
       <formula1>"선급금,중도금,잔금,자재,특허료"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N96">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N98">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data.xlsx
+++ b/data.xlsx
@@ -743,37 +743,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6F3FF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6F3FF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1180,10 +1150,10 @@
   <dimension ref="A1:S408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5906,7 +5876,9 @@
         <f t="shared" ca="1" si="5"/>
         <v>정상</v>
       </c>
-      <c r="K98" s="11"/>
+      <c r="K98" s="11">
+        <v>46081</v>
+      </c>
       <c r="L98" s="11"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
@@ -12827,37 +12799,37 @@
   <autoFilter ref="A1:S408"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E3 F56:F59">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>$J3="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>$J8="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>$J4="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="5" priority="18">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>$J9="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41 E37">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$J37="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$J97="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$J97="잔금"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="177">
   <si>
     <t>순번</t>
   </si>
@@ -551,6 +551,35 @@
   </si>
   <si>
     <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>서면동일파크스위트3차아파트</t>
+  </si>
+  <si>
+    <t>주식회사 예은건설</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천호현대코아아파트 </t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘케이개발(주)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주호반베르디움 2차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -560,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +652,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -638,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -674,11 +710,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -737,6 +788,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,13 +1204,13 @@
   <dimension ref="A1:S408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
@@ -1180,7 +1234,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="7">
         <v>0.71111111111167702</v>
       </c>
@@ -1239,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -1302,7 +1356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B3" s="10">
         <f>IF(C3="","",COUNTA($C$2:C3))</f>
         <v>2</v>
@@ -1361,7 +1415,7 @@
       </c>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B4" s="10">
         <f>IF(C4="","",COUNTA($C$2:C4))</f>
         <v>3</v>
@@ -1413,7 +1467,7 @@
       </c>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="10">
         <f>IF(C5="","",COUNTA($C$2:C5))</f>
         <v>4</v>
@@ -1459,7 +1513,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="10">
         <f>IF(C6="","",COUNTA($C$2:C6))</f>
         <v>5</v>
@@ -1515,7 +1569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B7" s="10">
         <f>IF(C7="","",COUNTA($C$2:C7))</f>
         <v>6</v>
@@ -1564,7 +1618,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="10">
         <f>IF(C8="","",COUNTA($C$2:C8))</f>
         <v>7</v>
@@ -1615,7 +1669,7 @@
       </c>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B9" s="10">
         <f>IF(C9="","",COUNTA($C$2:C9))</f>
         <v>8</v>
@@ -1667,7 +1721,7 @@
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B10" s="10">
         <f>IF(C10="","",COUNTA($C$2:C10))</f>
         <v>9</v>
@@ -1711,7 +1765,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B11" s="10">
         <f>IF(C11="","",COUNTA($C$2:C11))</f>
         <v>10</v>
@@ -1758,7 +1812,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B12" s="10">
         <f>IF(C12="","",COUNTA($C$2:C12))</f>
         <v>11</v>
@@ -1804,7 +1858,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B13" s="10">
         <f>IF(C13="","",COUNTA($C$2:C13))</f>
         <v>12</v>
@@ -1860,7 +1914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B14" s="10">
         <f>IF(C14="","",COUNTA($C$2:C14))</f>
         <v>13</v>
@@ -1909,7 +1963,7 @@
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B15" s="10">
         <f>IF(C15="","",COUNTA($C$2:C15))</f>
         <v>14</v>
@@ -1958,7 +2012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B16" s="10">
         <f>IF(C16="","",COUNTA($C$2:C16))</f>
         <v>15</v>
@@ -2005,7 +2059,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B17" s="10">
         <f>IF(C17="","",COUNTA($C$2:C17))</f>
         <v>16</v>
@@ -2052,7 +2106,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B18" s="10">
         <f>IF(C18="","",COUNTA($C$2:C18))</f>
         <v>17</v>
@@ -2099,7 +2153,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B19" s="10">
         <f>IF(C19="","",COUNTA($C$2:C19))</f>
         <v>18</v>
@@ -2146,7 +2200,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B20" s="10">
         <f>IF(C20="","",COUNTA($C$2:C20))</f>
         <v>19</v>
@@ -2193,7 +2247,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B21" s="10">
         <f>IF(C21="","",COUNTA($C$2:C21))</f>
         <v>20</v>
@@ -2242,7 +2296,7 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B22" s="10">
         <f>IF(C22="","",COUNTA($C$2:C22))</f>
         <v>21</v>
@@ -2291,7 +2345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B23" s="10">
         <f>IF(C23="","",COUNTA($C$2:C23))</f>
         <v>22</v>
@@ -2340,7 +2394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B24" s="10">
         <f>IF(C24="","",COUNTA($C$2:C24))</f>
         <v>23</v>
@@ -2389,7 +2443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B25" s="10">
         <f>IF(C25="","",COUNTA($C$2:C25))</f>
         <v>24</v>
@@ -2438,7 +2492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B26" s="10">
         <f>IF(C26="","",COUNTA($C$2:C26))</f>
         <v>25</v>
@@ -2487,7 +2541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B27" s="10">
         <f>IF(C27="","",COUNTA($C$2:C27))</f>
         <v>26</v>
@@ -2536,7 +2590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B28" s="10">
         <f>IF(C28="","",COUNTA($C$2:C28))</f>
         <v>27</v>
@@ -2585,7 +2639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B29" s="10">
         <f>IF(C29="","",COUNTA($C$2:C29))</f>
         <v>28</v>
@@ -2634,7 +2688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B30" s="10">
         <f>IF(C30="","",COUNTA($C$2:C30))</f>
         <v>29</v>
@@ -2683,7 +2737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B31" s="10">
         <f>IF(C31="","",COUNTA($C$2:C31))</f>
         <v>30</v>
@@ -2732,7 +2786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B32" s="10">
         <f>IF(C32="","",COUNTA($C$2:C32))</f>
         <v>31</v>
@@ -2781,7 +2835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B33" s="10">
         <f>IF(C33="","",COUNTA($C$2:C33))</f>
         <v>32</v>
@@ -2830,7 +2884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B34" s="10">
         <f>IF(C34="","",COUNTA($C$2:C34))</f>
         <v>33</v>
@@ -2879,7 +2933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B35" s="10">
         <f>IF(C35="","",COUNTA($C$2:C35))</f>
         <v>34</v>
@@ -2928,7 +2982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B36" s="10">
         <f>IF(C36="","",COUNTA($C$2:C36))</f>
         <v>35</v>
@@ -2973,7 +3027,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B37" s="10">
         <f>IF(C37="","",COUNTA($C$2:C37))</f>
         <v>36</v>
@@ -3027,7 +3081,7 @@
       </c>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B38" s="10">
         <f>IF(C38="","",COUNTA($C$2:C38))</f>
         <v>37</v>
@@ -3083,7 +3137,7 @@
       </c>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B39" s="10">
         <f>IF(C39="","",COUNTA($C$2:C39))</f>
         <v>38</v>
@@ -3136,7 +3190,7 @@
       </c>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B40" s="10">
         <f>IF(C40="","",COUNTA($C$2:C40))</f>
         <v>39</v>
@@ -3183,7 +3237,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B41" s="10">
         <f>IF(C41="","",COUNTA($C$2:C41))</f>
         <v>40</v>
@@ -3237,7 +3291,7 @@
       </c>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B42" s="10">
         <f>IF(C42="","",COUNTA($C$2:C42))</f>
         <v>41</v>
@@ -3290,7 +3344,7 @@
       </c>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B43" s="10">
         <f>IF(C43="","",COUNTA($C$2:C43))</f>
         <v>42</v>
@@ -3340,7 +3394,7 @@
       <c r="R43" s="11"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B44" s="10">
         <f>IF(C44="","",COUNTA($C$2:C44))</f>
         <v>43</v>
@@ -3391,7 +3445,7 @@
       </c>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B45" s="10">
         <f>IF(C45="","",COUNTA($C$2:C45))</f>
         <v>44</v>
@@ -3435,7 +3489,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B46" s="10">
         <f>IF(C46="","",COUNTA($C$2:C46))</f>
         <v>45</v>
@@ -3479,7 +3533,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B47" s="10">
         <f>IF(C47="","",COUNTA($C$2:C47))</f>
         <v>46</v>
@@ -3526,7 +3580,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B48" s="10">
         <f>IF(C48="","",COUNTA($C$2:C48))</f>
         <v>47</v>
@@ -3573,7 +3627,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B49" s="10">
         <f>IF(C49="","",COUNTA($C$2:C49))</f>
         <v>48</v>
@@ -3620,7 +3674,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B50" s="10">
         <f>IF(C50="","",COUNTA($C$2:C50))</f>
         <v>49</v>
@@ -3664,7 +3718,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B51" s="10">
         <f>IF(C51="","",COUNTA($C$2:C51))</f>
         <v>50</v>
@@ -3708,7 +3762,7 @@
       <c r="R51" s="11"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B52" s="10">
         <f>IF(C52="","",COUNTA($C$2:C52))</f>
         <v>51</v>
@@ -3755,7 +3809,7 @@
       <c r="R52" s="11"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B53" s="10">
         <f>IF(C53="","",COUNTA($C$2:C53))</f>
         <v>52</v>
@@ -3807,7 +3861,7 @@
       </c>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B54" s="10">
         <f>IF(C54="","",COUNTA($C$2:C54))</f>
         <v>53</v>
@@ -3851,7 +3905,7 @@
       <c r="R54" s="11"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B55" s="10">
         <f>IF(C55="","",COUNTA($C$2:C55))</f>
         <v>54</v>
@@ -3898,7 +3952,7 @@
       <c r="R55" s="11"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B56" s="10">
         <f>IF(C56="","",COUNTA($C$2:C56))</f>
         <v>55</v>
@@ -3945,7 +3999,7 @@
       <c r="R56" s="14"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B57" s="10">
         <f>IF(C57="","",COUNTA($C$2:C57))</f>
         <v>56</v>
@@ -3992,7 +4046,7 @@
       <c r="R57" s="14"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B58" s="10">
         <f>IF(C58="","",COUNTA($C$2:C58))</f>
         <v>57</v>
@@ -4039,7 +4093,7 @@
       <c r="R58" s="14"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B59" s="10">
         <f>IF(C59="","",COUNTA($C$2:C59))</f>
         <v>58</v>
@@ -4094,7 +4148,7 @@
       <c r="R59" s="14"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B60" s="10">
         <f>IF(C60="","",COUNTA($C$2:C60))</f>
         <v>59</v>
@@ -4138,7 +4192,7 @@
       <c r="R60" s="14"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B61" s="10">
         <f>IF(C61="","",COUNTA($C$2:C61))</f>
         <v>60</v>
@@ -4182,7 +4236,7 @@
       <c r="R61" s="14"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B62" s="10">
         <f>IF(C62="","",COUNTA($C$2:C62))</f>
         <v>61</v>
@@ -4226,7 +4280,7 @@
       <c r="R62" s="14"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B63" s="10">
         <f>IF(C63="","",COUNTA($C$2:C63))</f>
         <v>62</v>
@@ -4270,7 +4324,7 @@
       <c r="R63" s="14"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B64" s="10">
         <f>IF(C64="","",COUNTA($C$2:C64))</f>
         <v>63</v>
@@ -4314,7 +4368,7 @@
       <c r="R64" s="14"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B65" s="10">
         <f>IF(C65="","",COUNTA($C$2:C65))</f>
         <v>64</v>
@@ -4358,7 +4412,7 @@
       <c r="R65" s="14"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B66" s="10">
         <f>IF(C66="","",COUNTA($C$2:C66))</f>
         <v>65</v>
@@ -4400,7 +4454,7 @@
       <c r="R66" s="11"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B67" s="10">
         <f>IF(C67="","",COUNTA($C$2:C67))</f>
         <v>66</v>
@@ -4442,7 +4496,7 @@
       <c r="R67" s="11"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B68" s="10">
         <f>IF(C68="","",COUNTA($C$2:C68))</f>
         <v>67</v>
@@ -4484,7 +4538,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B69" s="10">
         <f>IF(C69="","",COUNTA($C$2:C69))</f>
         <v>68</v>
@@ -4529,7 +4583,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B70" s="10">
         <f>IF(C70="","",COUNTA($C$2:C70))</f>
         <v>69</v>
@@ -4581,7 +4635,7 @@
       <c r="R70" s="11"/>
       <c r="S70" s="10"/>
     </row>
-    <row r="71" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B71" s="10">
         <f>IF(C71="","",COUNTA($C$2:C71))</f>
         <v>70</v>
@@ -4633,7 +4687,7 @@
       </c>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B72" s="10">
         <f>IF(C72="","",COUNTA($C$2:C72))</f>
         <v>71</v>
@@ -4680,7 +4734,7 @@
       <c r="R72" s="11"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B73" s="10">
         <f>IF(C73="","",COUNTA($C$2:C73))</f>
         <v>72</v>
@@ -4734,7 +4788,7 @@
       </c>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B74" s="10">
         <f>IF(C74="","",COUNTA($C$2:C74))</f>
         <v>73</v>
@@ -4778,7 +4832,7 @@
       <c r="R74" s="11"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B75" s="10">
         <f>IF(C75="","",COUNTA($C$2:C75))</f>
         <v>74</v>
@@ -4820,7 +4874,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="10"/>
     </row>
-    <row r="76" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B76" s="10">
         <f>IF(C76="","",COUNTA($C$2:C76))</f>
         <v>75</v>
@@ -4874,7 +4928,7 @@
       </c>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B77" s="10">
         <f>IF(C77="","",COUNTA($C$2:C77))</f>
         <v>76</v>
@@ -4928,7 +4982,7 @@
       </c>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B78" s="10">
         <f>IF(C78="","",COUNTA($C$2:C78))</f>
         <v>77</v>
@@ -4972,7 +5026,7 @@
       <c r="R78" s="11"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B79" s="10">
         <f>IF(C79="","",COUNTA($C$2:C79))</f>
         <v>78</v>
@@ -5016,7 +5070,7 @@
       <c r="R79" s="11"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B80" s="10">
         <f>IF(C80="","",COUNTA($C$2:C80))</f>
         <v>79</v>
@@ -5058,7 +5112,7 @@
       <c r="R80" s="11"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B81" s="10">
         <f>IF(C81="","",COUNTA($C$2:C81))</f>
         <v>80</v>
@@ -5102,7 +5156,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B82" s="10">
         <f>IF(C82="","",COUNTA($C$2:C82))</f>
         <v>81</v>
@@ -5154,7 +5208,7 @@
       </c>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B83" s="10">
         <f>IF(C83="","",COUNTA($C$2:C83))</f>
         <v>82</v>
@@ -5206,7 +5260,7 @@
       </c>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B84" s="10">
         <f>IF(C84="","",COUNTA($C$2:C84))</f>
         <v>83</v>
@@ -5258,7 +5312,7 @@
       </c>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B85" s="10">
         <f>IF(C85="","",COUNTA($C$2:C85))</f>
         <v>84</v>
@@ -5300,7 +5354,7 @@
       <c r="R85" s="11"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B86" s="10">
         <f>IF(C86="","",COUNTA($C$2:C86))</f>
         <v>85</v>
@@ -5352,7 +5406,7 @@
       </c>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B87" s="10">
         <f>IF(C87="","",COUNTA($C$2:C87))</f>
         <v>86</v>
@@ -5396,7 +5450,7 @@
       <c r="R87" s="11"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B88" s="10">
         <f>IF(C88="","",COUNTA($C$2:C88))</f>
         <v>87</v>
@@ -5448,7 +5502,7 @@
       </c>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B89" s="10">
         <f>IF(C89="","",COUNTA($C$2:C89))</f>
         <v>88</v>
@@ -5500,7 +5554,7 @@
       </c>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B90" s="10">
         <f>IF(C90="","",COUNTA($C$2:C90))</f>
         <v>89</v>
@@ -5544,7 +5598,7 @@
       <c r="R90" s="11"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B91" s="10">
         <f>IF(C91="","",COUNTA($C$2:C91))</f>
         <v>90</v>
@@ -5586,7 +5640,7 @@
       <c r="R91" s="11"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B92" s="10">
         <f>IF(C92="","",COUNTA($C$2:C92))</f>
         <v>91</v>
@@ -5630,7 +5684,7 @@
       <c r="R92" s="11"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B93" s="10">
         <f>IF(C93="","",COUNTA($C$2:C93))</f>
         <v>92</v>
@@ -5674,7 +5728,7 @@
       <c r="R93" s="11"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B94" s="10">
         <f>IF(C94="","",COUNTA($C$2:C94))</f>
         <v>93</v>
@@ -5716,7 +5770,7 @@
       <c r="R94" s="11"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B95" s="10">
         <f>IF(C95="","",COUNTA($C$2:C95))</f>
         <v>94</v>
@@ -5758,7 +5812,7 @@
       <c r="R95" s="11"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B96" s="10">
         <f>IF(C96="","",COUNTA($C$2:C96))</f>
         <v>95</v>
@@ -5802,7 +5856,7 @@
       <c r="R96" s="11"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B97" s="10">
         <f>IF(C97="","",COUNTA($C$2:C97))</f>
         <v>96</v>
@@ -5844,7 +5898,7 @@
       <c r="R97" s="11"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B98" s="10">
         <f>IF(C98="","",COUNTA($C$2:C98))</f>
         <v>97</v>
@@ -5877,7 +5931,7 @@
         <v>정상</v>
       </c>
       <c r="K98" s="11">
-        <v>46081</v>
+        <v>46080</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="10"/>
@@ -5888,88 +5942,133 @@
       <c r="R98" s="11"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="10" t="str">
+    <row r="99" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B99" s="10">
         <f>IF(C99="","",COUNTA($C$2:C99))</f>
-        <v/>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="6" t="str">
+        <v>98</v>
+      </c>
+      <c r="C99" s="11">
+        <v>46027</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H99" s="4">
+        <v>16130000</v>
+      </c>
+      <c r="I99" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>37</v>
       </c>
       <c r="J99" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>관리</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
+      <c r="N99" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="10" t="str">
+    <row r="100" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B100" s="10">
         <f>IF(C100="","",COUNTA($C$2:C100))</f>
-        <v/>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="6" t="str">
+        <v>99</v>
+      </c>
+      <c r="C100" s="11">
+        <v>46023</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H100" s="4">
+        <v>-883400</v>
+      </c>
+      <c r="I100" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>29</v>
       </c>
       <c r="J100" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
+      <c r="L100" s="11">
+        <v>46052</v>
+      </c>
       <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
+      <c r="N100" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="10" t="str">
+    <row r="101" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B101" s="10">
         <f>IF(C101="","",COUNTA($C$2:C101))</f>
-        <v/>
-      </c>
-      <c r="C101" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="C101" s="11">
+        <v>46052</v>
+      </c>
       <c r="D101" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="6" t="str">
+        <v>B</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-4337828</v>
+      </c>
+      <c r="I101" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="J101" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
       <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
+      <c r="N101" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B102" s="10" t="str">
         <f>IF(C102="","",COUNTA($C$2:C102))</f>
         <v/>
@@ -5996,7 +6095,7 @@
       <c r="R102" s="11"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B103" s="10" t="str">
         <f>IF(C103="","",COUNTA($C$2:C103))</f>
         <v/>
@@ -6023,7 +6122,7 @@
       <c r="R103" s="11"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B104" s="10" t="str">
         <f>IF(C104="","",COUNTA($C$2:C104))</f>
         <v/>
@@ -6050,7 +6149,7 @@
       <c r="R104" s="11"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B105" s="10" t="str">
         <f>IF(C105="","",COUNTA($C$2:C105))</f>
         <v/>
@@ -6077,7 +6176,7 @@
       <c r="R105" s="11"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B106" s="10" t="str">
         <f>IF(C106="","",COUNTA($C$2:C106))</f>
         <v/>
@@ -6104,7 +6203,7 @@
       <c r="R106" s="11"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B107" s="10" t="str">
         <f>IF(C107="","",COUNTA($C$2:C107))</f>
         <v/>
@@ -6131,7 +6230,7 @@
       <c r="R107" s="11"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B108" s="10" t="str">
         <f>IF(C108="","",COUNTA($C$2:C108))</f>
         <v/>
@@ -6158,7 +6257,7 @@
       <c r="R108" s="11"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B109" s="10" t="str">
         <f>IF(C109="","",COUNTA($C$2:C109))</f>
         <v/>
@@ -6185,7 +6284,7 @@
       <c r="R109" s="11"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B110" s="10" t="str">
         <f>IF(C110="","",COUNTA($C$2:C110))</f>
         <v/>
@@ -6212,7 +6311,7 @@
       <c r="R110" s="11"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B111" s="10" t="str">
         <f>IF(C111="","",COUNTA($C$2:C111))</f>
         <v/>
@@ -6239,7 +6338,7 @@
       <c r="R111" s="11"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B112" s="10" t="str">
         <f>IF(C112="","",COUNTA($C$2:C112))</f>
         <v/>
@@ -6266,7 +6365,7 @@
       <c r="R112" s="11"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B113" s="10" t="str">
         <f>IF(C113="","",COUNTA($C$2:C113))</f>
         <v/>
@@ -6293,7 +6392,7 @@
       <c r="R113" s="11"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B114" s="10" t="str">
         <f>IF(C114="","",COUNTA($C$2:C114))</f>
         <v/>
@@ -6328,7 +6427,7 @@
       <c r="R114" s="11"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B115" s="10" t="str">
         <f>IF(C115="","",COUNTA($C$2:C115))</f>
         <v/>
@@ -6355,7 +6454,7 @@
       <c r="R115" s="11"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B116" s="10" t="str">
         <f>IF(C116="","",COUNTA($C$2:C116))</f>
         <v/>
@@ -6382,7 +6481,7 @@
       <c r="R116" s="11"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B117" s="10" t="str">
         <f>IF(C117="","",COUNTA($C$2:C117))</f>
         <v/>
@@ -6409,7 +6508,7 @@
       <c r="R117" s="11"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B118" s="10" t="str">
         <f>IF(C118="","",COUNTA($C$2:C118))</f>
         <v/>
@@ -6436,7 +6535,7 @@
       <c r="R118" s="11"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B119" s="10" t="str">
         <f>IF(C119="","",COUNTA($C$2:C119))</f>
         <v/>
@@ -6463,7 +6562,7 @@
       <c r="R119" s="11"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B120" s="10" t="str">
         <f>IF(C120="","",COUNTA($C$2:C120))</f>
         <v/>
@@ -6490,7 +6589,7 @@
       <c r="R120" s="11"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B121" s="10" t="str">
         <f>IF(C121="","",COUNTA($C$2:C121))</f>
         <v/>
@@ -6517,7 +6616,7 @@
       <c r="R121" s="11"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B122" s="10" t="str">
         <f>IF(C122="","",COUNTA($C$2:C122))</f>
         <v/>
@@ -6544,7 +6643,7 @@
       <c r="R122" s="11"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B123" s="10" t="str">
         <f>IF(C123="","",COUNTA($C$2:C123))</f>
         <v/>
@@ -6571,7 +6670,7 @@
       <c r="R123" s="11"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B124" s="10" t="str">
         <f>IF(C124="","",COUNTA($C$2:C124))</f>
         <v/>
@@ -6598,7 +6697,7 @@
       <c r="R124" s="11"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B125" s="10" t="str">
         <f>IF(C125="","",COUNTA($C$2:C125))</f>
         <v/>
@@ -6625,7 +6724,7 @@
       <c r="R125" s="11"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B126" s="10" t="str">
         <f>IF(C126="","",COUNTA($C$2:C126))</f>
         <v/>
@@ -6652,7 +6751,7 @@
       <c r="R126" s="11"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B127" s="10" t="str">
         <f>IF(C127="","",COUNTA($C$2:C127))</f>
         <v/>
@@ -6679,7 +6778,7 @@
       <c r="R127" s="11"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B128" s="10" t="str">
         <f>IF(C128="","",COUNTA($C$2:C128))</f>
         <v/>
@@ -6706,7 +6805,7 @@
       <c r="R128" s="11"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B129" s="10" t="str">
         <f>IF(C129="","",COUNTA($C$2:C129))</f>
         <v/>
@@ -6733,7 +6832,7 @@
       <c r="R129" s="11"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B130" s="10" t="str">
         <f>IF(C130="","",COUNTA($C$2:C130))</f>
         <v/>
@@ -6760,7 +6859,7 @@
       <c r="R130" s="11"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B131" s="10" t="str">
         <f>IF(C131="","",COUNTA($C$2:C131))</f>
         <v/>
@@ -6784,7 +6883,7 @@
       <c r="R131" s="11"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B132" s="10" t="str">
         <f>IF(C132="","",COUNTA($C$2:C132))</f>
         <v/>
@@ -6808,7 +6907,7 @@
       <c r="R132" s="11"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B133" s="10" t="str">
         <f>IF(C133="","",COUNTA($C$2:C133))</f>
         <v/>
@@ -6832,7 +6931,7 @@
       <c r="R133" s="11"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B134" s="10" t="str">
         <f>IF(C134="","",COUNTA($C$2:C134))</f>
         <v/>
@@ -6856,7 +6955,7 @@
       <c r="R134" s="11"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B135" s="10" t="str">
         <f>IF(C135="","",COUNTA($C$2:C135))</f>
         <v/>
@@ -6880,7 +6979,7 @@
       <c r="R135" s="11"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B136" s="10" t="str">
         <f>IF(C136="","",COUNTA($C$2:C136))</f>
         <v/>
@@ -6904,7 +7003,7 @@
       <c r="R136" s="11"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B137" s="10" t="str">
         <f>IF(C137="","",COUNTA($C$2:C137))</f>
         <v/>
@@ -6928,7 +7027,7 @@
       <c r="R137" s="11"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B138" s="10" t="str">
         <f>IF(C138="","",COUNTA($C$2:C138))</f>
         <v/>
@@ -6952,7 +7051,7 @@
       <c r="R138" s="11"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B139" s="10" t="str">
         <f>IF(C139="","",COUNTA($C$2:C139))</f>
         <v/>
@@ -6976,7 +7075,7 @@
       <c r="R139" s="11"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B140" s="10" t="str">
         <f>IF(C140="","",COUNTA($C$2:C140))</f>
         <v/>
@@ -7000,7 +7099,7 @@
       <c r="R140" s="11"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B141" s="10" t="str">
         <f>IF(C141="","",COUNTA($C$2:C141))</f>
         <v/>
@@ -7024,7 +7123,7 @@
       <c r="R141" s="11"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B142" s="10" t="str">
         <f>IF(C142="","",COUNTA($C$2:C142))</f>
         <v/>
@@ -7048,7 +7147,7 @@
       <c r="R142" s="11"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B143" s="10" t="str">
         <f>IF(C143="","",COUNTA($C$2:C143))</f>
         <v/>
@@ -7072,7 +7171,7 @@
       <c r="R143" s="11"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B144" s="10" t="str">
         <f>IF(C144="","",COUNTA($C$2:C144))</f>
         <v/>
@@ -7096,7 +7195,7 @@
       <c r="R144" s="11"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B145" s="10" t="str">
         <f>IF(C145="","",COUNTA($C$2:C145))</f>
         <v/>
@@ -7120,7 +7219,7 @@
       <c r="R145" s="11"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B146" s="10" t="str">
         <f>IF(C146="","",COUNTA($C$2:C146))</f>
         <v/>
@@ -7144,7 +7243,7 @@
       <c r="R146" s="11"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B147" s="10" t="str">
         <f>IF(C147="","",COUNTA($C$2:C147))</f>
         <v/>
@@ -7168,7 +7267,7 @@
       <c r="R147" s="11"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B148" s="10" t="str">
         <f>IF(C148="","",COUNTA($C$2:C148))</f>
         <v/>
@@ -7192,7 +7291,7 @@
       <c r="R148" s="11"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B149" s="10" t="str">
         <f>IF(C149="","",COUNTA($C$2:C149))</f>
         <v/>
@@ -7216,7 +7315,7 @@
       <c r="R149" s="11"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B150" s="10" t="str">
         <f>IF(C150="","",COUNTA($C$2:C150))</f>
         <v/>
@@ -7240,7 +7339,7 @@
       <c r="R150" s="11"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B151" s="10" t="str">
         <f>IF(C151="","",COUNTA($C$2:C151))</f>
         <v/>
@@ -7264,7 +7363,7 @@
       <c r="R151" s="11"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B152" s="10" t="str">
         <f>IF(C152="","",COUNTA($C$2:C152))</f>
         <v/>
@@ -7288,7 +7387,7 @@
       <c r="R152" s="11"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B153" s="10" t="str">
         <f>IF(C153="","",COUNTA($C$2:C153))</f>
         <v/>
@@ -7312,7 +7411,7 @@
       <c r="R153" s="11"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B154" s="10" t="str">
         <f>IF(C154="","",COUNTA($C$2:C154))</f>
         <v/>
@@ -7336,7 +7435,7 @@
       <c r="R154" s="11"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B155" s="10" t="str">
         <f>IF(C155="","",COUNTA($C$2:C155))</f>
         <v/>
@@ -7360,7 +7459,7 @@
       <c r="R155" s="11"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B156" s="10" t="str">
         <f>IF(C156="","",COUNTA($C$2:C156))</f>
         <v/>
@@ -7384,7 +7483,7 @@
       <c r="R156" s="11"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B157" s="10" t="str">
         <f>IF(C157="","",COUNTA($C$2:C157))</f>
         <v/>
@@ -7408,7 +7507,7 @@
       <c r="R157" s="11"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B158" s="10" t="str">
         <f>IF(C158="","",COUNTA($C$2:C158))</f>
         <v/>
@@ -7432,7 +7531,7 @@
       <c r="R158" s="11"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B159" s="10" t="str">
         <f>IF(C159="","",COUNTA($C$2:C159))</f>
         <v/>
@@ -7456,7 +7555,7 @@
       <c r="R159" s="11"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B160" s="10" t="str">
         <f>IF(C160="","",COUNTA($C$2:C160))</f>
         <v/>
@@ -7480,7 +7579,7 @@
       <c r="R160" s="11"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B161" s="10" t="str">
         <f>IF(C161="","",COUNTA($C$2:C161))</f>
         <v/>
@@ -7504,7 +7603,7 @@
       <c r="R161" s="11"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B162" s="10" t="str">
         <f>IF(C162="","",COUNTA($C$2:C162))</f>
         <v/>
@@ -7528,7 +7627,7 @@
       <c r="R162" s="11"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B163" s="10" t="str">
         <f>IF(C163="","",COUNTA($C$2:C163))</f>
         <v/>
@@ -7552,7 +7651,7 @@
       <c r="R163" s="11"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B164" s="10" t="str">
         <f>IF(C164="","",COUNTA($C$2:C164))</f>
         <v/>
@@ -7576,7 +7675,7 @@
       <c r="R164" s="11"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B165" s="10" t="str">
         <f>IF(C165="","",COUNTA($C$2:C165))</f>
         <v/>
@@ -7600,7 +7699,7 @@
       <c r="R165" s="11"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B166" s="10" t="str">
         <f>IF(C166="","",COUNTA($C$2:C166))</f>
         <v/>
@@ -7624,7 +7723,7 @@
       <c r="R166" s="11"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B167" s="10" t="str">
         <f>IF(C167="","",COUNTA($C$2:C167))</f>
         <v/>
@@ -7648,7 +7747,7 @@
       <c r="R167" s="11"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B168" s="10" t="str">
         <f>IF(C168="","",COUNTA($C$2:C168))</f>
         <v/>
@@ -7672,7 +7771,7 @@
       <c r="R168" s="11"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B169" s="10" t="str">
         <f>IF(C169="","",COUNTA($C$2:C169))</f>
         <v/>
@@ -7696,7 +7795,7 @@
       <c r="R169" s="11"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B170" s="10" t="str">
         <f>IF(C170="","",COUNTA($C$2:C170))</f>
         <v/>
@@ -7720,7 +7819,7 @@
       <c r="R170" s="11"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B171" s="10" t="str">
         <f>IF(C171="","",COUNTA($C$2:C171))</f>
         <v/>
@@ -7744,7 +7843,7 @@
       <c r="R171" s="11"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B172" s="10" t="str">
         <f>IF(C172="","",COUNTA($C$2:C172))</f>
         <v/>
@@ -7768,7 +7867,7 @@
       <c r="R172" s="11"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B173" s="10" t="str">
         <f>IF(C173="","",COUNTA($C$2:C173))</f>
         <v/>
@@ -7792,7 +7891,7 @@
       <c r="R173" s="11"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B174" s="10" t="str">
         <f>IF(C174="","",COUNTA($C$2:C174))</f>
         <v/>
@@ -7816,7 +7915,7 @@
       <c r="R174" s="11"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B175" s="10" t="str">
         <f>IF(C175="","",COUNTA($C$2:C175))</f>
         <v/>
@@ -7840,7 +7939,7 @@
       <c r="R175" s="11"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B176" s="10" t="str">
         <f>IF(C176="","",COUNTA($C$2:C176))</f>
         <v/>
@@ -7864,7 +7963,7 @@
       <c r="R176" s="11"/>
       <c r="S176" s="10"/>
     </row>
-    <row r="177" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B177" s="10" t="str">
         <f>IF(C177="","",COUNTA($C$2:C177))</f>
         <v/>
@@ -7888,7 +7987,7 @@
       <c r="R177" s="11"/>
       <c r="S177" s="10"/>
     </row>
-    <row r="178" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B178" s="10" t="str">
         <f>IF(C178="","",COUNTA($C$2:C178))</f>
         <v/>
@@ -7912,7 +8011,7 @@
       <c r="R178" s="11"/>
       <c r="S178" s="10"/>
     </row>
-    <row r="179" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B179" s="10" t="str">
         <f>IF(C179="","",COUNTA($C$2:C179))</f>
         <v/>
@@ -7936,7 +8035,7 @@
       <c r="R179" s="11"/>
       <c r="S179" s="10"/>
     </row>
-    <row r="180" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B180" s="10" t="str">
         <f>IF(C180="","",COUNTA($C$2:C180))</f>
         <v/>
@@ -7960,7 +8059,7 @@
       <c r="R180" s="11"/>
       <c r="S180" s="10"/>
     </row>
-    <row r="181" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B181" s="10" t="str">
         <f>IF(C181="","",COUNTA($C$2:C181))</f>
         <v/>
@@ -7984,7 +8083,7 @@
       <c r="R181" s="11"/>
       <c r="S181" s="10"/>
     </row>
-    <row r="182" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B182" s="10" t="str">
         <f>IF(C182="","",COUNTA($C$2:C182))</f>
         <v/>
@@ -8008,7 +8107,7 @@
       <c r="R182" s="11"/>
       <c r="S182" s="10"/>
     </row>
-    <row r="183" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B183" s="10" t="str">
         <f>IF(C183="","",COUNTA($C$2:C183))</f>
         <v/>
@@ -8032,7 +8131,7 @@
       <c r="R183" s="11"/>
       <c r="S183" s="10"/>
     </row>
-    <row r="184" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B184" s="10" t="str">
         <f>IF(C184="","",COUNTA($C$2:C184))</f>
         <v/>
@@ -8056,7 +8155,7 @@
       <c r="R184" s="11"/>
       <c r="S184" s="10"/>
     </row>
-    <row r="185" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B185" s="10" t="str">
         <f>IF(C185="","",COUNTA($C$2:C185))</f>
         <v/>
@@ -8080,7 +8179,7 @@
       <c r="R185" s="11"/>
       <c r="S185" s="10"/>
     </row>
-    <row r="186" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B186" s="10" t="str">
         <f>IF(C186="","",COUNTA($C$2:C186))</f>
         <v/>
@@ -8104,7 +8203,7 @@
       <c r="R186" s="11"/>
       <c r="S186" s="10"/>
     </row>
-    <row r="187" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B187" s="10" t="str">
         <f>IF(C187="","",COUNTA($C$2:C187))</f>
         <v/>
@@ -8128,7 +8227,7 @@
       <c r="R187" s="11"/>
       <c r="S187" s="10"/>
     </row>
-    <row r="188" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B188" s="10" t="str">
         <f>IF(C188="","",COUNTA($C$2:C188))</f>
         <v/>
@@ -8152,7 +8251,7 @@
       <c r="R188" s="11"/>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B189" s="10" t="str">
         <f>IF(C189="","",COUNTA($C$2:C189))</f>
         <v/>
@@ -8176,7 +8275,7 @@
       <c r="R189" s="11"/>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B190" s="10" t="str">
         <f>IF(C190="","",COUNTA($C$2:C190))</f>
         <v/>
@@ -8200,7 +8299,7 @@
       <c r="R190" s="11"/>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B191" s="10" t="str">
         <f>IF(C191="","",COUNTA($C$2:C191))</f>
         <v/>
@@ -8224,7 +8323,7 @@
       <c r="R191" s="11"/>
       <c r="S191" s="10"/>
     </row>
-    <row r="192" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B192" s="10" t="str">
         <f>IF(C192="","",COUNTA($C$2:C192))</f>
         <v/>
@@ -8248,7 +8347,7 @@
       <c r="R192" s="11"/>
       <c r="S192" s="10"/>
     </row>
-    <row r="193" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B193" s="10" t="str">
         <f>IF(C193="","",COUNTA($C$2:C193))</f>
         <v/>
@@ -8272,7 +8371,7 @@
       <c r="R193" s="11"/>
       <c r="S193" s="10"/>
     </row>
-    <row r="194" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B194" s="10" t="str">
         <f>IF(C194="","",COUNTA($C$2:C194))</f>
         <v/>
@@ -8296,7 +8395,7 @@
       <c r="R194" s="11"/>
       <c r="S194" s="10"/>
     </row>
-    <row r="195" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B195" s="10" t="str">
         <f>IF(C195="","",COUNTA($C$2:C195))</f>
         <v/>
@@ -8320,7 +8419,7 @@
       <c r="R195" s="11"/>
       <c r="S195" s="10"/>
     </row>
-    <row r="196" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B196" s="10" t="str">
         <f>IF(C196="","",COUNTA($C$2:C196))</f>
         <v/>
@@ -8344,7 +8443,7 @@
       <c r="R196" s="11"/>
       <c r="S196" s="10"/>
     </row>
-    <row r="197" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B197" s="10" t="str">
         <f>IF(C197="","",COUNTA($C$2:C197))</f>
         <v/>
@@ -8368,7 +8467,7 @@
       <c r="R197" s="11"/>
       <c r="S197" s="10"/>
     </row>
-    <row r="198" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B198" s="10" t="str">
         <f>IF(C198="","",COUNTA($C$2:C198))</f>
         <v/>
@@ -8392,7 +8491,7 @@
       <c r="R198" s="11"/>
       <c r="S198" s="10"/>
     </row>
-    <row r="199" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B199" s="10" t="str">
         <f>IF(C199="","",COUNTA($C$2:C199))</f>
         <v/>
@@ -8416,7 +8515,7 @@
       <c r="R199" s="11"/>
       <c r="S199" s="10"/>
     </row>
-    <row r="200" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B200" s="10" t="str">
         <f>IF(C200="","",COUNTA($C$2:C200))</f>
         <v/>
@@ -8440,7 +8539,7 @@
       <c r="R200" s="11"/>
       <c r="S200" s="10"/>
     </row>
-    <row r="201" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B201" s="10" t="str">
         <f>IF(C201="","",COUNTA($C$2:C201))</f>
         <v/>
@@ -8464,7 +8563,7 @@
       <c r="R201" s="11"/>
       <c r="S201" s="10"/>
     </row>
-    <row r="202" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B202" s="10" t="str">
         <f>IF(C202="","",COUNTA($C$2:C202))</f>
         <v/>
@@ -8488,7 +8587,7 @@
       <c r="R202" s="11"/>
       <c r="S202" s="10"/>
     </row>
-    <row r="203" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B203" s="10" t="str">
         <f>IF(C203="","",COUNTA($C$2:C203))</f>
         <v/>
@@ -8512,7 +8611,7 @@
       <c r="R203" s="11"/>
       <c r="S203" s="10"/>
     </row>
-    <row r="204" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B204" s="10" t="str">
         <f>IF(C204="","",COUNTA($C$2:C204))</f>
         <v/>
@@ -8536,7 +8635,7 @@
       <c r="R204" s="11"/>
       <c r="S204" s="10"/>
     </row>
-    <row r="205" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B205" s="10" t="str">
         <f>IF(C205="","",COUNTA($C$2:C205))</f>
         <v/>
@@ -8560,7 +8659,7 @@
       <c r="R205" s="11"/>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B206" s="10" t="str">
         <f>IF(C206="","",COUNTA($C$2:C206))</f>
         <v/>
@@ -8584,7 +8683,7 @@
       <c r="R206" s="11"/>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B207" s="10" t="str">
         <f>IF(C207="","",COUNTA($C$2:C207))</f>
         <v/>
@@ -8608,7 +8707,7 @@
       <c r="R207" s="11"/>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B208" s="10" t="str">
         <f>IF(C208="","",COUNTA($C$2:C208))</f>
         <v/>
@@ -8632,7 +8731,7 @@
       <c r="R208" s="11"/>
       <c r="S208" s="10"/>
     </row>
-    <row r="209" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B209" s="10" t="str">
         <f>IF(C209="","",COUNTA($C$2:C209))</f>
         <v/>
@@ -8656,7 +8755,7 @@
       <c r="R209" s="11"/>
       <c r="S209" s="10"/>
     </row>
-    <row r="210" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B210" s="10" t="str">
         <f>IF(C210="","",COUNTA($C$2:C210))</f>
         <v/>
@@ -8680,7 +8779,7 @@
       <c r="R210" s="11"/>
       <c r="S210" s="10"/>
     </row>
-    <row r="211" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B211" s="10" t="str">
         <f>IF(C211="","",COUNTA($C$2:C211))</f>
         <v/>
@@ -8704,7 +8803,7 @@
       <c r="R211" s="11"/>
       <c r="S211" s="10"/>
     </row>
-    <row r="212" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B212" s="10"/>
       <c r="C212" s="11"/>
       <c r="D212" s="10" t="str">
@@ -8725,7 +8824,7 @@
       <c r="R212" s="11"/>
       <c r="S212" s="10"/>
     </row>
-    <row r="213" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B213" s="10"/>
       <c r="C213" s="11"/>
       <c r="D213" s="10" t="str">
@@ -8746,7 +8845,7 @@
       <c r="R213" s="11"/>
       <c r="S213" s="10"/>
     </row>
-    <row r="214" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B214" s="10"/>
       <c r="C214" s="11"/>
       <c r="D214" s="10" t="str">
@@ -8767,7 +8866,7 @@
       <c r="R214" s="11"/>
       <c r="S214" s="10"/>
     </row>
-    <row r="215" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B215" s="10"/>
       <c r="C215" s="11"/>
       <c r="D215" s="10" t="str">
@@ -8788,7 +8887,7 @@
       <c r="R215" s="11"/>
       <c r="S215" s="10"/>
     </row>
-    <row r="216" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B216" s="10"/>
       <c r="C216" s="11"/>
       <c r="D216" s="10" t="str">
@@ -8809,7 +8908,7 @@
       <c r="R216" s="11"/>
       <c r="S216" s="10"/>
     </row>
-    <row r="217" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B217" s="10"/>
       <c r="C217" s="11"/>
       <c r="D217" s="10" t="str">
@@ -8830,7 +8929,7 @@
       <c r="R217" s="11"/>
       <c r="S217" s="10"/>
     </row>
-    <row r="218" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
       <c r="D218" s="10" t="str">
@@ -8851,7 +8950,7 @@
       <c r="R218" s="11"/>
       <c r="S218" s="10"/>
     </row>
-    <row r="219" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
       <c r="D219" s="10" t="str">
@@ -8872,7 +8971,7 @@
       <c r="R219" s="11"/>
       <c r="S219" s="10"/>
     </row>
-    <row r="220" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
       <c r="D220" s="10" t="str">
@@ -8893,7 +8992,7 @@
       <c r="R220" s="11"/>
       <c r="S220" s="10"/>
     </row>
-    <row r="221" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B221" s="10"/>
       <c r="C221" s="11"/>
       <c r="D221" s="10" t="str">
@@ -8914,7 +9013,7 @@
       <c r="R221" s="11"/>
       <c r="S221" s="10"/>
     </row>
-    <row r="222" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B222" s="10"/>
       <c r="C222" s="11"/>
       <c r="D222" s="10" t="str">
@@ -8935,7 +9034,7 @@
       <c r="R222" s="11"/>
       <c r="S222" s="10"/>
     </row>
-    <row r="223" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B223" s="10"/>
       <c r="C223" s="11"/>
       <c r="D223" s="10" t="str">
@@ -8956,7 +9055,7 @@
       <c r="R223" s="11"/>
       <c r="S223" s="10"/>
     </row>
-    <row r="224" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B224" s="10"/>
       <c r="C224" s="11"/>
       <c r="D224" s="10" t="str">
@@ -8977,7 +9076,7 @@
       <c r="R224" s="11"/>
       <c r="S224" s="10"/>
     </row>
-    <row r="225" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B225" s="10"/>
       <c r="C225" s="11"/>
       <c r="D225" s="10" t="str">
@@ -8998,7 +9097,7 @@
       <c r="R225" s="11"/>
       <c r="S225" s="10"/>
     </row>
-    <row r="226" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B226" s="10"/>
       <c r="C226" s="11"/>
       <c r="D226" s="10" t="str">
@@ -9019,7 +9118,7 @@
       <c r="R226" s="11"/>
       <c r="S226" s="10"/>
     </row>
-    <row r="227" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B227" s="10"/>
       <c r="C227" s="11"/>
       <c r="D227" s="10" t="str">
@@ -9040,7 +9139,7 @@
       <c r="R227" s="11"/>
       <c r="S227" s="10"/>
     </row>
-    <row r="228" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B228" s="10"/>
       <c r="C228" s="11"/>
       <c r="D228" s="10" t="str">
@@ -9061,7 +9160,7 @@
       <c r="R228" s="11"/>
       <c r="S228" s="10"/>
     </row>
-    <row r="229" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B229" s="10"/>
       <c r="C229" s="11"/>
       <c r="D229" s="10" t="str">
@@ -9082,7 +9181,7 @@
       <c r="R229" s="11"/>
       <c r="S229" s="10"/>
     </row>
-    <row r="230" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B230" s="10"/>
       <c r="C230" s="11"/>
       <c r="D230" s="10" t="str">
@@ -9103,7 +9202,7 @@
       <c r="R230" s="11"/>
       <c r="S230" s="10"/>
     </row>
-    <row r="231" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B231" s="10"/>
       <c r="C231" s="11"/>
       <c r="D231" s="10" t="str">
@@ -9124,7 +9223,7 @@
       <c r="R231" s="11"/>
       <c r="S231" s="10"/>
     </row>
-    <row r="232" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B232" s="10"/>
       <c r="C232" s="11"/>
       <c r="D232" s="10" t="str">
@@ -9145,7 +9244,7 @@
       <c r="R232" s="11"/>
       <c r="S232" s="10"/>
     </row>
-    <row r="233" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B233" s="10"/>
       <c r="C233" s="11"/>
       <c r="D233" s="10" t="str">
@@ -9166,7 +9265,7 @@
       <c r="R233" s="11"/>
       <c r="S233" s="10"/>
     </row>
-    <row r="234" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B234" s="10"/>
       <c r="C234" s="11"/>
       <c r="D234" s="10" t="str">
@@ -9187,7 +9286,7 @@
       <c r="R234" s="11"/>
       <c r="S234" s="10"/>
     </row>
-    <row r="235" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B235" s="10"/>
       <c r="C235" s="11"/>
       <c r="D235" s="10" t="str">
@@ -9208,7 +9307,7 @@
       <c r="R235" s="11"/>
       <c r="S235" s="10"/>
     </row>
-    <row r="236" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B236" s="10"/>
       <c r="C236" s="11"/>
       <c r="D236" s="10" t="str">
@@ -9229,7 +9328,7 @@
       <c r="R236" s="11"/>
       <c r="S236" s="10"/>
     </row>
-    <row r="237" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B237" s="10"/>
       <c r="C237" s="11"/>
       <c r="D237" s="10" t="str">
@@ -9250,7 +9349,7 @@
       <c r="R237" s="11"/>
       <c r="S237" s="10"/>
     </row>
-    <row r="238" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B238" s="10"/>
       <c r="C238" s="11"/>
       <c r="D238" s="10" t="str">
@@ -9271,7 +9370,7 @@
       <c r="R238" s="11"/>
       <c r="S238" s="10"/>
     </row>
-    <row r="239" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B239" s="10"/>
       <c r="C239" s="11"/>
       <c r="D239" s="10" t="str">
@@ -9292,7 +9391,7 @@
       <c r="R239" s="11"/>
       <c r="S239" s="10"/>
     </row>
-    <row r="240" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B240" s="10"/>
       <c r="C240" s="11"/>
       <c r="D240" s="10" t="str">
@@ -9313,7 +9412,7 @@
       <c r="R240" s="11"/>
       <c r="S240" s="10"/>
     </row>
-    <row r="241" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B241" s="10"/>
       <c r="C241" s="11"/>
       <c r="D241" s="10" t="str">
@@ -9334,7 +9433,7 @@
       <c r="R241" s="11"/>
       <c r="S241" s="10"/>
     </row>
-    <row r="242" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B242" s="10"/>
       <c r="C242" s="11"/>
       <c r="D242" s="10" t="str">
@@ -9355,7 +9454,7 @@
       <c r="R242" s="11"/>
       <c r="S242" s="10"/>
     </row>
-    <row r="243" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B243" s="10"/>
       <c r="C243" s="11"/>
       <c r="D243" s="10" t="str">
@@ -9376,7 +9475,7 @@
       <c r="R243" s="11"/>
       <c r="S243" s="10"/>
     </row>
-    <row r="244" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
       <c r="D244" s="10" t="str">
@@ -9397,7 +9496,7 @@
       <c r="R244" s="11"/>
       <c r="S244" s="10"/>
     </row>
-    <row r="245" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B245" s="10"/>
       <c r="C245" s="11"/>
       <c r="D245" s="10" t="str">
@@ -9418,7 +9517,7 @@
       <c r="R245" s="11"/>
       <c r="S245" s="10"/>
     </row>
-    <row r="246" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B246" s="10"/>
       <c r="C246" s="11"/>
       <c r="D246" s="10" t="str">
@@ -9439,7 +9538,7 @@
       <c r="R246" s="11"/>
       <c r="S246" s="10"/>
     </row>
-    <row r="247" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B247" s="10"/>
       <c r="C247" s="11"/>
       <c r="D247" s="10" t="str">
@@ -9460,7 +9559,7 @@
       <c r="R247" s="11"/>
       <c r="S247" s="10"/>
     </row>
-    <row r="248" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B248" s="10"/>
       <c r="C248" s="11"/>
       <c r="D248" s="10" t="str">
@@ -9481,7 +9580,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="10"/>
     </row>
-    <row r="249" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B249" s="10"/>
       <c r="C249" s="11"/>
       <c r="D249" s="10" t="str">
@@ -9502,7 +9601,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="10"/>
     </row>
-    <row r="250" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B250" s="10"/>
       <c r="C250" s="11"/>
       <c r="D250" s="10" t="str">
@@ -9523,7 +9622,7 @@
       <c r="R250" s="11"/>
       <c r="S250" s="10"/>
     </row>
-    <row r="251" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B251" s="10"/>
       <c r="C251" s="11"/>
       <c r="D251" s="10" t="str">
@@ -9544,7 +9643,7 @@
       <c r="R251" s="11"/>
       <c r="S251" s="10"/>
     </row>
-    <row r="252" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B252" s="10"/>
       <c r="C252" s="11"/>
       <c r="D252" s="10" t="str">
@@ -9565,7 +9664,7 @@
       <c r="R252" s="11"/>
       <c r="S252" s="10"/>
     </row>
-    <row r="253" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B253" s="10"/>
       <c r="C253" s="11"/>
       <c r="D253" s="10" t="str">
@@ -9586,7 +9685,7 @@
       <c r="R253" s="11"/>
       <c r="S253" s="10"/>
     </row>
-    <row r="254" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B254" s="10"/>
       <c r="C254" s="11"/>
       <c r="D254" s="10" t="str">
@@ -9607,7 +9706,7 @@
       <c r="R254" s="11"/>
       <c r="S254" s="10"/>
     </row>
-    <row r="255" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B255" s="10"/>
       <c r="C255" s="11"/>
       <c r="D255" s="10" t="str">
@@ -9628,7 +9727,7 @@
       <c r="R255" s="11"/>
       <c r="S255" s="10"/>
     </row>
-    <row r="256" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B256" s="10"/>
       <c r="C256" s="11"/>
       <c r="D256" s="10" t="str">
@@ -9649,7 +9748,7 @@
       <c r="R256" s="11"/>
       <c r="S256" s="10"/>
     </row>
-    <row r="257" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B257" s="10"/>
       <c r="C257" s="11"/>
       <c r="D257" s="10" t="str">
@@ -9670,7 +9769,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="10"/>
     </row>
-    <row r="258" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B258" s="10"/>
       <c r="C258" s="11"/>
       <c r="D258" s="10" t="str">
@@ -9691,7 +9790,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="10"/>
     </row>
-    <row r="259" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B259" s="10"/>
       <c r="C259" s="11"/>
       <c r="D259" s="10" t="str">
@@ -9712,7 +9811,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="10"/>
     </row>
-    <row r="260" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B260" s="10"/>
       <c r="C260" s="11"/>
       <c r="D260" s="10" t="str">
@@ -9733,7 +9832,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="10"/>
     </row>
-    <row r="261" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B261" s="10"/>
       <c r="C261" s="11"/>
       <c r="D261" s="10" t="str">
@@ -9754,7 +9853,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="10"/>
     </row>
-    <row r="262" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B262" s="10"/>
       <c r="C262" s="11"/>
       <c r="D262" s="10" t="str">
@@ -9775,7 +9874,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="10"/>
     </row>
-    <row r="263" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B263" s="10"/>
       <c r="C263" s="11"/>
       <c r="D263" s="10" t="str">
@@ -9796,7 +9895,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="10"/>
     </row>
-    <row r="264" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B264" s="10"/>
       <c r="C264" s="11"/>
       <c r="D264" s="10" t="str">
@@ -9817,7 +9916,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="10"/>
     </row>
-    <row r="265" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B265" s="10"/>
       <c r="C265" s="11"/>
       <c r="D265" s="10" t="str">
@@ -9838,7 +9937,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="10"/>
     </row>
-    <row r="266" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B266" s="10"/>
       <c r="C266" s="11"/>
       <c r="D266" s="10" t="str">
@@ -9859,7 +9958,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="10"/>
     </row>
-    <row r="267" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B267" s="10"/>
       <c r="C267" s="11"/>
       <c r="D267" s="10" t="str">
@@ -9880,7 +9979,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="10"/>
     </row>
-    <row r="268" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B268" s="10"/>
       <c r="C268" s="11"/>
       <c r="D268" s="10" t="str">
@@ -9901,7 +10000,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="10"/>
     </row>
-    <row r="269" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B269" s="10"/>
       <c r="C269" s="11"/>
       <c r="D269" s="10" t="str">
@@ -9922,7 +10021,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="10"/>
     </row>
-    <row r="270" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B270" s="10"/>
       <c r="C270" s="11"/>
       <c r="D270" s="10" t="str">
@@ -9943,7 +10042,7 @@
       <c r="R270" s="11"/>
       <c r="S270" s="10"/>
     </row>
-    <row r="271" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B271" s="10"/>
       <c r="C271" s="11"/>
       <c r="D271" s="10" t="str">
@@ -9964,7 +10063,7 @@
       <c r="R271" s="11"/>
       <c r="S271" s="10"/>
     </row>
-    <row r="272" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B272" s="10"/>
       <c r="C272" s="11"/>
       <c r="D272" s="10" t="str">
@@ -9985,7 +10084,7 @@
       <c r="R272" s="11"/>
       <c r="S272" s="10"/>
     </row>
-    <row r="273" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B273" s="10"/>
       <c r="C273" s="11"/>
       <c r="D273" s="10" t="str">
@@ -10006,7 +10105,7 @@
       <c r="R273" s="11"/>
       <c r="S273" s="10"/>
     </row>
-    <row r="274" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B274" s="10"/>
       <c r="C274" s="11"/>
       <c r="D274" s="10" t="str">
@@ -10027,7 +10126,7 @@
       <c r="R274" s="11"/>
       <c r="S274" s="10"/>
     </row>
-    <row r="275" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B275" s="10"/>
       <c r="C275" s="11"/>
       <c r="D275" s="10" t="str">
@@ -10048,7 +10147,7 @@
       <c r="R275" s="11"/>
       <c r="S275" s="10"/>
     </row>
-    <row r="276" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B276" s="10"/>
       <c r="C276" s="11"/>
       <c r="D276" s="10" t="str">
@@ -10069,7 +10168,7 @@
       <c r="R276" s="11"/>
       <c r="S276" s="10"/>
     </row>
-    <row r="277" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B277" s="10"/>
       <c r="C277" s="11"/>
       <c r="D277" s="10" t="str">
@@ -10090,7 +10189,7 @@
       <c r="R277" s="11"/>
       <c r="S277" s="10"/>
     </row>
-    <row r="278" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B278" s="10"/>
       <c r="C278" s="11"/>
       <c r="D278" s="10" t="str">
@@ -10111,7 +10210,7 @@
       <c r="R278" s="11"/>
       <c r="S278" s="10"/>
     </row>
-    <row r="279" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B279" s="10"/>
       <c r="C279" s="11"/>
       <c r="D279" s="10" t="str">
@@ -10132,7 +10231,7 @@
       <c r="R279" s="11"/>
       <c r="S279" s="10"/>
     </row>
-    <row r="280" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B280" s="10"/>
       <c r="C280" s="11"/>
       <c r="D280" s="10" t="str">
@@ -10153,7 +10252,7 @@
       <c r="R280" s="11"/>
       <c r="S280" s="10"/>
     </row>
-    <row r="281" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B281" s="10"/>
       <c r="C281" s="11"/>
       <c r="D281" s="10" t="str">
@@ -10174,7 +10273,7 @@
       <c r="R281" s="11"/>
       <c r="S281" s="10"/>
     </row>
-    <row r="282" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B282" s="10"/>
       <c r="C282" s="11"/>
       <c r="D282" s="10" t="str">
@@ -10195,7 +10294,7 @@
       <c r="R282" s="11"/>
       <c r="S282" s="10"/>
     </row>
-    <row r="283" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B283" s="10"/>
       <c r="C283" s="11"/>
       <c r="D283" s="10" t="str">
@@ -10216,7 +10315,7 @@
       <c r="R283" s="11"/>
       <c r="S283" s="10"/>
     </row>
-    <row r="284" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B284" s="10"/>
       <c r="C284" s="11"/>
       <c r="D284" s="10" t="str">
@@ -10237,7 +10336,7 @@
       <c r="R284" s="11"/>
       <c r="S284" s="10"/>
     </row>
-    <row r="285" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B285" s="10"/>
       <c r="C285" s="11"/>
       <c r="D285" s="10" t="str">
@@ -10258,7 +10357,7 @@
       <c r="R285" s="11"/>
       <c r="S285" s="10"/>
     </row>
-    <row r="286" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B286" s="10"/>
       <c r="C286" s="11"/>
       <c r="D286" s="10" t="str">
@@ -10279,7 +10378,7 @@
       <c r="R286" s="11"/>
       <c r="S286" s="10"/>
     </row>
-    <row r="287" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B287" s="10"/>
       <c r="C287" s="11"/>
       <c r="D287" s="10" t="str">
@@ -10300,7 +10399,7 @@
       <c r="R287" s="11"/>
       <c r="S287" s="10"/>
     </row>
-    <row r="288" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B288" s="10"/>
       <c r="C288" s="11"/>
       <c r="D288" s="10" t="str">
@@ -10321,7 +10420,7 @@
       <c r="R288" s="11"/>
       <c r="S288" s="10"/>
     </row>
-    <row r="289" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B289" s="10"/>
       <c r="C289" s="11"/>
       <c r="D289" s="10" t="str">
@@ -10342,7 +10441,7 @@
       <c r="R289" s="11"/>
       <c r="S289" s="10"/>
     </row>
-    <row r="290" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B290" s="10"/>
       <c r="C290" s="11"/>
       <c r="D290" s="10" t="str">
@@ -10363,7 +10462,7 @@
       <c r="R290" s="11"/>
       <c r="S290" s="10"/>
     </row>
-    <row r="291" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B291" s="10"/>
       <c r="C291" s="11"/>
       <c r="D291" s="10" t="str">
@@ -10384,7 +10483,7 @@
       <c r="R291" s="11"/>
       <c r="S291" s="10"/>
     </row>
-    <row r="292" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B292" s="10"/>
       <c r="C292" s="11"/>
       <c r="D292" s="10" t="str">
@@ -10405,7 +10504,7 @@
       <c r="R292" s="11"/>
       <c r="S292" s="10"/>
     </row>
-    <row r="293" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B293" s="10"/>
       <c r="C293" s="11"/>
       <c r="D293" s="10" t="str">
@@ -10426,7 +10525,7 @@
       <c r="R293" s="11"/>
       <c r="S293" s="10"/>
     </row>
-    <row r="294" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B294" s="10"/>
       <c r="C294" s="11"/>
       <c r="D294" s="10" t="str">
@@ -10447,7 +10546,7 @@
       <c r="R294" s="11"/>
       <c r="S294" s="10"/>
     </row>
-    <row r="295" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B295" s="10"/>
       <c r="C295" s="11"/>
       <c r="D295" s="10" t="str">
@@ -10468,7 +10567,7 @@
       <c r="R295" s="11"/>
       <c r="S295" s="10"/>
     </row>
-    <row r="296" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B296" s="10"/>
       <c r="C296" s="11"/>
       <c r="D296" s="10" t="str">
@@ -10489,7 +10588,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="10"/>
     </row>
-    <row r="297" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B297" s="10"/>
       <c r="C297" s="11"/>
       <c r="D297" s="10" t="str">
@@ -10510,7 +10609,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="10"/>
     </row>
-    <row r="298" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B298" s="10"/>
       <c r="C298" s="11"/>
       <c r="D298" s="10" t="str">
@@ -10531,7 +10630,7 @@
       <c r="R298" s="11"/>
       <c r="S298" s="10"/>
     </row>
-    <row r="299" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B299" s="10"/>
       <c r="C299" s="11"/>
       <c r="D299" s="10" t="str">
@@ -10552,7 +10651,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="10"/>
     </row>
-    <row r="300" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B300" s="10"/>
       <c r="C300" s="11"/>
       <c r="D300" s="10" t="str">
@@ -10573,7 +10672,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="10"/>
     </row>
-    <row r="301" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B301" s="10"/>
       <c r="C301" s="11"/>
       <c r="D301" s="10" t="str">
@@ -10594,7 +10693,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="10"/>
     </row>
-    <row r="302" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B302" s="10"/>
       <c r="C302" s="11"/>
       <c r="D302" s="10" t="str">
@@ -10615,7 +10714,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="10"/>
     </row>
-    <row r="303" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B303" s="10"/>
       <c r="C303" s="11"/>
       <c r="D303" s="10" t="str">
@@ -10636,7 +10735,7 @@
       <c r="R303" s="11"/>
       <c r="S303" s="10"/>
     </row>
-    <row r="304" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B304" s="10"/>
       <c r="C304" s="11"/>
       <c r="D304" s="10" t="str">
@@ -10657,7 +10756,7 @@
       <c r="R304" s="11"/>
       <c r="S304" s="10"/>
     </row>
-    <row r="305" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B305" s="10"/>
       <c r="C305" s="11"/>
       <c r="D305" s="10" t="str">
@@ -10678,7 +10777,7 @@
       <c r="R305" s="11"/>
       <c r="S305" s="10"/>
     </row>
-    <row r="306" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B306" s="10"/>
       <c r="C306" s="11"/>
       <c r="D306" s="10" t="str">
@@ -10699,7 +10798,7 @@
       <c r="R306" s="11"/>
       <c r="S306" s="10"/>
     </row>
-    <row r="307" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B307" s="10"/>
       <c r="C307" s="11"/>
       <c r="D307" s="10" t="str">
@@ -10720,7 +10819,7 @@
       <c r="R307" s="11"/>
       <c r="S307" s="10"/>
     </row>
-    <row r="308" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B308" s="10"/>
       <c r="C308" s="11"/>
       <c r="D308" s="10" t="str">
@@ -10741,7 +10840,7 @@
       <c r="R308" s="11"/>
       <c r="S308" s="10"/>
     </row>
-    <row r="309" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B309" s="10"/>
       <c r="C309" s="11"/>
       <c r="D309" s="10" t="str">
@@ -10762,7 +10861,7 @@
       <c r="R309" s="11"/>
       <c r="S309" s="10"/>
     </row>
-    <row r="310" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B310" s="10"/>
       <c r="C310" s="11"/>
       <c r="D310" s="10" t="str">
@@ -10783,7 +10882,7 @@
       <c r="R310" s="11"/>
       <c r="S310" s="10"/>
     </row>
-    <row r="311" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B311" s="10"/>
       <c r="C311" s="11"/>
       <c r="D311" s="10" t="str">
@@ -10804,7 +10903,7 @@
       <c r="R311" s="11"/>
       <c r="S311" s="10"/>
     </row>
-    <row r="312" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B312" s="10"/>
       <c r="C312" s="11"/>
       <c r="D312" s="10" t="str">
@@ -10825,7 +10924,7 @@
       <c r="R312" s="11"/>
       <c r="S312" s="10"/>
     </row>
-    <row r="313" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B313" s="10"/>
       <c r="C313" s="11"/>
       <c r="D313" s="10" t="str">
@@ -10846,7 +10945,7 @@
       <c r="R313" s="11"/>
       <c r="S313" s="10"/>
     </row>
-    <row r="314" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B314" s="10"/>
       <c r="C314" s="11"/>
       <c r="D314" s="10" t="str">
@@ -10867,7 +10966,7 @@
       <c r="R314" s="11"/>
       <c r="S314" s="10"/>
     </row>
-    <row r="315" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B315" s="10"/>
       <c r="C315" s="11"/>
       <c r="D315" s="10" t="str">
@@ -10888,7 +10987,7 @@
       <c r="R315" s="11"/>
       <c r="S315" s="10"/>
     </row>
-    <row r="316" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B316" s="10"/>
       <c r="C316" s="11"/>
       <c r="D316" s="10" t="str">
@@ -10909,7 +11008,7 @@
       <c r="R316" s="11"/>
       <c r="S316" s="10"/>
     </row>
-    <row r="317" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B317" s="10"/>
       <c r="C317" s="11"/>
       <c r="D317" s="10" t="str">
@@ -10930,7 +11029,7 @@
       <c r="R317" s="11"/>
       <c r="S317" s="10"/>
     </row>
-    <row r="318" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B318" s="10"/>
       <c r="C318" s="11"/>
       <c r="D318" s="10" t="str">
@@ -10951,7 +11050,7 @@
       <c r="R318" s="11"/>
       <c r="S318" s="10"/>
     </row>
-    <row r="319" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B319" s="10"/>
       <c r="C319" s="11"/>
       <c r="D319" s="10" t="str">
@@ -10972,7 +11071,7 @@
       <c r="R319" s="11"/>
       <c r="S319" s="10"/>
     </row>
-    <row r="320" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B320" s="10"/>
       <c r="C320" s="11"/>
       <c r="D320" s="10" t="str">
@@ -10993,7 +11092,7 @@
       <c r="R320" s="11"/>
       <c r="S320" s="10"/>
     </row>
-    <row r="321" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B321" s="10"/>
       <c r="C321" s="11"/>
       <c r="D321" s="10" t="str">
@@ -11014,7 +11113,7 @@
       <c r="R321" s="11"/>
       <c r="S321" s="10"/>
     </row>
-    <row r="322" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B322" s="10"/>
       <c r="C322" s="11"/>
       <c r="D322" s="10" t="str">
@@ -11035,7 +11134,7 @@
       <c r="R322" s="11"/>
       <c r="S322" s="10"/>
     </row>
-    <row r="323" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B323" s="10"/>
       <c r="C323" s="11"/>
       <c r="D323" s="10" t="str">
@@ -11056,7 +11155,7 @@
       <c r="R323" s="11"/>
       <c r="S323" s="10"/>
     </row>
-    <row r="324" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B324" s="10"/>
       <c r="C324" s="11"/>
       <c r="D324" s="10" t="str">
@@ -11077,7 +11176,7 @@
       <c r="R324" s="11"/>
       <c r="S324" s="10"/>
     </row>
-    <row r="325" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B325" s="10"/>
       <c r="C325" s="11"/>
       <c r="D325" s="10" t="str">
@@ -11098,7 +11197,7 @@
       <c r="R325" s="11"/>
       <c r="S325" s="10"/>
     </row>
-    <row r="326" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B326" s="10"/>
       <c r="C326" s="11"/>
       <c r="D326" s="10" t="str">
@@ -11119,7 +11218,7 @@
       <c r="R326" s="11"/>
       <c r="S326" s="10"/>
     </row>
-    <row r="327" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B327" s="10"/>
       <c r="C327" s="11"/>
       <c r="D327" s="10" t="str">
@@ -11140,7 +11239,7 @@
       <c r="R327" s="11"/>
       <c r="S327" s="10"/>
     </row>
-    <row r="328" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B328" s="10"/>
       <c r="C328" s="11"/>
       <c r="D328" s="10" t="str">
@@ -11161,7 +11260,7 @@
       <c r="R328" s="11"/>
       <c r="S328" s="10"/>
     </row>
-    <row r="329" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B329" s="10"/>
       <c r="C329" s="11"/>
       <c r="D329" s="10" t="str">
@@ -11182,7 +11281,7 @@
       <c r="R329" s="11"/>
       <c r="S329" s="10"/>
     </row>
-    <row r="330" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B330" s="10"/>
       <c r="C330" s="11"/>
       <c r="D330" s="10" t="str">
@@ -11203,7 +11302,7 @@
       <c r="R330" s="11"/>
       <c r="S330" s="10"/>
     </row>
-    <row r="331" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B331" s="10"/>
       <c r="C331" s="11"/>
       <c r="D331" s="10" t="str">
@@ -11224,7 +11323,7 @@
       <c r="R331" s="11"/>
       <c r="S331" s="10"/>
     </row>
-    <row r="332" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B332" s="10"/>
       <c r="C332" s="11"/>
       <c r="D332" s="10" t="str">
@@ -11245,7 +11344,7 @@
       <c r="R332" s="11"/>
       <c r="S332" s="10"/>
     </row>
-    <row r="333" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B333" s="10"/>
       <c r="C333" s="11"/>
       <c r="D333" s="10" t="str">
@@ -11266,7 +11365,7 @@
       <c r="R333" s="11"/>
       <c r="S333" s="10"/>
     </row>
-    <row r="334" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B334" s="10"/>
       <c r="C334" s="11"/>
       <c r="D334" s="10" t="str">
@@ -11287,7 +11386,7 @@
       <c r="R334" s="11"/>
       <c r="S334" s="10"/>
     </row>
-    <row r="335" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B335" s="10"/>
       <c r="C335" s="11"/>
       <c r="D335" s="10" t="str">
@@ -11308,7 +11407,7 @@
       <c r="R335" s="11"/>
       <c r="S335" s="10"/>
     </row>
-    <row r="336" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B336" s="10"/>
       <c r="C336" s="11"/>
       <c r="D336" s="10" t="str">
@@ -11329,7 +11428,7 @@
       <c r="R336" s="11"/>
       <c r="S336" s="10"/>
     </row>
-    <row r="337" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B337" s="10"/>
       <c r="C337" s="11"/>
       <c r="D337" s="10" t="str">
@@ -11350,7 +11449,7 @@
       <c r="R337" s="11"/>
       <c r="S337" s="10"/>
     </row>
-    <row r="338" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B338" s="10"/>
       <c r="C338" s="11"/>
       <c r="D338" s="10" t="str">
@@ -11371,7 +11470,7 @@
       <c r="R338" s="11"/>
       <c r="S338" s="10"/>
     </row>
-    <row r="339" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B339" s="10"/>
       <c r="C339" s="11"/>
       <c r="D339" s="10" t="str">
@@ -11392,7 +11491,7 @@
       <c r="R339" s="11"/>
       <c r="S339" s="10"/>
     </row>
-    <row r="340" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B340" s="10"/>
       <c r="C340" s="11"/>
       <c r="D340" s="10" t="str">
@@ -11413,7 +11512,7 @@
       <c r="R340" s="11"/>
       <c r="S340" s="10"/>
     </row>
-    <row r="341" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B341" s="10"/>
       <c r="C341" s="11"/>
       <c r="D341" s="10" t="str">
@@ -11434,7 +11533,7 @@
       <c r="R341" s="11"/>
       <c r="S341" s="10"/>
     </row>
-    <row r="342" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B342" s="10"/>
       <c r="C342" s="11"/>
       <c r="D342" s="10" t="str">
@@ -11455,7 +11554,7 @@
       <c r="R342" s="11"/>
       <c r="S342" s="10"/>
     </row>
-    <row r="343" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B343" s="10"/>
       <c r="C343" s="11"/>
       <c r="D343" s="10" t="str">
@@ -11476,7 +11575,7 @@
       <c r="R343" s="11"/>
       <c r="S343" s="10"/>
     </row>
-    <row r="344" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B344" s="10"/>
       <c r="C344" s="11"/>
       <c r="D344" s="10" t="str">
@@ -11497,7 +11596,7 @@
       <c r="R344" s="11"/>
       <c r="S344" s="10"/>
     </row>
-    <row r="345" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B345" s="10"/>
       <c r="C345" s="11"/>
       <c r="D345" s="10" t="str">
@@ -11518,7 +11617,7 @@
       <c r="R345" s="11"/>
       <c r="S345" s="10"/>
     </row>
-    <row r="346" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B346" s="10"/>
       <c r="C346" s="11"/>
       <c r="D346" s="10" t="str">
@@ -11539,7 +11638,7 @@
       <c r="R346" s="11"/>
       <c r="S346" s="10"/>
     </row>
-    <row r="347" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B347" s="10"/>
       <c r="C347" s="11"/>
       <c r="D347" s="10" t="str">
@@ -11560,7 +11659,7 @@
       <c r="R347" s="11"/>
       <c r="S347" s="10"/>
     </row>
-    <row r="348" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B348" s="10"/>
       <c r="C348" s="11"/>
       <c r="D348" s="10" t="str">
@@ -11581,7 +11680,7 @@
       <c r="R348" s="11"/>
       <c r="S348" s="10"/>
     </row>
-    <row r="349" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B349" s="10"/>
       <c r="C349" s="11"/>
       <c r="D349" s="10" t="str">
@@ -11602,7 +11701,7 @@
       <c r="R349" s="11"/>
       <c r="S349" s="10"/>
     </row>
-    <row r="350" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B350" s="10"/>
       <c r="C350" s="11"/>
       <c r="D350" s="10" t="str">
@@ -11623,7 +11722,7 @@
       <c r="R350" s="11"/>
       <c r="S350" s="10"/>
     </row>
-    <row r="351" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B351" s="10"/>
       <c r="C351" s="11"/>
       <c r="D351" s="10" t="str">
@@ -11644,7 +11743,7 @@
       <c r="R351" s="11"/>
       <c r="S351" s="10"/>
     </row>
-    <row r="352" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B352" s="10"/>
       <c r="C352" s="11"/>
       <c r="D352" s="10" t="str">
@@ -11665,7 +11764,7 @@
       <c r="R352" s="11"/>
       <c r="S352" s="10"/>
     </row>
-    <row r="353" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B353" s="10"/>
       <c r="C353" s="11"/>
       <c r="D353" s="10" t="str">
@@ -11686,7 +11785,7 @@
       <c r="R353" s="11"/>
       <c r="S353" s="10"/>
     </row>
-    <row r="354" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B354" s="10"/>
       <c r="C354" s="11"/>
       <c r="D354" s="10" t="str">
@@ -11707,7 +11806,7 @@
       <c r="R354" s="11"/>
       <c r="S354" s="10"/>
     </row>
-    <row r="355" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B355" s="10"/>
       <c r="C355" s="11"/>
       <c r="D355" s="10" t="str">
@@ -11728,7 +11827,7 @@
       <c r="R355" s="11"/>
       <c r="S355" s="10"/>
     </row>
-    <row r="356" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B356" s="10"/>
       <c r="C356" s="11"/>
       <c r="D356" s="10" t="str">
@@ -11749,7 +11848,7 @@
       <c r="R356" s="11"/>
       <c r="S356" s="10"/>
     </row>
-    <row r="357" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B357" s="10"/>
       <c r="C357" s="11"/>
       <c r="D357" s="10" t="str">
@@ -11770,7 +11869,7 @@
       <c r="R357" s="11"/>
       <c r="S357" s="10"/>
     </row>
-    <row r="358" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B358" s="10"/>
       <c r="C358" s="11"/>
       <c r="D358" s="10" t="str">
@@ -11791,7 +11890,7 @@
       <c r="R358" s="11"/>
       <c r="S358" s="10"/>
     </row>
-    <row r="359" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B359" s="10"/>
       <c r="C359" s="11"/>
       <c r="D359" s="10" t="str">
@@ -11812,7 +11911,7 @@
       <c r="R359" s="11"/>
       <c r="S359" s="10"/>
     </row>
-    <row r="360" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B360" s="10"/>
       <c r="C360" s="11"/>
       <c r="D360" s="10" t="str">
@@ -11833,7 +11932,7 @@
       <c r="R360" s="11"/>
       <c r="S360" s="10"/>
     </row>
-    <row r="361" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B361" s="10"/>
       <c r="C361" s="11"/>
       <c r="D361" s="10" t="str">
@@ -11854,7 +11953,7 @@
       <c r="R361" s="11"/>
       <c r="S361" s="10"/>
     </row>
-    <row r="362" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B362" s="10"/>
       <c r="C362" s="11"/>
       <c r="D362" s="10" t="str">
@@ -11875,7 +11974,7 @@
       <c r="R362" s="11"/>
       <c r="S362" s="10"/>
     </row>
-    <row r="363" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B363" s="10"/>
       <c r="C363" s="11"/>
       <c r="D363" s="10" t="str">
@@ -11896,7 +11995,7 @@
       <c r="R363" s="11"/>
       <c r="S363" s="10"/>
     </row>
-    <row r="364" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B364" s="10"/>
       <c r="C364" s="11"/>
       <c r="D364" s="10" t="str">
@@ -11917,7 +12016,7 @@
       <c r="R364" s="11"/>
       <c r="S364" s="10"/>
     </row>
-    <row r="365" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B365" s="10"/>
       <c r="C365" s="11"/>
       <c r="D365" s="10" t="str">
@@ -11938,7 +12037,7 @@
       <c r="R365" s="11"/>
       <c r="S365" s="10"/>
     </row>
-    <row r="366" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B366" s="10"/>
       <c r="C366" s="11"/>
       <c r="D366" s="10" t="str">
@@ -11959,7 +12058,7 @@
       <c r="R366" s="11"/>
       <c r="S366" s="10"/>
     </row>
-    <row r="367" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B367" s="10"/>
       <c r="C367" s="11"/>
       <c r="D367" s="10" t="str">
@@ -11980,7 +12079,7 @@
       <c r="R367" s="11"/>
       <c r="S367" s="10"/>
     </row>
-    <row r="368" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B368" s="10"/>
       <c r="C368" s="11"/>
       <c r="D368" s="10" t="str">
@@ -12001,7 +12100,7 @@
       <c r="R368" s="11"/>
       <c r="S368" s="10"/>
     </row>
-    <row r="369" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B369" s="10"/>
       <c r="C369" s="11"/>
       <c r="D369" s="10" t="str">
@@ -12022,7 +12121,7 @@
       <c r="R369" s="11"/>
       <c r="S369" s="10"/>
     </row>
-    <row r="370" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B370" s="10"/>
       <c r="C370" s="11"/>
       <c r="D370" s="10" t="str">
@@ -12043,7 +12142,7 @@
       <c r="R370" s="11"/>
       <c r="S370" s="10"/>
     </row>
-    <row r="371" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B371" s="10"/>
       <c r="C371" s="11"/>
       <c r="D371" s="10" t="str">
@@ -12064,7 +12163,7 @@
       <c r="R371" s="11"/>
       <c r="S371" s="10"/>
     </row>
-    <row r="372" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B372" s="10"/>
       <c r="C372" s="11"/>
       <c r="D372" s="10" t="str">
@@ -12085,7 +12184,7 @@
       <c r="R372" s="11"/>
       <c r="S372" s="10"/>
     </row>
-    <row r="373" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B373" s="10"/>
       <c r="C373" s="11"/>
       <c r="D373" s="10" t="str">
@@ -12106,7 +12205,7 @@
       <c r="R373" s="11"/>
       <c r="S373" s="10"/>
     </row>
-    <row r="374" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B374" s="10"/>
       <c r="C374" s="11"/>
       <c r="D374" s="10" t="str">
@@ -12127,7 +12226,7 @@
       <c r="R374" s="11"/>
       <c r="S374" s="10"/>
     </row>
-    <row r="375" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B375" s="10"/>
       <c r="C375" s="11"/>
       <c r="D375" s="10" t="str">
@@ -12148,7 +12247,7 @@
       <c r="R375" s="11"/>
       <c r="S375" s="10"/>
     </row>
-    <row r="376" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B376" s="10"/>
       <c r="C376" s="11"/>
       <c r="D376" s="10" t="str">
@@ -12169,7 +12268,7 @@
       <c r="R376" s="11"/>
       <c r="S376" s="10"/>
     </row>
-    <row r="377" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B377" s="10"/>
       <c r="C377" s="11"/>
       <c r="D377" s="10" t="str">
@@ -12190,7 +12289,7 @@
       <c r="R377" s="11"/>
       <c r="S377" s="10"/>
     </row>
-    <row r="378" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B378" s="10"/>
       <c r="C378" s="11"/>
       <c r="D378" s="10" t="str">
@@ -12211,7 +12310,7 @@
       <c r="R378" s="11"/>
       <c r="S378" s="10"/>
     </row>
-    <row r="379" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B379" s="10"/>
       <c r="C379" s="11"/>
       <c r="D379" s="10" t="str">
@@ -12232,7 +12331,7 @@
       <c r="R379" s="11"/>
       <c r="S379" s="10"/>
     </row>
-    <row r="380" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B380" s="10"/>
       <c r="C380" s="11"/>
       <c r="D380" s="10" t="str">
@@ -12253,7 +12352,7 @@
       <c r="R380" s="11"/>
       <c r="S380" s="10"/>
     </row>
-    <row r="381" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B381" s="10"/>
       <c r="C381" s="11"/>
       <c r="D381" s="10" t="str">
@@ -12274,7 +12373,7 @@
       <c r="R381" s="11"/>
       <c r="S381" s="10"/>
     </row>
-    <row r="382" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B382" s="10"/>
       <c r="C382" s="11"/>
       <c r="D382" s="10" t="str">
@@ -12295,7 +12394,7 @@
       <c r="R382" s="11"/>
       <c r="S382" s="10"/>
     </row>
-    <row r="383" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B383" s="10"/>
       <c r="C383" s="11"/>
       <c r="D383" s="10" t="str">
@@ -12316,7 +12415,7 @@
       <c r="R383" s="11"/>
       <c r="S383" s="10"/>
     </row>
-    <row r="384" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B384" s="10"/>
       <c r="C384" s="11"/>
       <c r="D384" s="10" t="str">
@@ -12337,7 +12436,7 @@
       <c r="R384" s="11"/>
       <c r="S384" s="10"/>
     </row>
-    <row r="385" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B385" s="10"/>
       <c r="C385" s="11"/>
       <c r="D385" s="10" t="str">
@@ -12358,7 +12457,7 @@
       <c r="R385" s="11"/>
       <c r="S385" s="10"/>
     </row>
-    <row r="386" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B386" s="10"/>
       <c r="C386" s="11"/>
       <c r="D386" s="10" t="str">
@@ -12379,7 +12478,7 @@
       <c r="R386" s="11"/>
       <c r="S386" s="10"/>
     </row>
-    <row r="387" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B387" s="10"/>
       <c r="C387" s="11"/>
       <c r="D387" s="10" t="str">
@@ -12400,7 +12499,7 @@
       <c r="R387" s="11"/>
       <c r="S387" s="10"/>
     </row>
-    <row r="388" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B388" s="10"/>
       <c r="C388" s="11"/>
       <c r="D388" s="10" t="str">
@@ -12421,7 +12520,7 @@
       <c r="R388" s="11"/>
       <c r="S388" s="10"/>
     </row>
-    <row r="389" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B389" s="10"/>
       <c r="C389" s="11"/>
       <c r="D389" s="10" t="str">
@@ -12442,7 +12541,7 @@
       <c r="R389" s="11"/>
       <c r="S389" s="10"/>
     </row>
-    <row r="390" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B390" s="10"/>
       <c r="C390" s="11"/>
       <c r="D390" s="10" t="str">
@@ -12463,7 +12562,7 @@
       <c r="R390" s="11"/>
       <c r="S390" s="10"/>
     </row>
-    <row r="391" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B391" s="10"/>
       <c r="C391" s="11"/>
       <c r="D391" s="10" t="str">
@@ -12484,7 +12583,7 @@
       <c r="R391" s="11"/>
       <c r="S391" s="10"/>
     </row>
-    <row r="392" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B392" s="10"/>
       <c r="C392" s="11"/>
       <c r="D392" s="10" t="str">
@@ -12505,7 +12604,7 @@
       <c r="R392" s="11"/>
       <c r="S392" s="10"/>
     </row>
-    <row r="393" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B393" s="10"/>
       <c r="C393" s="11"/>
       <c r="D393" s="10" t="str">
@@ -12526,7 +12625,7 @@
       <c r="R393" s="11"/>
       <c r="S393" s="10"/>
     </row>
-    <row r="394" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B394" s="10"/>
       <c r="C394" s="11"/>
       <c r="D394" s="10" t="str">
@@ -12547,7 +12646,7 @@
       <c r="R394" s="11"/>
       <c r="S394" s="10"/>
     </row>
-    <row r="395" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B395" s="10"/>
       <c r="C395" s="11"/>
       <c r="D395" s="10" t="str">
@@ -12568,7 +12667,7 @@
       <c r="R395" s="11"/>
       <c r="S395" s="10"/>
     </row>
-    <row r="396" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B396" s="10"/>
       <c r="C396" s="11"/>
       <c r="D396" s="10" t="str">
@@ -12589,7 +12688,7 @@
       <c r="R396" s="11"/>
       <c r="S396" s="10"/>
     </row>
-    <row r="397" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B397" s="10"/>
       <c r="C397" s="11"/>
       <c r="D397" s="10" t="str">
@@ -12610,7 +12709,7 @@
       <c r="R397" s="11"/>
       <c r="S397" s="10"/>
     </row>
-    <row r="398" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B398" s="10"/>
       <c r="C398" s="11"/>
       <c r="D398" s="10" t="str">
@@ -12631,7 +12730,7 @@
       <c r="R398" s="11"/>
       <c r="S398" s="10"/>
     </row>
-    <row r="399" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B399" s="10"/>
       <c r="C399" s="11"/>
       <c r="D399" s="10" t="str">
@@ -12652,7 +12751,7 @@
       <c r="R399" s="11"/>
       <c r="S399" s="10"/>
     </row>
-    <row r="400" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B400" s="10"/>
       <c r="C400" s="11"/>
       <c r="D400" s="10" t="str">
@@ -12673,7 +12772,7 @@
       <c r="R400" s="11"/>
       <c r="S400" s="10"/>
     </row>
-    <row r="401" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B401" s="10"/>
       <c r="C401" s="11"/>
       <c r="D401" s="10" t="str">
@@ -12694,7 +12793,7 @@
       <c r="R401" s="11"/>
       <c r="S401" s="10"/>
     </row>
-    <row r="402" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="B402" s="10"/>
       <c r="C402" s="11"/>
       <c r="D402" s="10" t="str">
@@ -12715,7 +12814,7 @@
       <c r="R402" s="11"/>
       <c r="S402" s="10"/>
     </row>
-    <row r="403" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:19">
       <c r="B403" s="10"/>
       <c r="C403" s="11"/>
       <c r="D403" s="1" t="str">
@@ -12731,7 +12830,7 @@
       <c r="Q403" s="11"/>
       <c r="R403" s="11"/>
     </row>
-    <row r="404" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:19">
       <c r="B404" s="10"/>
       <c r="C404" s="11"/>
       <c r="D404" s="1" t="str">
@@ -12747,7 +12846,7 @@
       <c r="Q404" s="11"/>
       <c r="R404" s="11"/>
     </row>
-    <row r="405" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:19">
       <c r="B405" s="10"/>
       <c r="C405" s="11"/>
       <c r="D405" s="1" t="str">
@@ -12761,7 +12860,7 @@
       <c r="Q405" s="11"/>
       <c r="R405" s="11"/>
     </row>
-    <row r="406" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:19">
       <c r="B406" s="10"/>
       <c r="C406" s="11"/>
       <c r="D406" s="1" t="str">
@@ -12775,7 +12874,7 @@
       <c r="Q406" s="11"/>
       <c r="R406" s="11"/>
     </row>
-    <row r="407" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:19">
       <c r="B407" s="10"/>
       <c r="C407" s="11"/>
       <c r="D407" s="1" t="str">
@@ -12785,7 +12884,7 @@
       <c r="Q407" s="11"/>
       <c r="R407" s="11"/>
     </row>
-    <row r="408" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:19">
       <c r="B408" s="10"/>
       <c r="C408" s="11"/>
       <c r="D408" s="1" t="str">
@@ -12840,7 +12939,7 @@
     <dataValidation type="list" allowBlank="1" sqref="G2:G70">
       <formula1>"선급금,중도금,잔금,자재,특허료"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N98">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N101">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12857,7 +12956,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.375" style="18" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="18" bestFit="1" customWidth="1"/>
@@ -12865,12 +12964,12 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="16.5" customHeight="1">
       <c r="B2" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="16.5" customHeight="1">
       <c r="B3" s="22" t="s">
         <v>132</v>
       </c>
@@ -12878,7 +12977,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="16.5" customHeight="1">
       <c r="B4" s="16" t="s">
         <v>141</v>
       </c>
@@ -12886,7 +12985,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16.5" customHeight="1">
       <c r="B5" s="16" t="s">
         <v>148</v>
       </c>
@@ -12894,7 +12993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>149</v>
       </c>
@@ -12902,7 +13001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="13.5">
       <c r="B7" s="20" t="s">
         <v>142</v>
       </c>
@@ -12910,7 +13009,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="16.5" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>143</v>
       </c>
@@ -12918,7 +13017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="16.5" customHeight="1">
       <c r="B9" s="16" t="s">
         <v>144</v>
       </c>
@@ -12926,37 +13025,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="16.5" customHeight="1">
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="16.5" customHeight="1">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="16.5" customHeight="1">
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16.5" customHeight="1">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="16.5" customHeight="1">
       <c r="B16" s="19"/>
     </row>
-    <row r="17" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" customHeight="1">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" customHeight="1">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" customHeight="1">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" customHeight="1">
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" customHeight="1">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" customHeight="1">
       <c r="B22" s="19"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1207,7 +1207,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -5930,9 +5930,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>정상</v>
       </c>
-      <c r="K98" s="11">
-        <v>46080</v>
-      </c>
+      <c r="K98" s="11"/>
       <c r="L98" s="11"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -589,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,13 +651,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -790,7 +783,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,13 +1197,13 @@
   <dimension ref="A1:S408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
@@ -1234,7 +1227,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>0.71111111111167702</v>
       </c>
@@ -1293,7 +1286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10">
         <v>1</v>
       </c>
@@ -1318,7 +1311,7 @@
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:I55" ca="1" si="1">IF(C2="","",IF(L2="",TODAY()-C2,L2-C2))</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J2" s="13" t="str">
         <f ca="1">IF(I2="","",
@@ -1356,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <f>IF(C3="","",COUNTA($C$2:C3))</f>
         <v>2</v>
@@ -1382,7 +1375,7 @@
       </c>
       <c r="I3" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J58" ca="1" si="2">IF(I3="","",
@@ -1415,7 +1408,7 @@
       </c>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <f>IF(C4="","",COUNTA($C$2:C4))</f>
         <v>3</v>
@@ -1441,7 +1434,7 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1467,7 +1460,7 @@
       </c>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <f>IF(C5="","",COUNTA($C$2:C5))</f>
         <v>4</v>
@@ -1513,7 +1506,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <f>IF(C6="","",COUNTA($C$2:C6))</f>
         <v>5</v>
@@ -1539,7 +1532,7 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1569,7 +1562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <f>IF(C7="","",COUNTA($C$2:C7))</f>
         <v>6</v>
@@ -1595,7 +1588,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1618,7 +1611,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <f>IF(C8="","",COUNTA($C$2:C8))</f>
         <v>7</v>
@@ -1644,7 +1637,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1669,7 +1662,7 @@
       </c>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <f>IF(C9="","",COUNTA($C$2:C9))</f>
         <v>8</v>
@@ -1695,7 +1688,7 @@
       </c>
       <c r="I9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1721,7 +1714,7 @@
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <f>IF(C10="","",COUNTA($C$2:C10))</f>
         <v>9</v>
@@ -1747,7 +1740,7 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1765,7 +1758,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <f>IF(C11="","",COUNTA($C$2:C11))</f>
         <v>10</v>
@@ -1791,7 +1784,7 @@
       </c>
       <c r="I11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1812,7 +1805,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <f>IF(C12="","",COUNTA($C$2:C12))</f>
         <v>11</v>
@@ -1858,7 +1851,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <f>IF(C13="","",COUNTA($C$2:C13))</f>
         <v>12</v>
@@ -1884,7 +1877,7 @@
       </c>
       <c r="I13" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1914,7 +1907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <f>IF(C14="","",COUNTA($C$2:C14))</f>
         <v>13</v>
@@ -1940,7 +1933,7 @@
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1963,7 +1956,7 @@
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <f>IF(C15="","",COUNTA($C$2:C15))</f>
         <v>14</v>
@@ -1989,7 +1982,7 @@
       </c>
       <c r="I15" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2012,7 +2005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <f>IF(C16="","",COUNTA($C$2:C16))</f>
         <v>15</v>
@@ -2038,7 +2031,7 @@
       </c>
       <c r="I16" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2059,7 +2052,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="17" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <f>IF(C17="","",COUNTA($C$2:C17))</f>
         <v>16</v>
@@ -2085,7 +2078,7 @@
       </c>
       <c r="I17" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2106,7 +2099,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="18" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <f>IF(C18="","",COUNTA($C$2:C18))</f>
         <v>17</v>
@@ -2132,7 +2125,7 @@
       </c>
       <c r="I18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2153,7 +2146,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="19" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <f>IF(C19="","",COUNTA($C$2:C19))</f>
         <v>18</v>
@@ -2179,7 +2172,7 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2200,7 +2193,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="20" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <f>IF(C20="","",COUNTA($C$2:C20))</f>
         <v>19</v>
@@ -2226,7 +2219,7 @@
       </c>
       <c r="I20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2247,7 +2240,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="21" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <f>IF(C21="","",COUNTA($C$2:C21))</f>
         <v>20</v>
@@ -2273,7 +2266,7 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2296,7 +2289,7 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="22" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <f>IF(C22="","",COUNTA($C$2:C22))</f>
         <v>21</v>
@@ -2322,7 +2315,7 @@
       </c>
       <c r="I22" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2345,7 +2338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="23" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <f>IF(C23="","",COUNTA($C$2:C23))</f>
         <v>22</v>
@@ -2371,7 +2364,7 @@
       </c>
       <c r="I23" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J23" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2394,7 +2387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="24" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <f>IF(C24="","",COUNTA($C$2:C24))</f>
         <v>23</v>
@@ -2420,7 +2413,7 @@
       </c>
       <c r="I24" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J24" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2443,7 +2436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="25" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <f>IF(C25="","",COUNTA($C$2:C25))</f>
         <v>24</v>
@@ -2469,7 +2462,7 @@
       </c>
       <c r="I25" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J25" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2492,7 +2485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="26" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <f>IF(C26="","",COUNTA($C$2:C26))</f>
         <v>25</v>
@@ -2518,7 +2511,7 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J26" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2541,7 +2534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="27" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <f>IF(C27="","",COUNTA($C$2:C27))</f>
         <v>26</v>
@@ -2567,7 +2560,7 @@
       </c>
       <c r="I27" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2590,7 +2583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="28" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <f>IF(C28="","",COUNTA($C$2:C28))</f>
         <v>27</v>
@@ -2616,7 +2609,7 @@
       </c>
       <c r="I28" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J28" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2639,7 +2632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="29" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <f>IF(C29="","",COUNTA($C$2:C29))</f>
         <v>28</v>
@@ -2665,7 +2658,7 @@
       </c>
       <c r="I29" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2688,7 +2681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="30" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <f>IF(C30="","",COUNTA($C$2:C30))</f>
         <v>29</v>
@@ -2714,7 +2707,7 @@
       </c>
       <c r="I30" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J30" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2737,7 +2730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="31" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10">
         <f>IF(C31="","",COUNTA($C$2:C31))</f>
         <v>30</v>
@@ -2763,7 +2756,7 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J31" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2786,7 +2779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="32" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10">
         <f>IF(C32="","",COUNTA($C$2:C32))</f>
         <v>31</v>
@@ -2812,7 +2805,7 @@
       </c>
       <c r="I32" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J32" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2835,7 +2828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="33" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <f>IF(C33="","",COUNTA($C$2:C33))</f>
         <v>32</v>
@@ -2861,7 +2854,7 @@
       </c>
       <c r="I33" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J33" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2884,7 +2877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="34" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10">
         <f>IF(C34="","",COUNTA($C$2:C34))</f>
         <v>33</v>
@@ -2910,7 +2903,7 @@
       </c>
       <c r="I34" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J34" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2933,7 +2926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="35" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <f>IF(C35="","",COUNTA($C$2:C35))</f>
         <v>34</v>
@@ -2959,7 +2952,7 @@
       </c>
       <c r="I35" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J35" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2982,7 +2975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="36" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <f>IF(C36="","",COUNTA($C$2:C36))</f>
         <v>35</v>
@@ -3008,7 +3001,7 @@
       </c>
       <c r="I36" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J36" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3027,7 +3020,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="37" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <f>IF(C37="","",COUNTA($C$2:C37))</f>
         <v>36</v>
@@ -3053,7 +3046,7 @@
       </c>
       <c r="I37" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J37" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3081,7 +3074,7 @@
       </c>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="38" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <f>IF(C38="","",COUNTA($C$2:C38))</f>
         <v>37</v>
@@ -3107,7 +3100,7 @@
       </c>
       <c r="I38" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J38" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3137,7 +3130,7 @@
       </c>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="39" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <f>IF(C39="","",COUNTA($C$2:C39))</f>
         <v>38</v>
@@ -3163,7 +3156,7 @@
       </c>
       <c r="I39" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J39" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3190,7 +3183,7 @@
       </c>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="40" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10">
         <f>IF(C40="","",COUNTA($C$2:C40))</f>
         <v>39</v>
@@ -3216,7 +3209,7 @@
       </c>
       <c r="I40" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J40" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3237,7 +3230,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="41" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <f>IF(C41="","",COUNTA($C$2:C41))</f>
         <v>40</v>
@@ -3263,7 +3256,7 @@
       </c>
       <c r="I41" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J41" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3291,7 +3284,7 @@
       </c>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="42" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <f>IF(C42="","",COUNTA($C$2:C42))</f>
         <v>41</v>
@@ -3317,7 +3310,7 @@
       </c>
       <c r="I42" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J42" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3344,7 +3337,7 @@
       </c>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="43" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <f>IF(C43="","",COUNTA($C$2:C43))</f>
         <v>42</v>
@@ -3377,9 +3370,11 @@
         <v>장기미수</v>
       </c>
       <c r="K43" s="11">
-        <v>46066</v>
-      </c>
-      <c r="L43" s="11"/>
+        <v>46064</v>
+      </c>
+      <c r="L43" s="11">
+        <v>46064</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10" t="s">
         <v>20</v>
@@ -3394,7 +3389,7 @@
       <c r="R43" s="11"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="44" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10">
         <f>IF(C44="","",COUNTA($C$2:C44))</f>
         <v>43</v>
@@ -3420,7 +3415,7 @@
       </c>
       <c r="I44" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J44" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3445,7 +3440,7 @@
       </c>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="45" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10">
         <f>IF(C45="","",COUNTA($C$2:C45))</f>
         <v>44</v>
@@ -3471,7 +3466,7 @@
       </c>
       <c r="I45" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J45" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3489,7 +3484,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="46" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10">
         <f>IF(C46="","",COUNTA($C$2:C46))</f>
         <v>45</v>
@@ -3515,7 +3510,7 @@
       </c>
       <c r="I46" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J46" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3533,7 +3528,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="47" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <f>IF(C47="","",COUNTA($C$2:C47))</f>
         <v>46</v>
@@ -3559,7 +3554,7 @@
       </c>
       <c r="I47" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J47" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3580,7 +3575,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="48" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10">
         <f>IF(C48="","",COUNTA($C$2:C48))</f>
         <v>47</v>
@@ -3606,7 +3601,7 @@
       </c>
       <c r="I48" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J48" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3627,7 +3622,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="49" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="10">
         <f>IF(C49="","",COUNTA($C$2:C49))</f>
         <v>48</v>
@@ -3653,7 +3648,7 @@
       </c>
       <c r="I49" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J49" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3674,7 +3669,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="50" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10">
         <f>IF(C50="","",COUNTA($C$2:C50))</f>
         <v>49</v>
@@ -3700,14 +3695,14 @@
       </c>
       <c r="I50" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J50" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>관리</v>
       </c>
       <c r="K50" s="11">
-        <v>46081</v>
+        <v>46080</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="10"/>
@@ -3718,7 +3713,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="51" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <f>IF(C51="","",COUNTA($C$2:C51))</f>
         <v>50</v>
@@ -3744,14 +3739,14 @@
       </c>
       <c r="I51" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J51" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>관리</v>
       </c>
       <c r="K51" s="11">
-        <v>46081</v>
+        <v>46080</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="10"/>
@@ -3762,7 +3757,7 @@
       <c r="R51" s="11"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10">
         <f>IF(C52="","",COUNTA($C$2:C52))</f>
         <v>51</v>
@@ -3788,7 +3783,7 @@
       </c>
       <c r="I52" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J52" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3809,7 +3804,7 @@
       <c r="R52" s="11"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="53" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10">
         <f>IF(C53="","",COUNTA($C$2:C53))</f>
         <v>52</v>
@@ -3835,7 +3830,7 @@
       </c>
       <c r="I53" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J53" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3861,7 +3856,7 @@
       </c>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="54" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10">
         <f>IF(C54="","",COUNTA($C$2:C54))</f>
         <v>53</v>
@@ -3905,7 +3900,7 @@
       <c r="R54" s="11"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="55" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10">
         <f>IF(C55="","",COUNTA($C$2:C55))</f>
         <v>54</v>
@@ -3931,7 +3926,7 @@
       </c>
       <c r="I55" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J55" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3952,7 +3947,7 @@
       <c r="R55" s="11"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="56" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10">
         <f>IF(C56="","",COUNTA($C$2:C56))</f>
         <v>55</v>
@@ -3978,7 +3973,7 @@
       </c>
       <c r="I56" s="12">
         <f t="shared" ref="I56:I65" ca="1" si="4">IF(C56="","",IF(L56="",TODAY()-C56,L56-C56))</f>
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J56" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3999,7 +3994,7 @@
       <c r="R56" s="14"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="57" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10">
         <f>IF(C57="","",COUNTA($C$2:C57))</f>
         <v>56</v>
@@ -4025,7 +4020,7 @@
       </c>
       <c r="I57" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J57" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4046,7 +4041,7 @@
       <c r="R57" s="14"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="58" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="10">
         <f>IF(C58="","",COUNTA($C$2:C58))</f>
         <v>57</v>
@@ -4072,7 +4067,7 @@
       </c>
       <c r="I58" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J58" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4093,7 +4088,7 @@
       <c r="R58" s="14"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="59" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <f>IF(C59="","",COUNTA($C$2:C59))</f>
         <v>58</v>
@@ -4119,7 +4114,7 @@
       </c>
       <c r="I59" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J59" s="13" t="str">
         <f t="shared" ref="J59:J113" ca="1" si="5">IF(I59="","",
@@ -4148,7 +4143,7 @@
       <c r="R59" s="14"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="60" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="10">
         <f>IF(C60="","",COUNTA($C$2:C60))</f>
         <v>59</v>
@@ -4174,14 +4169,14 @@
       </c>
       <c r="I60" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J60" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>관리</v>
       </c>
       <c r="K60" s="11">
-        <v>46052</v>
+        <v>46066</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="10"/>
@@ -4192,7 +4187,7 @@
       <c r="R60" s="14"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="61" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10">
         <f>IF(C61="","",COUNTA($C$2:C61))</f>
         <v>60</v>
@@ -4218,14 +4213,14 @@
       </c>
       <c r="I61" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J61" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>관리</v>
       </c>
       <c r="K61" s="11">
-        <v>46052</v>
+        <v>46066</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="10"/>
@@ -4236,7 +4231,7 @@
       <c r="R61" s="14"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="62" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="10">
         <f>IF(C62="","",COUNTA($C$2:C62))</f>
         <v>61</v>
@@ -4262,7 +4257,7 @@
       </c>
       <c r="I62" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J62" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4280,7 +4275,7 @@
       <c r="R62" s="14"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="63" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10">
         <f>IF(C63="","",COUNTA($C$2:C63))</f>
         <v>62</v>
@@ -4306,7 +4301,7 @@
       </c>
       <c r="I63" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J63" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4324,7 +4319,7 @@
       <c r="R63" s="14"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="64" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10">
         <f>IF(C64="","",COUNTA($C$2:C64))</f>
         <v>63</v>
@@ -4357,9 +4352,11 @@
         <v>관리</v>
       </c>
       <c r="K64" s="11">
-        <v>46052</v>
-      </c>
-      <c r="L64" s="11"/>
+        <v>46066</v>
+      </c>
+      <c r="L64" s="11">
+        <v>46064</v>
+      </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
         <v>33</v>
@@ -4368,7 +4365,7 @@
       <c r="R64" s="14"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="65" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="10">
         <f>IF(C65="","",COUNTA($C$2:C65))</f>
         <v>64</v>
@@ -4394,7 +4391,7 @@
       </c>
       <c r="I65" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J65" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4412,7 +4409,7 @@
       <c r="R65" s="14"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="66" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="10">
         <f>IF(C66="","",COUNTA($C$2:C66))</f>
         <v>65</v>
@@ -4438,7 +4435,7 @@
       </c>
       <c r="I66" s="6">
         <f t="shared" ref="I66:I71" ca="1" si="7">IF(C66="","",IF(L66="",TODAY()-C66,L66-C66))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J66" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4454,7 +4451,7 @@
       <c r="R66" s="11"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="67" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <f>IF(C67="","",COUNTA($C$2:C67))</f>
         <v>66</v>
@@ -4480,7 +4477,7 @@
       </c>
       <c r="I67" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J67" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4496,7 +4493,7 @@
       <c r="R67" s="11"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="68" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="10">
         <f>IF(C68="","",COUNTA($C$2:C68))</f>
         <v>67</v>
@@ -4522,7 +4519,7 @@
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J68" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4538,7 +4535,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="69" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="10">
         <f>IF(C69="","",COUNTA($C$2:C69))</f>
         <v>68</v>
@@ -4564,7 +4561,7 @@
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J69" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4583,7 +4580,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="70" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10">
         <f>IF(C70="","",COUNTA($C$2:C70))</f>
         <v>69</v>
@@ -4635,7 +4632,7 @@
       <c r="R70" s="11"/>
       <c r="S70" s="10"/>
     </row>
-    <row r="71" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="71" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="10">
         <f>IF(C71="","",COUNTA($C$2:C71))</f>
         <v>70</v>
@@ -4661,7 +4658,7 @@
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J71" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4687,7 +4684,7 @@
       </c>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="72" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="10">
         <f>IF(C72="","",COUNTA($C$2:C72))</f>
         <v>71</v>
@@ -4713,7 +4710,7 @@
       </c>
       <c r="I72" s="6">
         <f t="shared" ref="I72:I75" ca="1" si="8">IF(C72="","",IF(L72="",TODAY()-C72,L72-C72))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J72" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4734,7 +4731,7 @@
       <c r="R72" s="11"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="73" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="10">
         <f>IF(C73="","",COUNTA($C$2:C73))</f>
         <v>72</v>
@@ -4788,7 +4785,7 @@
       </c>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="74" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="10">
         <f>IF(C74="","",COUNTA($C$2:C74))</f>
         <v>73</v>
@@ -4832,7 +4829,7 @@
       <c r="R74" s="11"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="75" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <f>IF(C75="","",COUNTA($C$2:C75))</f>
         <v>74</v>
@@ -4858,7 +4855,7 @@
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J75" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4874,7 +4871,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="10"/>
     </row>
-    <row r="76" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="76" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="10">
         <f>IF(C76="","",COUNTA($C$2:C76))</f>
         <v>75</v>
@@ -4928,7 +4925,7 @@
       </c>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="77" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="10">
         <f>IF(C77="","",COUNTA($C$2:C77))</f>
         <v>76</v>
@@ -4982,7 +4979,7 @@
       </c>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="78" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="10">
         <f>IF(C78="","",COUNTA($C$2:C78))</f>
         <v>77</v>
@@ -5026,7 +5023,7 @@
       <c r="R78" s="11"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="79" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="10">
         <f>IF(C79="","",COUNTA($C$2:C79))</f>
         <v>78</v>
@@ -5070,7 +5067,7 @@
       <c r="R79" s="11"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="80" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="10">
         <f>IF(C80="","",COUNTA($C$2:C80))</f>
         <v>79</v>
@@ -5096,7 +5093,7 @@
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J80" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5112,7 +5109,7 @@
       <c r="R80" s="11"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="81" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="10">
         <f>IF(C81="","",COUNTA($C$2:C81))</f>
         <v>80</v>
@@ -5156,7 +5153,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="82" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="10">
         <f>IF(C82="","",COUNTA($C$2:C82))</f>
         <v>81</v>
@@ -5182,7 +5179,7 @@
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J82" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5208,7 +5205,7 @@
       </c>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="83" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <f>IF(C83="","",COUNTA($C$2:C83))</f>
         <v>82</v>
@@ -5234,7 +5231,7 @@
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J83" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5260,7 +5257,7 @@
       </c>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="84" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10">
         <f>IF(C84="","",COUNTA($C$2:C84))</f>
         <v>83</v>
@@ -5286,7 +5283,7 @@
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J84" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5312,7 +5309,7 @@
       </c>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="85" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="10">
         <f>IF(C85="","",COUNTA($C$2:C85))</f>
         <v>84</v>
@@ -5338,7 +5335,7 @@
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J85" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5354,7 +5351,7 @@
       <c r="R85" s="11"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="86" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="10">
         <f>IF(C86="","",COUNTA($C$2:C86))</f>
         <v>85</v>
@@ -5380,7 +5377,7 @@
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J86" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5406,7 +5403,7 @@
       </c>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="87" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="10">
         <f>IF(C87="","",COUNTA($C$2:C87))</f>
         <v>86</v>
@@ -5450,7 +5447,7 @@
       <c r="R87" s="11"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="88" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="10">
         <f>IF(C88="","",COUNTA($C$2:C88))</f>
         <v>87</v>
@@ -5476,7 +5473,7 @@
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J88" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5502,7 +5499,7 @@
       </c>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="89" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="10">
         <f>IF(C89="","",COUNTA($C$2:C89))</f>
         <v>88</v>
@@ -5528,7 +5525,7 @@
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J89" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5554,7 +5551,7 @@
       </c>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="90" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="10">
         <f>IF(C90="","",COUNTA($C$2:C90))</f>
         <v>89</v>
@@ -5598,7 +5595,7 @@
       <c r="R90" s="11"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="91" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <f>IF(C91="","",COUNTA($C$2:C91))</f>
         <v>90</v>
@@ -5624,7 +5621,7 @@
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J91" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5640,7 +5637,7 @@
       <c r="R91" s="11"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="92" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="10">
         <f>IF(C92="","",COUNTA($C$2:C92))</f>
         <v>91</v>
@@ -5684,7 +5681,7 @@
       <c r="R92" s="11"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="93" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="10">
         <f>IF(C93="","",COUNTA($C$2:C93))</f>
         <v>92</v>
@@ -5728,7 +5725,7 @@
       <c r="R93" s="11"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="94" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="10">
         <f>IF(C94="","",COUNTA($C$2:C94))</f>
         <v>93</v>
@@ -5754,7 +5751,7 @@
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J94" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5770,7 +5767,7 @@
       <c r="R94" s="11"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="95" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="10">
         <f>IF(C95="","",COUNTA($C$2:C95))</f>
         <v>94</v>
@@ -5796,7 +5793,7 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5812,7 +5809,7 @@
       <c r="R95" s="11"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="96" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="10">
         <f>IF(C96="","",COUNTA($C$2:C96))</f>
         <v>95</v>
@@ -5856,7 +5853,7 @@
       <c r="R96" s="11"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="97" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="10">
         <f>IF(C97="","",COUNTA($C$2:C97))</f>
         <v>96</v>
@@ -5882,7 +5879,7 @@
       </c>
       <c r="I97" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5898,7 +5895,7 @@
       <c r="R97" s="11"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="98" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10">
         <f>IF(C98="","",COUNTA($C$2:C98))</f>
         <v>97</v>
@@ -5924,7 +5921,7 @@
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5940,7 +5937,7 @@
       <c r="R98" s="11"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="99" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <f>IF(C99="","",COUNTA($C$2:C99))</f>
         <v>98</v>
@@ -5965,7 +5962,7 @@
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J99" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5981,7 +5978,7 @@
       <c r="R99" s="11"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="100" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="10">
         <f>IF(C100="","",COUNTA($C$2:C100))</f>
         <v>99</v>
@@ -6024,7 +6021,7 @@
       <c r="R100" s="11"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="101" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="10">
         <f>IF(C101="","",COUNTA($C$2:C101))</f>
         <v>100</v>
@@ -6046,7 +6043,7 @@
         <v>176</v>
       </c>
       <c r="H101" s="4">
-        <v>-4337828</v>
+        <v>-3943480</v>
       </c>
       <c r="I101" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -6057,7 +6054,9 @@
         <v>정상</v>
       </c>
       <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
+      <c r="L101" s="11">
+        <v>46064</v>
+      </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
         <v>33</v>
@@ -6066,7 +6065,7 @@
       <c r="R101" s="11"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="102" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="str">
         <f>IF(C102="","",COUNTA($C$2:C102))</f>
         <v/>
@@ -6093,7 +6092,7 @@
       <c r="R102" s="11"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="103" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="str">
         <f>IF(C103="","",COUNTA($C$2:C103))</f>
         <v/>
@@ -6120,7 +6119,7 @@
       <c r="R103" s="11"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="104" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="str">
         <f>IF(C104="","",COUNTA($C$2:C104))</f>
         <v/>
@@ -6147,7 +6146,7 @@
       <c r="R104" s="11"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="105" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="str">
         <f>IF(C105="","",COUNTA($C$2:C105))</f>
         <v/>
@@ -6174,7 +6173,7 @@
       <c r="R105" s="11"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="106" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="str">
         <f>IF(C106="","",COUNTA($C$2:C106))</f>
         <v/>
@@ -6201,7 +6200,7 @@
       <c r="R106" s="11"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="107" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="str">
         <f>IF(C107="","",COUNTA($C$2:C107))</f>
         <v/>
@@ -6228,7 +6227,7 @@
       <c r="R107" s="11"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="108" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="str">
         <f>IF(C108="","",COUNTA($C$2:C108))</f>
         <v/>
@@ -6255,7 +6254,7 @@
       <c r="R108" s="11"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="109" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="str">
         <f>IF(C109="","",COUNTA($C$2:C109))</f>
         <v/>
@@ -6282,7 +6281,7 @@
       <c r="R109" s="11"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="110" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="str">
         <f>IF(C110="","",COUNTA($C$2:C110))</f>
         <v/>
@@ -6309,7 +6308,7 @@
       <c r="R110" s="11"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="111" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="str">
         <f>IF(C111="","",COUNTA($C$2:C111))</f>
         <v/>
@@ -6336,7 +6335,7 @@
       <c r="R111" s="11"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="112" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="str">
         <f>IF(C112="","",COUNTA($C$2:C112))</f>
         <v/>
@@ -6363,7 +6362,7 @@
       <c r="R112" s="11"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="113" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="str">
         <f>IF(C113="","",COUNTA($C$2:C113))</f>
         <v/>
@@ -6390,7 +6389,7 @@
       <c r="R113" s="11"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="114" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="str">
         <f>IF(C114="","",COUNTA($C$2:C114))</f>
         <v/>
@@ -6425,7 +6424,7 @@
       <c r="R114" s="11"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="115" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="str">
         <f>IF(C115="","",COUNTA($C$2:C115))</f>
         <v/>
@@ -6452,7 +6451,7 @@
       <c r="R115" s="11"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="116" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="str">
         <f>IF(C116="","",COUNTA($C$2:C116))</f>
         <v/>
@@ -6479,7 +6478,7 @@
       <c r="R116" s="11"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="117" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="str">
         <f>IF(C117="","",COUNTA($C$2:C117))</f>
         <v/>
@@ -6506,7 +6505,7 @@
       <c r="R117" s="11"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="118" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="str">
         <f>IF(C118="","",COUNTA($C$2:C118))</f>
         <v/>
@@ -6533,7 +6532,7 @@
       <c r="R118" s="11"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="119" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="str">
         <f>IF(C119="","",COUNTA($C$2:C119))</f>
         <v/>
@@ -6560,7 +6559,7 @@
       <c r="R119" s="11"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="120" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="str">
         <f>IF(C120="","",COUNTA($C$2:C120))</f>
         <v/>
@@ -6587,7 +6586,7 @@
       <c r="R120" s="11"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="121" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="str">
         <f>IF(C121="","",COUNTA($C$2:C121))</f>
         <v/>
@@ -6614,7 +6613,7 @@
       <c r="R121" s="11"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="122" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="str">
         <f>IF(C122="","",COUNTA($C$2:C122))</f>
         <v/>
@@ -6641,7 +6640,7 @@
       <c r="R122" s="11"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="123" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="str">
         <f>IF(C123="","",COUNTA($C$2:C123))</f>
         <v/>
@@ -6668,7 +6667,7 @@
       <c r="R123" s="11"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="124" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="str">
         <f>IF(C124="","",COUNTA($C$2:C124))</f>
         <v/>
@@ -6695,7 +6694,7 @@
       <c r="R124" s="11"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="125" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="str">
         <f>IF(C125="","",COUNTA($C$2:C125))</f>
         <v/>
@@ -6722,7 +6721,7 @@
       <c r="R125" s="11"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="126" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="str">
         <f>IF(C126="","",COUNTA($C$2:C126))</f>
         <v/>
@@ -6749,7 +6748,7 @@
       <c r="R126" s="11"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="127" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="str">
         <f>IF(C127="","",COUNTA($C$2:C127))</f>
         <v/>
@@ -6776,7 +6775,7 @@
       <c r="R127" s="11"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="128" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="str">
         <f>IF(C128="","",COUNTA($C$2:C128))</f>
         <v/>
@@ -6803,7 +6802,7 @@
       <c r="R128" s="11"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="129" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="str">
         <f>IF(C129="","",COUNTA($C$2:C129))</f>
         <v/>
@@ -6830,7 +6829,7 @@
       <c r="R129" s="11"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="130" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="str">
         <f>IF(C130="","",COUNTA($C$2:C130))</f>
         <v/>
@@ -6857,7 +6856,7 @@
       <c r="R130" s="11"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="131" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="str">
         <f>IF(C131="","",COUNTA($C$2:C131))</f>
         <v/>
@@ -6881,7 +6880,7 @@
       <c r="R131" s="11"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="132" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="str">
         <f>IF(C132="","",COUNTA($C$2:C132))</f>
         <v/>
@@ -6905,7 +6904,7 @@
       <c r="R132" s="11"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="133" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="str">
         <f>IF(C133="","",COUNTA($C$2:C133))</f>
         <v/>
@@ -6929,7 +6928,7 @@
       <c r="R133" s="11"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="134" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="str">
         <f>IF(C134="","",COUNTA($C$2:C134))</f>
         <v/>
@@ -6953,7 +6952,7 @@
       <c r="R134" s="11"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="135" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="str">
         <f>IF(C135="","",COUNTA($C$2:C135))</f>
         <v/>
@@ -6977,7 +6976,7 @@
       <c r="R135" s="11"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="136" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="str">
         <f>IF(C136="","",COUNTA($C$2:C136))</f>
         <v/>
@@ -7001,7 +7000,7 @@
       <c r="R136" s="11"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="137" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="str">
         <f>IF(C137="","",COUNTA($C$2:C137))</f>
         <v/>
@@ -7025,7 +7024,7 @@
       <c r="R137" s="11"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="138" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="str">
         <f>IF(C138="","",COUNTA($C$2:C138))</f>
         <v/>
@@ -7049,7 +7048,7 @@
       <c r="R138" s="11"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="139" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="str">
         <f>IF(C139="","",COUNTA($C$2:C139))</f>
         <v/>
@@ -7073,7 +7072,7 @@
       <c r="R139" s="11"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="140" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="str">
         <f>IF(C140="","",COUNTA($C$2:C140))</f>
         <v/>
@@ -7097,7 +7096,7 @@
       <c r="R140" s="11"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="141" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="str">
         <f>IF(C141="","",COUNTA($C$2:C141))</f>
         <v/>
@@ -7121,7 +7120,7 @@
       <c r="R141" s="11"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="142" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="str">
         <f>IF(C142="","",COUNTA($C$2:C142))</f>
         <v/>
@@ -7145,7 +7144,7 @@
       <c r="R142" s="11"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="143" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="str">
         <f>IF(C143="","",COUNTA($C$2:C143))</f>
         <v/>
@@ -7169,7 +7168,7 @@
       <c r="R143" s="11"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="144" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="str">
         <f>IF(C144="","",COUNTA($C$2:C144))</f>
         <v/>
@@ -7193,7 +7192,7 @@
       <c r="R144" s="11"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="145" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="str">
         <f>IF(C145="","",COUNTA($C$2:C145))</f>
         <v/>
@@ -7217,7 +7216,7 @@
       <c r="R145" s="11"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="146" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="str">
         <f>IF(C146="","",COUNTA($C$2:C146))</f>
         <v/>
@@ -7241,7 +7240,7 @@
       <c r="R146" s="11"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="147" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="str">
         <f>IF(C147="","",COUNTA($C$2:C147))</f>
         <v/>
@@ -7265,7 +7264,7 @@
       <c r="R147" s="11"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="148" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="str">
         <f>IF(C148="","",COUNTA($C$2:C148))</f>
         <v/>
@@ -7289,7 +7288,7 @@
       <c r="R148" s="11"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="149" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="str">
         <f>IF(C149="","",COUNTA($C$2:C149))</f>
         <v/>
@@ -7313,7 +7312,7 @@
       <c r="R149" s="11"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="150" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="str">
         <f>IF(C150="","",COUNTA($C$2:C150))</f>
         <v/>
@@ -7337,7 +7336,7 @@
       <c r="R150" s="11"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="151" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="str">
         <f>IF(C151="","",COUNTA($C$2:C151))</f>
         <v/>
@@ -7361,7 +7360,7 @@
       <c r="R151" s="11"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="152" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="str">
         <f>IF(C152="","",COUNTA($C$2:C152))</f>
         <v/>
@@ -7385,7 +7384,7 @@
       <c r="R152" s="11"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="153" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="str">
         <f>IF(C153="","",COUNTA($C$2:C153))</f>
         <v/>
@@ -7409,7 +7408,7 @@
       <c r="R153" s="11"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="154" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="str">
         <f>IF(C154="","",COUNTA($C$2:C154))</f>
         <v/>
@@ -7433,7 +7432,7 @@
       <c r="R154" s="11"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="155" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="str">
         <f>IF(C155="","",COUNTA($C$2:C155))</f>
         <v/>
@@ -7457,7 +7456,7 @@
       <c r="R155" s="11"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="156" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="str">
         <f>IF(C156="","",COUNTA($C$2:C156))</f>
         <v/>
@@ -7481,7 +7480,7 @@
       <c r="R156" s="11"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="157" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="str">
         <f>IF(C157="","",COUNTA($C$2:C157))</f>
         <v/>
@@ -7505,7 +7504,7 @@
       <c r="R157" s="11"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="158" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="str">
         <f>IF(C158="","",COUNTA($C$2:C158))</f>
         <v/>
@@ -7529,7 +7528,7 @@
       <c r="R158" s="11"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="159" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="str">
         <f>IF(C159="","",COUNTA($C$2:C159))</f>
         <v/>
@@ -7553,7 +7552,7 @@
       <c r="R159" s="11"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="160" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="str">
         <f>IF(C160="","",COUNTA($C$2:C160))</f>
         <v/>
@@ -7577,7 +7576,7 @@
       <c r="R160" s="11"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="161" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="str">
         <f>IF(C161="","",COUNTA($C$2:C161))</f>
         <v/>
@@ -7601,7 +7600,7 @@
       <c r="R161" s="11"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="162" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="str">
         <f>IF(C162="","",COUNTA($C$2:C162))</f>
         <v/>
@@ -7625,7 +7624,7 @@
       <c r="R162" s="11"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="163" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="str">
         <f>IF(C163="","",COUNTA($C$2:C163))</f>
         <v/>
@@ -7649,7 +7648,7 @@
       <c r="R163" s="11"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="164" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="str">
         <f>IF(C164="","",COUNTA($C$2:C164))</f>
         <v/>
@@ -7673,7 +7672,7 @@
       <c r="R164" s="11"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="165" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="str">
         <f>IF(C165="","",COUNTA($C$2:C165))</f>
         <v/>
@@ -7697,7 +7696,7 @@
       <c r="R165" s="11"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="166" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="str">
         <f>IF(C166="","",COUNTA($C$2:C166))</f>
         <v/>
@@ -7721,7 +7720,7 @@
       <c r="R166" s="11"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="167" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="str">
         <f>IF(C167="","",COUNTA($C$2:C167))</f>
         <v/>
@@ -7745,7 +7744,7 @@
       <c r="R167" s="11"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="168" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="str">
         <f>IF(C168="","",COUNTA($C$2:C168))</f>
         <v/>
@@ -7769,7 +7768,7 @@
       <c r="R168" s="11"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="169" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="str">
         <f>IF(C169="","",COUNTA($C$2:C169))</f>
         <v/>
@@ -7793,7 +7792,7 @@
       <c r="R169" s="11"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="170" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="str">
         <f>IF(C170="","",COUNTA($C$2:C170))</f>
         <v/>
@@ -7817,7 +7816,7 @@
       <c r="R170" s="11"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="171" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="str">
         <f>IF(C171="","",COUNTA($C$2:C171))</f>
         <v/>
@@ -7841,7 +7840,7 @@
       <c r="R171" s="11"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="172" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="str">
         <f>IF(C172="","",COUNTA($C$2:C172))</f>
         <v/>
@@ -7865,7 +7864,7 @@
       <c r="R172" s="11"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="173" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="str">
         <f>IF(C173="","",COUNTA($C$2:C173))</f>
         <v/>
@@ -7889,7 +7888,7 @@
       <c r="R173" s="11"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="174" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="str">
         <f>IF(C174="","",COUNTA($C$2:C174))</f>
         <v/>
@@ -7913,7 +7912,7 @@
       <c r="R174" s="11"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="175" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="str">
         <f>IF(C175="","",COUNTA($C$2:C175))</f>
         <v/>
@@ -7937,7 +7936,7 @@
       <c r="R175" s="11"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="176" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="str">
         <f>IF(C176="","",COUNTA($C$2:C176))</f>
         <v/>
@@ -7961,7 +7960,7 @@
       <c r="R176" s="11"/>
       <c r="S176" s="10"/>
     </row>
-    <row r="177" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="177" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="str">
         <f>IF(C177="","",COUNTA($C$2:C177))</f>
         <v/>
@@ -7985,7 +7984,7 @@
       <c r="R177" s="11"/>
       <c r="S177" s="10"/>
     </row>
-    <row r="178" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="178" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="str">
         <f>IF(C178="","",COUNTA($C$2:C178))</f>
         <v/>
@@ -8009,7 +8008,7 @@
       <c r="R178" s="11"/>
       <c r="S178" s="10"/>
     </row>
-    <row r="179" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="179" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="str">
         <f>IF(C179="","",COUNTA($C$2:C179))</f>
         <v/>
@@ -8033,7 +8032,7 @@
       <c r="R179" s="11"/>
       <c r="S179" s="10"/>
     </row>
-    <row r="180" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="180" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="str">
         <f>IF(C180="","",COUNTA($C$2:C180))</f>
         <v/>
@@ -8057,7 +8056,7 @@
       <c r="R180" s="11"/>
       <c r="S180" s="10"/>
     </row>
-    <row r="181" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="181" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="str">
         <f>IF(C181="","",COUNTA($C$2:C181))</f>
         <v/>
@@ -8081,7 +8080,7 @@
       <c r="R181" s="11"/>
       <c r="S181" s="10"/>
     </row>
-    <row r="182" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="182" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="str">
         <f>IF(C182="","",COUNTA($C$2:C182))</f>
         <v/>
@@ -8105,7 +8104,7 @@
       <c r="R182" s="11"/>
       <c r="S182" s="10"/>
     </row>
-    <row r="183" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="183" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="str">
         <f>IF(C183="","",COUNTA($C$2:C183))</f>
         <v/>
@@ -8129,7 +8128,7 @@
       <c r="R183" s="11"/>
       <c r="S183" s="10"/>
     </row>
-    <row r="184" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="184" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="str">
         <f>IF(C184="","",COUNTA($C$2:C184))</f>
         <v/>
@@ -8153,7 +8152,7 @@
       <c r="R184" s="11"/>
       <c r="S184" s="10"/>
     </row>
-    <row r="185" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="185" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="str">
         <f>IF(C185="","",COUNTA($C$2:C185))</f>
         <v/>
@@ -8177,7 +8176,7 @@
       <c r="R185" s="11"/>
       <c r="S185" s="10"/>
     </row>
-    <row r="186" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="186" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="str">
         <f>IF(C186="","",COUNTA($C$2:C186))</f>
         <v/>
@@ -8201,7 +8200,7 @@
       <c r="R186" s="11"/>
       <c r="S186" s="10"/>
     </row>
-    <row r="187" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="187" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="str">
         <f>IF(C187="","",COUNTA($C$2:C187))</f>
         <v/>
@@ -8225,7 +8224,7 @@
       <c r="R187" s="11"/>
       <c r="S187" s="10"/>
     </row>
-    <row r="188" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="188" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="str">
         <f>IF(C188="","",COUNTA($C$2:C188))</f>
         <v/>
@@ -8249,7 +8248,7 @@
       <c r="R188" s="11"/>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="189" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="str">
         <f>IF(C189="","",COUNTA($C$2:C189))</f>
         <v/>
@@ -8273,7 +8272,7 @@
       <c r="R189" s="11"/>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="190" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="str">
         <f>IF(C190="","",COUNTA($C$2:C190))</f>
         <v/>
@@ -8297,7 +8296,7 @@
       <c r="R190" s="11"/>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="191" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="str">
         <f>IF(C191="","",COUNTA($C$2:C191))</f>
         <v/>
@@ -8321,7 +8320,7 @@
       <c r="R191" s="11"/>
       <c r="S191" s="10"/>
     </row>
-    <row r="192" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="192" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="str">
         <f>IF(C192="","",COUNTA($C$2:C192))</f>
         <v/>
@@ -8345,7 +8344,7 @@
       <c r="R192" s="11"/>
       <c r="S192" s="10"/>
     </row>
-    <row r="193" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="193" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="str">
         <f>IF(C193="","",COUNTA($C$2:C193))</f>
         <v/>
@@ -8369,7 +8368,7 @@
       <c r="R193" s="11"/>
       <c r="S193" s="10"/>
     </row>
-    <row r="194" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="194" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="str">
         <f>IF(C194="","",COUNTA($C$2:C194))</f>
         <v/>
@@ -8393,7 +8392,7 @@
       <c r="R194" s="11"/>
       <c r="S194" s="10"/>
     </row>
-    <row r="195" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="195" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="str">
         <f>IF(C195="","",COUNTA($C$2:C195))</f>
         <v/>
@@ -8417,7 +8416,7 @@
       <c r="R195" s="11"/>
       <c r="S195" s="10"/>
     </row>
-    <row r="196" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="196" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="str">
         <f>IF(C196="","",COUNTA($C$2:C196))</f>
         <v/>
@@ -8441,7 +8440,7 @@
       <c r="R196" s="11"/>
       <c r="S196" s="10"/>
     </row>
-    <row r="197" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="197" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="str">
         <f>IF(C197="","",COUNTA($C$2:C197))</f>
         <v/>
@@ -8465,7 +8464,7 @@
       <c r="R197" s="11"/>
       <c r="S197" s="10"/>
     </row>
-    <row r="198" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="198" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="str">
         <f>IF(C198="","",COUNTA($C$2:C198))</f>
         <v/>
@@ -8489,7 +8488,7 @@
       <c r="R198" s="11"/>
       <c r="S198" s="10"/>
     </row>
-    <row r="199" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="199" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="str">
         <f>IF(C199="","",COUNTA($C$2:C199))</f>
         <v/>
@@ -8513,7 +8512,7 @@
       <c r="R199" s="11"/>
       <c r="S199" s="10"/>
     </row>
-    <row r="200" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="200" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="str">
         <f>IF(C200="","",COUNTA($C$2:C200))</f>
         <v/>
@@ -8537,7 +8536,7 @@
       <c r="R200" s="11"/>
       <c r="S200" s="10"/>
     </row>
-    <row r="201" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="201" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="str">
         <f>IF(C201="","",COUNTA($C$2:C201))</f>
         <v/>
@@ -8561,7 +8560,7 @@
       <c r="R201" s="11"/>
       <c r="S201" s="10"/>
     </row>
-    <row r="202" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="202" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="str">
         <f>IF(C202="","",COUNTA($C$2:C202))</f>
         <v/>
@@ -8585,7 +8584,7 @@
       <c r="R202" s="11"/>
       <c r="S202" s="10"/>
     </row>
-    <row r="203" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="203" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="str">
         <f>IF(C203="","",COUNTA($C$2:C203))</f>
         <v/>
@@ -8609,7 +8608,7 @@
       <c r="R203" s="11"/>
       <c r="S203" s="10"/>
     </row>
-    <row r="204" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="204" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="str">
         <f>IF(C204="","",COUNTA($C$2:C204))</f>
         <v/>
@@ -8633,7 +8632,7 @@
       <c r="R204" s="11"/>
       <c r="S204" s="10"/>
     </row>
-    <row r="205" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="205" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="str">
         <f>IF(C205="","",COUNTA($C$2:C205))</f>
         <v/>
@@ -8657,7 +8656,7 @@
       <c r="R205" s="11"/>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="206" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="str">
         <f>IF(C206="","",COUNTA($C$2:C206))</f>
         <v/>
@@ -8681,7 +8680,7 @@
       <c r="R206" s="11"/>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="207" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="10" t="str">
         <f>IF(C207="","",COUNTA($C$2:C207))</f>
         <v/>
@@ -8705,7 +8704,7 @@
       <c r="R207" s="11"/>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="208" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="str">
         <f>IF(C208="","",COUNTA($C$2:C208))</f>
         <v/>
@@ -8729,7 +8728,7 @@
       <c r="R208" s="11"/>
       <c r="S208" s="10"/>
     </row>
-    <row r="209" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="209" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="str">
         <f>IF(C209="","",COUNTA($C$2:C209))</f>
         <v/>
@@ -8753,7 +8752,7 @@
       <c r="R209" s="11"/>
       <c r="S209" s="10"/>
     </row>
-    <row r="210" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="210" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="str">
         <f>IF(C210="","",COUNTA($C$2:C210))</f>
         <v/>
@@ -8777,7 +8776,7 @@
       <c r="R210" s="11"/>
       <c r="S210" s="10"/>
     </row>
-    <row r="211" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="211" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="str">
         <f>IF(C211="","",COUNTA($C$2:C211))</f>
         <v/>
@@ -8801,7 +8800,7 @@
       <c r="R211" s="11"/>
       <c r="S211" s="10"/>
     </row>
-    <row r="212" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="212" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="10"/>
       <c r="C212" s="11"/>
       <c r="D212" s="10" t="str">
@@ -8822,7 +8821,7 @@
       <c r="R212" s="11"/>
       <c r="S212" s="10"/>
     </row>
-    <row r="213" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="213" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="10"/>
       <c r="C213" s="11"/>
       <c r="D213" s="10" t="str">
@@ -8843,7 +8842,7 @@
       <c r="R213" s="11"/>
       <c r="S213" s="10"/>
     </row>
-    <row r="214" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="214" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="10"/>
       <c r="C214" s="11"/>
       <c r="D214" s="10" t="str">
@@ -8864,7 +8863,7 @@
       <c r="R214" s="11"/>
       <c r="S214" s="10"/>
     </row>
-    <row r="215" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="215" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="10"/>
       <c r="C215" s="11"/>
       <c r="D215" s="10" t="str">
@@ -8885,7 +8884,7 @@
       <c r="R215" s="11"/>
       <c r="S215" s="10"/>
     </row>
-    <row r="216" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="216" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="10"/>
       <c r="C216" s="11"/>
       <c r="D216" s="10" t="str">
@@ -8906,7 +8905,7 @@
       <c r="R216" s="11"/>
       <c r="S216" s="10"/>
     </row>
-    <row r="217" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="217" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="10"/>
       <c r="C217" s="11"/>
       <c r="D217" s="10" t="str">
@@ -8927,7 +8926,7 @@
       <c r="R217" s="11"/>
       <c r="S217" s="10"/>
     </row>
-    <row r="218" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="218" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
       <c r="D218" s="10" t="str">
@@ -8948,7 +8947,7 @@
       <c r="R218" s="11"/>
       <c r="S218" s="10"/>
     </row>
-    <row r="219" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="219" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
       <c r="D219" s="10" t="str">
@@ -8969,7 +8968,7 @@
       <c r="R219" s="11"/>
       <c r="S219" s="10"/>
     </row>
-    <row r="220" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="220" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
       <c r="D220" s="10" t="str">
@@ -8990,7 +8989,7 @@
       <c r="R220" s="11"/>
       <c r="S220" s="10"/>
     </row>
-    <row r="221" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="221" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="10"/>
       <c r="C221" s="11"/>
       <c r="D221" s="10" t="str">
@@ -9011,7 +9010,7 @@
       <c r="R221" s="11"/>
       <c r="S221" s="10"/>
     </row>
-    <row r="222" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="222" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="10"/>
       <c r="C222" s="11"/>
       <c r="D222" s="10" t="str">
@@ -9032,7 +9031,7 @@
       <c r="R222" s="11"/>
       <c r="S222" s="10"/>
     </row>
-    <row r="223" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="223" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="10"/>
       <c r="C223" s="11"/>
       <c r="D223" s="10" t="str">
@@ -9053,7 +9052,7 @@
       <c r="R223" s="11"/>
       <c r="S223" s="10"/>
     </row>
-    <row r="224" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="224" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="10"/>
       <c r="C224" s="11"/>
       <c r="D224" s="10" t="str">
@@ -9074,7 +9073,7 @@
       <c r="R224" s="11"/>
       <c r="S224" s="10"/>
     </row>
-    <row r="225" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="225" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="10"/>
       <c r="C225" s="11"/>
       <c r="D225" s="10" t="str">
@@ -9095,7 +9094,7 @@
       <c r="R225" s="11"/>
       <c r="S225" s="10"/>
     </row>
-    <row r="226" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="226" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="10"/>
       <c r="C226" s="11"/>
       <c r="D226" s="10" t="str">
@@ -9116,7 +9115,7 @@
       <c r="R226" s="11"/>
       <c r="S226" s="10"/>
     </row>
-    <row r="227" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="227" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="10"/>
       <c r="C227" s="11"/>
       <c r="D227" s="10" t="str">
@@ -9137,7 +9136,7 @@
       <c r="R227" s="11"/>
       <c r="S227" s="10"/>
     </row>
-    <row r="228" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="228" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="10"/>
       <c r="C228" s="11"/>
       <c r="D228" s="10" t="str">
@@ -9158,7 +9157,7 @@
       <c r="R228" s="11"/>
       <c r="S228" s="10"/>
     </row>
-    <row r="229" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="229" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="10"/>
       <c r="C229" s="11"/>
       <c r="D229" s="10" t="str">
@@ -9179,7 +9178,7 @@
       <c r="R229" s="11"/>
       <c r="S229" s="10"/>
     </row>
-    <row r="230" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="230" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="10"/>
       <c r="C230" s="11"/>
       <c r="D230" s="10" t="str">
@@ -9200,7 +9199,7 @@
       <c r="R230" s="11"/>
       <c r="S230" s="10"/>
     </row>
-    <row r="231" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="231" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="10"/>
       <c r="C231" s="11"/>
       <c r="D231" s="10" t="str">
@@ -9221,7 +9220,7 @@
       <c r="R231" s="11"/>
       <c r="S231" s="10"/>
     </row>
-    <row r="232" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="232" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="10"/>
       <c r="C232" s="11"/>
       <c r="D232" s="10" t="str">
@@ -9242,7 +9241,7 @@
       <c r="R232" s="11"/>
       <c r="S232" s="10"/>
     </row>
-    <row r="233" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="233" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="10"/>
       <c r="C233" s="11"/>
       <c r="D233" s="10" t="str">
@@ -9263,7 +9262,7 @@
       <c r="R233" s="11"/>
       <c r="S233" s="10"/>
     </row>
-    <row r="234" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="234" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="10"/>
       <c r="C234" s="11"/>
       <c r="D234" s="10" t="str">
@@ -9284,7 +9283,7 @@
       <c r="R234" s="11"/>
       <c r="S234" s="10"/>
     </row>
-    <row r="235" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="235" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="10"/>
       <c r="C235" s="11"/>
       <c r="D235" s="10" t="str">
@@ -9305,7 +9304,7 @@
       <c r="R235" s="11"/>
       <c r="S235" s="10"/>
     </row>
-    <row r="236" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="236" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="10"/>
       <c r="C236" s="11"/>
       <c r="D236" s="10" t="str">
@@ -9326,7 +9325,7 @@
       <c r="R236" s="11"/>
       <c r="S236" s="10"/>
     </row>
-    <row r="237" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="237" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="10"/>
       <c r="C237" s="11"/>
       <c r="D237" s="10" t="str">
@@ -9347,7 +9346,7 @@
       <c r="R237" s="11"/>
       <c r="S237" s="10"/>
     </row>
-    <row r="238" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="238" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="10"/>
       <c r="C238" s="11"/>
       <c r="D238" s="10" t="str">
@@ -9368,7 +9367,7 @@
       <c r="R238" s="11"/>
       <c r="S238" s="10"/>
     </row>
-    <row r="239" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="239" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="10"/>
       <c r="C239" s="11"/>
       <c r="D239" s="10" t="str">
@@ -9389,7 +9388,7 @@
       <c r="R239" s="11"/>
       <c r="S239" s="10"/>
     </row>
-    <row r="240" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="240" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="10"/>
       <c r="C240" s="11"/>
       <c r="D240" s="10" t="str">
@@ -9410,7 +9409,7 @@
       <c r="R240" s="11"/>
       <c r="S240" s="10"/>
     </row>
-    <row r="241" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="241" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="10"/>
       <c r="C241" s="11"/>
       <c r="D241" s="10" t="str">
@@ -9431,7 +9430,7 @@
       <c r="R241" s="11"/>
       <c r="S241" s="10"/>
     </row>
-    <row r="242" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="242" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="10"/>
       <c r="C242" s="11"/>
       <c r="D242" s="10" t="str">
@@ -9452,7 +9451,7 @@
       <c r="R242" s="11"/>
       <c r="S242" s="10"/>
     </row>
-    <row r="243" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="243" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="10"/>
       <c r="C243" s="11"/>
       <c r="D243" s="10" t="str">
@@ -9473,7 +9472,7 @@
       <c r="R243" s="11"/>
       <c r="S243" s="10"/>
     </row>
-    <row r="244" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="244" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
       <c r="D244" s="10" t="str">
@@ -9494,7 +9493,7 @@
       <c r="R244" s="11"/>
       <c r="S244" s="10"/>
     </row>
-    <row r="245" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="245" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="10"/>
       <c r="C245" s="11"/>
       <c r="D245" s="10" t="str">
@@ -9515,7 +9514,7 @@
       <c r="R245" s="11"/>
       <c r="S245" s="10"/>
     </row>
-    <row r="246" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="246" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="10"/>
       <c r="C246" s="11"/>
       <c r="D246" s="10" t="str">
@@ -9536,7 +9535,7 @@
       <c r="R246" s="11"/>
       <c r="S246" s="10"/>
     </row>
-    <row r="247" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="247" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="10"/>
       <c r="C247" s="11"/>
       <c r="D247" s="10" t="str">
@@ -9557,7 +9556,7 @@
       <c r="R247" s="11"/>
       <c r="S247" s="10"/>
     </row>
-    <row r="248" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="248" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="10"/>
       <c r="C248" s="11"/>
       <c r="D248" s="10" t="str">
@@ -9578,7 +9577,7 @@
       <c r="R248" s="11"/>
       <c r="S248" s="10"/>
     </row>
-    <row r="249" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="249" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="10"/>
       <c r="C249" s="11"/>
       <c r="D249" s="10" t="str">
@@ -9599,7 +9598,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="10"/>
     </row>
-    <row r="250" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="250" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="10"/>
       <c r="C250" s="11"/>
       <c r="D250" s="10" t="str">
@@ -9620,7 +9619,7 @@
       <c r="R250" s="11"/>
       <c r="S250" s="10"/>
     </row>
-    <row r="251" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="251" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="10"/>
       <c r="C251" s="11"/>
       <c r="D251" s="10" t="str">
@@ -9641,7 +9640,7 @@
       <c r="R251" s="11"/>
       <c r="S251" s="10"/>
     </row>
-    <row r="252" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="252" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="10"/>
       <c r="C252" s="11"/>
       <c r="D252" s="10" t="str">
@@ -9662,7 +9661,7 @@
       <c r="R252" s="11"/>
       <c r="S252" s="10"/>
     </row>
-    <row r="253" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="253" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="10"/>
       <c r="C253" s="11"/>
       <c r="D253" s="10" t="str">
@@ -9683,7 +9682,7 @@
       <c r="R253" s="11"/>
       <c r="S253" s="10"/>
     </row>
-    <row r="254" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="254" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="10"/>
       <c r="C254" s="11"/>
       <c r="D254" s="10" t="str">
@@ -9704,7 +9703,7 @@
       <c r="R254" s="11"/>
       <c r="S254" s="10"/>
     </row>
-    <row r="255" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="255" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="10"/>
       <c r="C255" s="11"/>
       <c r="D255" s="10" t="str">
@@ -9725,7 +9724,7 @@
       <c r="R255" s="11"/>
       <c r="S255" s="10"/>
     </row>
-    <row r="256" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="256" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="10"/>
       <c r="C256" s="11"/>
       <c r="D256" s="10" t="str">
@@ -9746,7 +9745,7 @@
       <c r="R256" s="11"/>
       <c r="S256" s="10"/>
     </row>
-    <row r="257" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="257" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="10"/>
       <c r="C257" s="11"/>
       <c r="D257" s="10" t="str">
@@ -9767,7 +9766,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="10"/>
     </row>
-    <row r="258" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="258" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="10"/>
       <c r="C258" s="11"/>
       <c r="D258" s="10" t="str">
@@ -9788,7 +9787,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="10"/>
     </row>
-    <row r="259" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="259" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="10"/>
       <c r="C259" s="11"/>
       <c r="D259" s="10" t="str">
@@ -9809,7 +9808,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="10"/>
     </row>
-    <row r="260" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="260" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="10"/>
       <c r="C260" s="11"/>
       <c r="D260" s="10" t="str">
@@ -9830,7 +9829,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="10"/>
     </row>
-    <row r="261" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="261" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="10"/>
       <c r="C261" s="11"/>
       <c r="D261" s="10" t="str">
@@ -9851,7 +9850,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="10"/>
     </row>
-    <row r="262" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="262" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="10"/>
       <c r="C262" s="11"/>
       <c r="D262" s="10" t="str">
@@ -9872,7 +9871,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="10"/>
     </row>
-    <row r="263" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="263" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="10"/>
       <c r="C263" s="11"/>
       <c r="D263" s="10" t="str">
@@ -9893,7 +9892,7 @@
       <c r="R263" s="11"/>
       <c r="S263" s="10"/>
     </row>
-    <row r="264" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="264" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="10"/>
       <c r="C264" s="11"/>
       <c r="D264" s="10" t="str">
@@ -9914,7 +9913,7 @@
       <c r="R264" s="11"/>
       <c r="S264" s="10"/>
     </row>
-    <row r="265" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="265" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="10"/>
       <c r="C265" s="11"/>
       <c r="D265" s="10" t="str">
@@ -9935,7 +9934,7 @@
       <c r="R265" s="11"/>
       <c r="S265" s="10"/>
     </row>
-    <row r="266" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="266" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="10"/>
       <c r="C266" s="11"/>
       <c r="D266" s="10" t="str">
@@ -9956,7 +9955,7 @@
       <c r="R266" s="11"/>
       <c r="S266" s="10"/>
     </row>
-    <row r="267" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="267" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="10"/>
       <c r="C267" s="11"/>
       <c r="D267" s="10" t="str">
@@ -9977,7 +9976,7 @@
       <c r="R267" s="11"/>
       <c r="S267" s="10"/>
     </row>
-    <row r="268" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="268" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="10"/>
       <c r="C268" s="11"/>
       <c r="D268" s="10" t="str">
@@ -9998,7 +9997,7 @@
       <c r="R268" s="11"/>
       <c r="S268" s="10"/>
     </row>
-    <row r="269" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="269" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="10"/>
       <c r="C269" s="11"/>
       <c r="D269" s="10" t="str">
@@ -10019,7 +10018,7 @@
       <c r="R269" s="11"/>
       <c r="S269" s="10"/>
     </row>
-    <row r="270" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="270" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="10"/>
       <c r="C270" s="11"/>
       <c r="D270" s="10" t="str">
@@ -10040,7 +10039,7 @@
       <c r="R270" s="11"/>
       <c r="S270" s="10"/>
     </row>
-    <row r="271" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="271" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="10"/>
       <c r="C271" s="11"/>
       <c r="D271" s="10" t="str">
@@ -10061,7 +10060,7 @@
       <c r="R271" s="11"/>
       <c r="S271" s="10"/>
     </row>
-    <row r="272" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="272" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="10"/>
       <c r="C272" s="11"/>
       <c r="D272" s="10" t="str">
@@ -10082,7 +10081,7 @@
       <c r="R272" s="11"/>
       <c r="S272" s="10"/>
     </row>
-    <row r="273" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="273" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="10"/>
       <c r="C273" s="11"/>
       <c r="D273" s="10" t="str">
@@ -10103,7 +10102,7 @@
       <c r="R273" s="11"/>
       <c r="S273" s="10"/>
     </row>
-    <row r="274" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="274" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="10"/>
       <c r="C274" s="11"/>
       <c r="D274" s="10" t="str">
@@ -10124,7 +10123,7 @@
       <c r="R274" s="11"/>
       <c r="S274" s="10"/>
     </row>
-    <row r="275" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="275" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="10"/>
       <c r="C275" s="11"/>
       <c r="D275" s="10" t="str">
@@ -10145,7 +10144,7 @@
       <c r="R275" s="11"/>
       <c r="S275" s="10"/>
     </row>
-    <row r="276" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="276" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="10"/>
       <c r="C276" s="11"/>
       <c r="D276" s="10" t="str">
@@ -10166,7 +10165,7 @@
       <c r="R276" s="11"/>
       <c r="S276" s="10"/>
     </row>
-    <row r="277" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="277" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="10"/>
       <c r="C277" s="11"/>
       <c r="D277" s="10" t="str">
@@ -10187,7 +10186,7 @@
       <c r="R277" s="11"/>
       <c r="S277" s="10"/>
     </row>
-    <row r="278" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="278" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="10"/>
       <c r="C278" s="11"/>
       <c r="D278" s="10" t="str">
@@ -10208,7 +10207,7 @@
       <c r="R278" s="11"/>
       <c r="S278" s="10"/>
     </row>
-    <row r="279" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="279" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="10"/>
       <c r="C279" s="11"/>
       <c r="D279" s="10" t="str">
@@ -10229,7 +10228,7 @@
       <c r="R279" s="11"/>
       <c r="S279" s="10"/>
     </row>
-    <row r="280" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="280" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="10"/>
       <c r="C280" s="11"/>
       <c r="D280" s="10" t="str">
@@ -10250,7 +10249,7 @@
       <c r="R280" s="11"/>
       <c r="S280" s="10"/>
     </row>
-    <row r="281" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="281" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="10"/>
       <c r="C281" s="11"/>
       <c r="D281" s="10" t="str">
@@ -10271,7 +10270,7 @@
       <c r="R281" s="11"/>
       <c r="S281" s="10"/>
     </row>
-    <row r="282" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="282" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="10"/>
       <c r="C282" s="11"/>
       <c r="D282" s="10" t="str">
@@ -10292,7 +10291,7 @@
       <c r="R282" s="11"/>
       <c r="S282" s="10"/>
     </row>
-    <row r="283" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="283" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="10"/>
       <c r="C283" s="11"/>
       <c r="D283" s="10" t="str">
@@ -10313,7 +10312,7 @@
       <c r="R283" s="11"/>
       <c r="S283" s="10"/>
     </row>
-    <row r="284" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="284" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="10"/>
       <c r="C284" s="11"/>
       <c r="D284" s="10" t="str">
@@ -10334,7 +10333,7 @@
       <c r="R284" s="11"/>
       <c r="S284" s="10"/>
     </row>
-    <row r="285" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="285" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="10"/>
       <c r="C285" s="11"/>
       <c r="D285" s="10" t="str">
@@ -10355,7 +10354,7 @@
       <c r="R285" s="11"/>
       <c r="S285" s="10"/>
     </row>
-    <row r="286" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="286" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="10"/>
       <c r="C286" s="11"/>
       <c r="D286" s="10" t="str">
@@ -10376,7 +10375,7 @@
       <c r="R286" s="11"/>
       <c r="S286" s="10"/>
     </row>
-    <row r="287" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="287" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="10"/>
       <c r="C287" s="11"/>
       <c r="D287" s="10" t="str">
@@ -10397,7 +10396,7 @@
       <c r="R287" s="11"/>
       <c r="S287" s="10"/>
     </row>
-    <row r="288" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="288" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="10"/>
       <c r="C288" s="11"/>
       <c r="D288" s="10" t="str">
@@ -10418,7 +10417,7 @@
       <c r="R288" s="11"/>
       <c r="S288" s="10"/>
     </row>
-    <row r="289" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="289" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="10"/>
       <c r="C289" s="11"/>
       <c r="D289" s="10" t="str">
@@ -10439,7 +10438,7 @@
       <c r="R289" s="11"/>
       <c r="S289" s="10"/>
     </row>
-    <row r="290" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="290" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="10"/>
       <c r="C290" s="11"/>
       <c r="D290" s="10" t="str">
@@ -10460,7 +10459,7 @@
       <c r="R290" s="11"/>
       <c r="S290" s="10"/>
     </row>
-    <row r="291" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="291" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="10"/>
       <c r="C291" s="11"/>
       <c r="D291" s="10" t="str">
@@ -10481,7 +10480,7 @@
       <c r="R291" s="11"/>
       <c r="S291" s="10"/>
     </row>
-    <row r="292" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="292" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="10"/>
       <c r="C292" s="11"/>
       <c r="D292" s="10" t="str">
@@ -10502,7 +10501,7 @@
       <c r="R292" s="11"/>
       <c r="S292" s="10"/>
     </row>
-    <row r="293" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="293" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="10"/>
       <c r="C293" s="11"/>
       <c r="D293" s="10" t="str">
@@ -10523,7 +10522,7 @@
       <c r="R293" s="11"/>
       <c r="S293" s="10"/>
     </row>
-    <row r="294" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="294" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="10"/>
       <c r="C294" s="11"/>
       <c r="D294" s="10" t="str">
@@ -10544,7 +10543,7 @@
       <c r="R294" s="11"/>
       <c r="S294" s="10"/>
     </row>
-    <row r="295" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="295" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="10"/>
       <c r="C295" s="11"/>
       <c r="D295" s="10" t="str">
@@ -10565,7 +10564,7 @@
       <c r="R295" s="11"/>
       <c r="S295" s="10"/>
     </row>
-    <row r="296" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="296" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="10"/>
       <c r="C296" s="11"/>
       <c r="D296" s="10" t="str">
@@ -10586,7 +10585,7 @@
       <c r="R296" s="11"/>
       <c r="S296" s="10"/>
     </row>
-    <row r="297" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="297" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="10"/>
       <c r="C297" s="11"/>
       <c r="D297" s="10" t="str">
@@ -10607,7 +10606,7 @@
       <c r="R297" s="11"/>
       <c r="S297" s="10"/>
     </row>
-    <row r="298" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="298" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="10"/>
       <c r="C298" s="11"/>
       <c r="D298" s="10" t="str">
@@ -10628,7 +10627,7 @@
       <c r="R298" s="11"/>
       <c r="S298" s="10"/>
     </row>
-    <row r="299" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="299" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="10"/>
       <c r="C299" s="11"/>
       <c r="D299" s="10" t="str">
@@ -10649,7 +10648,7 @@
       <c r="R299" s="11"/>
       <c r="S299" s="10"/>
     </row>
-    <row r="300" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="300" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="10"/>
       <c r="C300" s="11"/>
       <c r="D300" s="10" t="str">
@@ -10670,7 +10669,7 @@
       <c r="R300" s="11"/>
       <c r="S300" s="10"/>
     </row>
-    <row r="301" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="301" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="10"/>
       <c r="C301" s="11"/>
       <c r="D301" s="10" t="str">
@@ -10691,7 +10690,7 @@
       <c r="R301" s="11"/>
       <c r="S301" s="10"/>
     </row>
-    <row r="302" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="302" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="10"/>
       <c r="C302" s="11"/>
       <c r="D302" s="10" t="str">
@@ -10712,7 +10711,7 @@
       <c r="R302" s="11"/>
       <c r="S302" s="10"/>
     </row>
-    <row r="303" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="303" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="10"/>
       <c r="C303" s="11"/>
       <c r="D303" s="10" t="str">
@@ -10733,7 +10732,7 @@
       <c r="R303" s="11"/>
       <c r="S303" s="10"/>
     </row>
-    <row r="304" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="304" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="10"/>
       <c r="C304" s="11"/>
       <c r="D304" s="10" t="str">
@@ -10754,7 +10753,7 @@
       <c r="R304" s="11"/>
       <c r="S304" s="10"/>
     </row>
-    <row r="305" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="305" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="10"/>
       <c r="C305" s="11"/>
       <c r="D305" s="10" t="str">
@@ -10775,7 +10774,7 @@
       <c r="R305" s="11"/>
       <c r="S305" s="10"/>
     </row>
-    <row r="306" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="306" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="10"/>
       <c r="C306" s="11"/>
       <c r="D306" s="10" t="str">
@@ -10796,7 +10795,7 @@
       <c r="R306" s="11"/>
       <c r="S306" s="10"/>
     </row>
-    <row r="307" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="307" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="10"/>
       <c r="C307" s="11"/>
       <c r="D307" s="10" t="str">
@@ -10817,7 +10816,7 @@
       <c r="R307" s="11"/>
       <c r="S307" s="10"/>
     </row>
-    <row r="308" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="308" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="10"/>
       <c r="C308" s="11"/>
       <c r="D308" s="10" t="str">
@@ -10838,7 +10837,7 @@
       <c r="R308" s="11"/>
       <c r="S308" s="10"/>
     </row>
-    <row r="309" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="309" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="10"/>
       <c r="C309" s="11"/>
       <c r="D309" s="10" t="str">
@@ -10859,7 +10858,7 @@
       <c r="R309" s="11"/>
       <c r="S309" s="10"/>
     </row>
-    <row r="310" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="310" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="10"/>
       <c r="C310" s="11"/>
       <c r="D310" s="10" t="str">
@@ -10880,7 +10879,7 @@
       <c r="R310" s="11"/>
       <c r="S310" s="10"/>
     </row>
-    <row r="311" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="311" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="10"/>
       <c r="C311" s="11"/>
       <c r="D311" s="10" t="str">
@@ -10901,7 +10900,7 @@
       <c r="R311" s="11"/>
       <c r="S311" s="10"/>
     </row>
-    <row r="312" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="312" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="10"/>
       <c r="C312" s="11"/>
       <c r="D312" s="10" t="str">
@@ -10922,7 +10921,7 @@
       <c r="R312" s="11"/>
       <c r="S312" s="10"/>
     </row>
-    <row r="313" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="313" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="10"/>
       <c r="C313" s="11"/>
       <c r="D313" s="10" t="str">
@@ -10943,7 +10942,7 @@
       <c r="R313" s="11"/>
       <c r="S313" s="10"/>
     </row>
-    <row r="314" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="314" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="10"/>
       <c r="C314" s="11"/>
       <c r="D314" s="10" t="str">
@@ -10964,7 +10963,7 @@
       <c r="R314" s="11"/>
       <c r="S314" s="10"/>
     </row>
-    <row r="315" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="315" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="10"/>
       <c r="C315" s="11"/>
       <c r="D315" s="10" t="str">
@@ -10985,7 +10984,7 @@
       <c r="R315" s="11"/>
       <c r="S315" s="10"/>
     </row>
-    <row r="316" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="316" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="10"/>
       <c r="C316" s="11"/>
       <c r="D316" s="10" t="str">
@@ -11006,7 +11005,7 @@
       <c r="R316" s="11"/>
       <c r="S316" s="10"/>
     </row>
-    <row r="317" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="317" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="10"/>
       <c r="C317" s="11"/>
       <c r="D317" s="10" t="str">
@@ -11027,7 +11026,7 @@
       <c r="R317" s="11"/>
       <c r="S317" s="10"/>
     </row>
-    <row r="318" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="318" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="10"/>
       <c r="C318" s="11"/>
       <c r="D318" s="10" t="str">
@@ -11048,7 +11047,7 @@
       <c r="R318" s="11"/>
       <c r="S318" s="10"/>
     </row>
-    <row r="319" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="319" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="10"/>
       <c r="C319" s="11"/>
       <c r="D319" s="10" t="str">
@@ -11069,7 +11068,7 @@
       <c r="R319" s="11"/>
       <c r="S319" s="10"/>
     </row>
-    <row r="320" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="320" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="10"/>
       <c r="C320" s="11"/>
       <c r="D320" s="10" t="str">
@@ -11090,7 +11089,7 @@
       <c r="R320" s="11"/>
       <c r="S320" s="10"/>
     </row>
-    <row r="321" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="321" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="10"/>
       <c r="C321" s="11"/>
       <c r="D321" s="10" t="str">
@@ -11111,7 +11110,7 @@
       <c r="R321" s="11"/>
       <c r="S321" s="10"/>
     </row>
-    <row r="322" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="322" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="10"/>
       <c r="C322" s="11"/>
       <c r="D322" s="10" t="str">
@@ -11132,7 +11131,7 @@
       <c r="R322" s="11"/>
       <c r="S322" s="10"/>
     </row>
-    <row r="323" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="323" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="10"/>
       <c r="C323" s="11"/>
       <c r="D323" s="10" t="str">
@@ -11153,7 +11152,7 @@
       <c r="R323" s="11"/>
       <c r="S323" s="10"/>
     </row>
-    <row r="324" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="324" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="10"/>
       <c r="C324" s="11"/>
       <c r="D324" s="10" t="str">
@@ -11174,7 +11173,7 @@
       <c r="R324" s="11"/>
       <c r="S324" s="10"/>
     </row>
-    <row r="325" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="325" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="10"/>
       <c r="C325" s="11"/>
       <c r="D325" s="10" t="str">
@@ -11195,7 +11194,7 @@
       <c r="R325" s="11"/>
       <c r="S325" s="10"/>
     </row>
-    <row r="326" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="326" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="10"/>
       <c r="C326" s="11"/>
       <c r="D326" s="10" t="str">
@@ -11216,7 +11215,7 @@
       <c r="R326" s="11"/>
       <c r="S326" s="10"/>
     </row>
-    <row r="327" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="327" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="10"/>
       <c r="C327" s="11"/>
       <c r="D327" s="10" t="str">
@@ -11237,7 +11236,7 @@
       <c r="R327" s="11"/>
       <c r="S327" s="10"/>
     </row>
-    <row r="328" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="328" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="10"/>
       <c r="C328" s="11"/>
       <c r="D328" s="10" t="str">
@@ -11258,7 +11257,7 @@
       <c r="R328" s="11"/>
       <c r="S328" s="10"/>
     </row>
-    <row r="329" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="329" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="10"/>
       <c r="C329" s="11"/>
       <c r="D329" s="10" t="str">
@@ -11279,7 +11278,7 @@
       <c r="R329" s="11"/>
       <c r="S329" s="10"/>
     </row>
-    <row r="330" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="330" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="10"/>
       <c r="C330" s="11"/>
       <c r="D330" s="10" t="str">
@@ -11300,7 +11299,7 @@
       <c r="R330" s="11"/>
       <c r="S330" s="10"/>
     </row>
-    <row r="331" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="331" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="10"/>
       <c r="C331" s="11"/>
       <c r="D331" s="10" t="str">
@@ -11321,7 +11320,7 @@
       <c r="R331" s="11"/>
       <c r="S331" s="10"/>
     </row>
-    <row r="332" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="332" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="10"/>
       <c r="C332" s="11"/>
       <c r="D332" s="10" t="str">
@@ -11342,7 +11341,7 @@
       <c r="R332" s="11"/>
       <c r="S332" s="10"/>
     </row>
-    <row r="333" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="333" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="10"/>
       <c r="C333" s="11"/>
       <c r="D333" s="10" t="str">
@@ -11363,7 +11362,7 @@
       <c r="R333" s="11"/>
       <c r="S333" s="10"/>
     </row>
-    <row r="334" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="334" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="10"/>
       <c r="C334" s="11"/>
       <c r="D334" s="10" t="str">
@@ -11384,7 +11383,7 @@
       <c r="R334" s="11"/>
       <c r="S334" s="10"/>
     </row>
-    <row r="335" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="335" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="10"/>
       <c r="C335" s="11"/>
       <c r="D335" s="10" t="str">
@@ -11405,7 +11404,7 @@
       <c r="R335" s="11"/>
       <c r="S335" s="10"/>
     </row>
-    <row r="336" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="336" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="10"/>
       <c r="C336" s="11"/>
       <c r="D336" s="10" t="str">
@@ -11426,7 +11425,7 @@
       <c r="R336" s="11"/>
       <c r="S336" s="10"/>
     </row>
-    <row r="337" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="337" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="10"/>
       <c r="C337" s="11"/>
       <c r="D337" s="10" t="str">
@@ -11447,7 +11446,7 @@
       <c r="R337" s="11"/>
       <c r="S337" s="10"/>
     </row>
-    <row r="338" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="338" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="10"/>
       <c r="C338" s="11"/>
       <c r="D338" s="10" t="str">
@@ -11468,7 +11467,7 @@
       <c r="R338" s="11"/>
       <c r="S338" s="10"/>
     </row>
-    <row r="339" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="339" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="10"/>
       <c r="C339" s="11"/>
       <c r="D339" s="10" t="str">
@@ -11489,7 +11488,7 @@
       <c r="R339" s="11"/>
       <c r="S339" s="10"/>
     </row>
-    <row r="340" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="340" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="10"/>
       <c r="C340" s="11"/>
       <c r="D340" s="10" t="str">
@@ -11510,7 +11509,7 @@
       <c r="R340" s="11"/>
       <c r="S340" s="10"/>
     </row>
-    <row r="341" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="341" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="10"/>
       <c r="C341" s="11"/>
       <c r="D341" s="10" t="str">
@@ -11531,7 +11530,7 @@
       <c r="R341" s="11"/>
       <c r="S341" s="10"/>
     </row>
-    <row r="342" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="342" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="10"/>
       <c r="C342" s="11"/>
       <c r="D342" s="10" t="str">
@@ -11552,7 +11551,7 @@
       <c r="R342" s="11"/>
       <c r="S342" s="10"/>
     </row>
-    <row r="343" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="343" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="10"/>
       <c r="C343" s="11"/>
       <c r="D343" s="10" t="str">
@@ -11573,7 +11572,7 @@
       <c r="R343" s="11"/>
       <c r="S343" s="10"/>
     </row>
-    <row r="344" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="344" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="10"/>
       <c r="C344" s="11"/>
       <c r="D344" s="10" t="str">
@@ -11594,7 +11593,7 @@
       <c r="R344" s="11"/>
       <c r="S344" s="10"/>
     </row>
-    <row r="345" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="345" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="10"/>
       <c r="C345" s="11"/>
       <c r="D345" s="10" t="str">
@@ -11615,7 +11614,7 @@
       <c r="R345" s="11"/>
       <c r="S345" s="10"/>
     </row>
-    <row r="346" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="346" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="10"/>
       <c r="C346" s="11"/>
       <c r="D346" s="10" t="str">
@@ -11636,7 +11635,7 @@
       <c r="R346" s="11"/>
       <c r="S346" s="10"/>
     </row>
-    <row r="347" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="347" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="10"/>
       <c r="C347" s="11"/>
       <c r="D347" s="10" t="str">
@@ -11657,7 +11656,7 @@
       <c r="R347" s="11"/>
       <c r="S347" s="10"/>
     </row>
-    <row r="348" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="348" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="10"/>
       <c r="C348" s="11"/>
       <c r="D348" s="10" t="str">
@@ -11678,7 +11677,7 @@
       <c r="R348" s="11"/>
       <c r="S348" s="10"/>
     </row>
-    <row r="349" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="349" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="10"/>
       <c r="C349" s="11"/>
       <c r="D349" s="10" t="str">
@@ -11699,7 +11698,7 @@
       <c r="R349" s="11"/>
       <c r="S349" s="10"/>
     </row>
-    <row r="350" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="350" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="10"/>
       <c r="C350" s="11"/>
       <c r="D350" s="10" t="str">
@@ -11720,7 +11719,7 @@
       <c r="R350" s="11"/>
       <c r="S350" s="10"/>
     </row>
-    <row r="351" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="351" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="10"/>
       <c r="C351" s="11"/>
       <c r="D351" s="10" t="str">
@@ -11741,7 +11740,7 @@
       <c r="R351" s="11"/>
       <c r="S351" s="10"/>
     </row>
-    <row r="352" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="352" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="10"/>
       <c r="C352" s="11"/>
       <c r="D352" s="10" t="str">
@@ -11762,7 +11761,7 @@
       <c r="R352" s="11"/>
       <c r="S352" s="10"/>
     </row>
-    <row r="353" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="353" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="10"/>
       <c r="C353" s="11"/>
       <c r="D353" s="10" t="str">
@@ -11783,7 +11782,7 @@
       <c r="R353" s="11"/>
       <c r="S353" s="10"/>
     </row>
-    <row r="354" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="354" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="10"/>
       <c r="C354" s="11"/>
       <c r="D354" s="10" t="str">
@@ -11804,7 +11803,7 @@
       <c r="R354" s="11"/>
       <c r="S354" s="10"/>
     </row>
-    <row r="355" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="355" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="10"/>
       <c r="C355" s="11"/>
       <c r="D355" s="10" t="str">
@@ -11825,7 +11824,7 @@
       <c r="R355" s="11"/>
       <c r="S355" s="10"/>
     </row>
-    <row r="356" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="356" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="10"/>
       <c r="C356" s="11"/>
       <c r="D356" s="10" t="str">
@@ -11846,7 +11845,7 @@
       <c r="R356" s="11"/>
       <c r="S356" s="10"/>
     </row>
-    <row r="357" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="357" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="10"/>
       <c r="C357" s="11"/>
       <c r="D357" s="10" t="str">
@@ -11867,7 +11866,7 @@
       <c r="R357" s="11"/>
       <c r="S357" s="10"/>
     </row>
-    <row r="358" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="358" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="10"/>
       <c r="C358" s="11"/>
       <c r="D358" s="10" t="str">
@@ -11888,7 +11887,7 @@
       <c r="R358" s="11"/>
       <c r="S358" s="10"/>
     </row>
-    <row r="359" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="359" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="10"/>
       <c r="C359" s="11"/>
       <c r="D359" s="10" t="str">
@@ -11909,7 +11908,7 @@
       <c r="R359" s="11"/>
       <c r="S359" s="10"/>
     </row>
-    <row r="360" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="360" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="10"/>
       <c r="C360" s="11"/>
       <c r="D360" s="10" t="str">
@@ -11930,7 +11929,7 @@
       <c r="R360" s="11"/>
       <c r="S360" s="10"/>
     </row>
-    <row r="361" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="361" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="10"/>
       <c r="C361" s="11"/>
       <c r="D361" s="10" t="str">
@@ -11951,7 +11950,7 @@
       <c r="R361" s="11"/>
       <c r="S361" s="10"/>
     </row>
-    <row r="362" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="362" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="10"/>
       <c r="C362" s="11"/>
       <c r="D362" s="10" t="str">
@@ -11972,7 +11971,7 @@
       <c r="R362" s="11"/>
       <c r="S362" s="10"/>
     </row>
-    <row r="363" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="363" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="10"/>
       <c r="C363" s="11"/>
       <c r="D363" s="10" t="str">
@@ -11993,7 +11992,7 @@
       <c r="R363" s="11"/>
       <c r="S363" s="10"/>
     </row>
-    <row r="364" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="364" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="10"/>
       <c r="C364" s="11"/>
       <c r="D364" s="10" t="str">
@@ -12014,7 +12013,7 @@
       <c r="R364" s="11"/>
       <c r="S364" s="10"/>
     </row>
-    <row r="365" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="365" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="10"/>
       <c r="C365" s="11"/>
       <c r="D365" s="10" t="str">
@@ -12035,7 +12034,7 @@
       <c r="R365" s="11"/>
       <c r="S365" s="10"/>
     </row>
-    <row r="366" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="366" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="10"/>
       <c r="C366" s="11"/>
       <c r="D366" s="10" t="str">
@@ -12056,7 +12055,7 @@
       <c r="R366" s="11"/>
       <c r="S366" s="10"/>
     </row>
-    <row r="367" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="367" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="10"/>
       <c r="C367" s="11"/>
       <c r="D367" s="10" t="str">
@@ -12077,7 +12076,7 @@
       <c r="R367" s="11"/>
       <c r="S367" s="10"/>
     </row>
-    <row r="368" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="368" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="10"/>
       <c r="C368" s="11"/>
       <c r="D368" s="10" t="str">
@@ -12098,7 +12097,7 @@
       <c r="R368" s="11"/>
       <c r="S368" s="10"/>
     </row>
-    <row r="369" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="369" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="10"/>
       <c r="C369" s="11"/>
       <c r="D369" s="10" t="str">
@@ -12119,7 +12118,7 @@
       <c r="R369" s="11"/>
       <c r="S369" s="10"/>
     </row>
-    <row r="370" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="370" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="10"/>
       <c r="C370" s="11"/>
       <c r="D370" s="10" t="str">
@@ -12140,7 +12139,7 @@
       <c r="R370" s="11"/>
       <c r="S370" s="10"/>
     </row>
-    <row r="371" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="371" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="10"/>
       <c r="C371" s="11"/>
       <c r="D371" s="10" t="str">
@@ -12161,7 +12160,7 @@
       <c r="R371" s="11"/>
       <c r="S371" s="10"/>
     </row>
-    <row r="372" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="372" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="10"/>
       <c r="C372" s="11"/>
       <c r="D372" s="10" t="str">
@@ -12182,7 +12181,7 @@
       <c r="R372" s="11"/>
       <c r="S372" s="10"/>
     </row>
-    <row r="373" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="373" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="10"/>
       <c r="C373" s="11"/>
       <c r="D373" s="10" t="str">
@@ -12203,7 +12202,7 @@
       <c r="R373" s="11"/>
       <c r="S373" s="10"/>
     </row>
-    <row r="374" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="374" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="10"/>
       <c r="C374" s="11"/>
       <c r="D374" s="10" t="str">
@@ -12224,7 +12223,7 @@
       <c r="R374" s="11"/>
       <c r="S374" s="10"/>
     </row>
-    <row r="375" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="375" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="10"/>
       <c r="C375" s="11"/>
       <c r="D375" s="10" t="str">
@@ -12245,7 +12244,7 @@
       <c r="R375" s="11"/>
       <c r="S375" s="10"/>
     </row>
-    <row r="376" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="376" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="10"/>
       <c r="C376" s="11"/>
       <c r="D376" s="10" t="str">
@@ -12266,7 +12265,7 @@
       <c r="R376" s="11"/>
       <c r="S376" s="10"/>
     </row>
-    <row r="377" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="377" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="10"/>
       <c r="C377" s="11"/>
       <c r="D377" s="10" t="str">
@@ -12287,7 +12286,7 @@
       <c r="R377" s="11"/>
       <c r="S377" s="10"/>
     </row>
-    <row r="378" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="378" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="10"/>
       <c r="C378" s="11"/>
       <c r="D378" s="10" t="str">
@@ -12308,7 +12307,7 @@
       <c r="R378" s="11"/>
       <c r="S378" s="10"/>
     </row>
-    <row r="379" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="379" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="10"/>
       <c r="C379" s="11"/>
       <c r="D379" s="10" t="str">
@@ -12329,7 +12328,7 @@
       <c r="R379" s="11"/>
       <c r="S379" s="10"/>
     </row>
-    <row r="380" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="380" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="10"/>
       <c r="C380" s="11"/>
       <c r="D380" s="10" t="str">
@@ -12350,7 +12349,7 @@
       <c r="R380" s="11"/>
       <c r="S380" s="10"/>
     </row>
-    <row r="381" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="381" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="10"/>
       <c r="C381" s="11"/>
       <c r="D381" s="10" t="str">
@@ -12371,7 +12370,7 @@
       <c r="R381" s="11"/>
       <c r="S381" s="10"/>
     </row>
-    <row r="382" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="382" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="10"/>
       <c r="C382" s="11"/>
       <c r="D382" s="10" t="str">
@@ -12392,7 +12391,7 @@
       <c r="R382" s="11"/>
       <c r="S382" s="10"/>
     </row>
-    <row r="383" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="383" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="10"/>
       <c r="C383" s="11"/>
       <c r="D383" s="10" t="str">
@@ -12413,7 +12412,7 @@
       <c r="R383" s="11"/>
       <c r="S383" s="10"/>
     </row>
-    <row r="384" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="384" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="10"/>
       <c r="C384" s="11"/>
       <c r="D384" s="10" t="str">
@@ -12434,7 +12433,7 @@
       <c r="R384" s="11"/>
       <c r="S384" s="10"/>
     </row>
-    <row r="385" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="385" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="10"/>
       <c r="C385" s="11"/>
       <c r="D385" s="10" t="str">
@@ -12455,7 +12454,7 @@
       <c r="R385" s="11"/>
       <c r="S385" s="10"/>
     </row>
-    <row r="386" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="386" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="10"/>
       <c r="C386" s="11"/>
       <c r="D386" s="10" t="str">
@@ -12476,7 +12475,7 @@
       <c r="R386" s="11"/>
       <c r="S386" s="10"/>
     </row>
-    <row r="387" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="387" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="10"/>
       <c r="C387" s="11"/>
       <c r="D387" s="10" t="str">
@@ -12497,7 +12496,7 @@
       <c r="R387" s="11"/>
       <c r="S387" s="10"/>
     </row>
-    <row r="388" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="388" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="10"/>
       <c r="C388" s="11"/>
       <c r="D388" s="10" t="str">
@@ -12518,7 +12517,7 @@
       <c r="R388" s="11"/>
       <c r="S388" s="10"/>
     </row>
-    <row r="389" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="389" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="10"/>
       <c r="C389" s="11"/>
       <c r="D389" s="10" t="str">
@@ -12539,7 +12538,7 @@
       <c r="R389" s="11"/>
       <c r="S389" s="10"/>
     </row>
-    <row r="390" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="390" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="10"/>
       <c r="C390" s="11"/>
       <c r="D390" s="10" t="str">
@@ -12560,7 +12559,7 @@
       <c r="R390" s="11"/>
       <c r="S390" s="10"/>
     </row>
-    <row r="391" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="391" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="10"/>
       <c r="C391" s="11"/>
       <c r="D391" s="10" t="str">
@@ -12581,7 +12580,7 @@
       <c r="R391" s="11"/>
       <c r="S391" s="10"/>
     </row>
-    <row r="392" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="392" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="10"/>
       <c r="C392" s="11"/>
       <c r="D392" s="10" t="str">
@@ -12602,7 +12601,7 @@
       <c r="R392" s="11"/>
       <c r="S392" s="10"/>
     </row>
-    <row r="393" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="393" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="10"/>
       <c r="C393" s="11"/>
       <c r="D393" s="10" t="str">
@@ -12623,7 +12622,7 @@
       <c r="R393" s="11"/>
       <c r="S393" s="10"/>
     </row>
-    <row r="394" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="394" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="10"/>
       <c r="C394" s="11"/>
       <c r="D394" s="10" t="str">
@@ -12644,7 +12643,7 @@
       <c r="R394" s="11"/>
       <c r="S394" s="10"/>
     </row>
-    <row r="395" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="395" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="10"/>
       <c r="C395" s="11"/>
       <c r="D395" s="10" t="str">
@@ -12665,7 +12664,7 @@
       <c r="R395" s="11"/>
       <c r="S395" s="10"/>
     </row>
-    <row r="396" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="396" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="10"/>
       <c r="C396" s="11"/>
       <c r="D396" s="10" t="str">
@@ -12686,7 +12685,7 @@
       <c r="R396" s="11"/>
       <c r="S396" s="10"/>
     </row>
-    <row r="397" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="397" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="10"/>
       <c r="C397" s="11"/>
       <c r="D397" s="10" t="str">
@@ -12707,7 +12706,7 @@
       <c r="R397" s="11"/>
       <c r="S397" s="10"/>
     </row>
-    <row r="398" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="398" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="10"/>
       <c r="C398" s="11"/>
       <c r="D398" s="10" t="str">
@@ -12728,7 +12727,7 @@
       <c r="R398" s="11"/>
       <c r="S398" s="10"/>
     </row>
-    <row r="399" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="399" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="10"/>
       <c r="C399" s="11"/>
       <c r="D399" s="10" t="str">
@@ -12749,7 +12748,7 @@
       <c r="R399" s="11"/>
       <c r="S399" s="10"/>
     </row>
-    <row r="400" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="400" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="10"/>
       <c r="C400" s="11"/>
       <c r="D400" s="10" t="str">
@@ -12770,7 +12769,7 @@
       <c r="R400" s="11"/>
       <c r="S400" s="10"/>
     </row>
-    <row r="401" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="401" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="10"/>
       <c r="C401" s="11"/>
       <c r="D401" s="10" t="str">
@@ -12791,7 +12790,7 @@
       <c r="R401" s="11"/>
       <c r="S401" s="10"/>
     </row>
-    <row r="402" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="402" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="10"/>
       <c r="C402" s="11"/>
       <c r="D402" s="10" t="str">
@@ -12812,7 +12811,7 @@
       <c r="R402" s="11"/>
       <c r="S402" s="10"/>
     </row>
-    <row r="403" spans="2:19">
+    <row r="403" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B403" s="10"/>
       <c r="C403" s="11"/>
       <c r="D403" s="1" t="str">
@@ -12828,7 +12827,7 @@
       <c r="Q403" s="11"/>
       <c r="R403" s="11"/>
     </row>
-    <row r="404" spans="2:19">
+    <row r="404" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B404" s="10"/>
       <c r="C404" s="11"/>
       <c r="D404" s="1" t="str">
@@ -12844,7 +12843,7 @@
       <c r="Q404" s="11"/>
       <c r="R404" s="11"/>
     </row>
-    <row r="405" spans="2:19">
+    <row r="405" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B405" s="10"/>
       <c r="C405" s="11"/>
       <c r="D405" s="1" t="str">
@@ -12858,7 +12857,7 @@
       <c r="Q405" s="11"/>
       <c r="R405" s="11"/>
     </row>
-    <row r="406" spans="2:19">
+    <row r="406" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B406" s="10"/>
       <c r="C406" s="11"/>
       <c r="D406" s="1" t="str">
@@ -12872,7 +12871,7 @@
       <c r="Q406" s="11"/>
       <c r="R406" s="11"/>
     </row>
-    <row r="407" spans="2:19">
+    <row r="407" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B407" s="10"/>
       <c r="C407" s="11"/>
       <c r="D407" s="1" t="str">
@@ -12882,7 +12881,7 @@
       <c r="Q407" s="11"/>
       <c r="R407" s="11"/>
     </row>
-    <row r="408" spans="2:19">
+    <row r="408" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B408" s="10"/>
       <c r="C408" s="11"/>
       <c r="D408" s="1" t="str">
@@ -12954,7 +12953,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.375" style="18" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="18" bestFit="1" customWidth="1"/>
@@ -12962,12 +12961,12 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5" customHeight="1">
+    <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.5" customHeight="1">
+    <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>132</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.5" customHeight="1">
+    <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>141</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.5" customHeight="1">
+    <row r="5" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>148</v>
       </c>
@@ -12991,7 +12990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.5" customHeight="1">
+    <row r="6" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>149</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="13.5">
+    <row r="7" spans="2:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>142</v>
       </c>
@@ -13007,7 +13006,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.5" customHeight="1">
+    <row r="8" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>143</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.5" customHeight="1">
+    <row r="9" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>144</v>
       </c>
@@ -13023,37 +13022,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.5" customHeight="1">
+    <row r="12" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="2:3" ht="16.5" customHeight="1">
+    <row r="13" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:3" ht="16.5" customHeight="1">
+    <row r="14" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="2:3" ht="16.5" customHeight="1">
+    <row r="15" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1">
+    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
     </row>
-    <row r="17" spans="2:2" ht="16.5" customHeight="1">
+    <row r="17" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" ht="16.5" customHeight="1">
+    <row r="18" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" ht="16.5" customHeight="1">
+    <row r="19" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" ht="16.5" customHeight="1">
+    <row r="20" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="2:2" ht="16.5" customHeight="1">
+    <row r="21" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" ht="16.5" customHeight="1">
+    <row r="22" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="182">
   <si>
     <t>순번</t>
   </si>
@@ -576,6 +576,25 @@
   <si>
     <t>원주호반베르디움 2차</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)석민이앤씨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아선수촌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무동센텀파라디아</t>
   </si>
   <si>
     <t>자재</t>
@@ -586,8 +605,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -653,7 +673,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +684,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -722,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -786,11 +812,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1200,7 +1289,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6066,50 +6155,76 @@
       <c r="S101" s="10"/>
     </row>
     <row r="102" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="10" t="str">
+      <c r="B102" s="25">
         <f>IF(C102="","",COUNTA($C$2:C102))</f>
-        <v/>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="10" t="str">
+        <v>101</v>
+      </c>
+      <c r="C102" s="26">
+        <v>46038</v>
+      </c>
+      <c r="D102" s="25" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="6" t="str">
+        <v>A</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H102" s="28">
+        <v>59635000</v>
+      </c>
+      <c r="I102" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J102" s="13" t="str">
+        <v>27</v>
+      </c>
+      <c r="J102" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
+        <v>정상</v>
+      </c>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="10" t="str">
+      <c r="B103" s="10">
         <f>IF(C103="","",COUNTA($C$2:C103))</f>
-        <v/>
-      </c>
-      <c r="C103" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="C103" s="11">
+        <v>46064</v>
+      </c>
       <c r="D103" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="6" t="str">
+        <v>B</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H103" s="30">
+        <v>1138000</v>
+      </c>
+      <c r="I103" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J103" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
@@ -6120,23 +6235,36 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="10" t="str">
+      <c r="B104" s="10">
         <f>IF(C104="","",COUNTA($C$2:C104))</f>
-        <v/>
-      </c>
-      <c r="C104" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="C104" s="11">
+        <v>46064</v>
+      </c>
       <c r="D104" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="6" t="str">
+        <v>B</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H104" s="30">
+        <v>11632500</v>
+      </c>
+      <c r="I104" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J104" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
@@ -12895,38 +13023,48 @@
   <autoFilter ref="A1:S408"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E3 F56:F59">
-    <cfRule type="expression" dxfId="6" priority="21">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>$J3="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="8" priority="22">
       <formula>$J8="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="4" priority="19">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>$J4="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="6" priority="20">
       <formula>$J9="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41 E37">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$J37="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$J97="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$J97="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:F104">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$J103="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103:H104">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J103="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="185">
   <si>
     <t>순번</t>
   </si>
@@ -599,6 +599,15 @@
   <si>
     <t>자재</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>(주)다수건설</t>
+  </si>
+  <si>
+    <t>서울 노원구</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -673,7 +682,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,12 +693,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF5F5F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -812,29 +815,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6F3FF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1286,10 +1319,10 @@
   <dimension ref="A1:S408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
+      <selection pane="bottomRight" activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1400,7 +1433,7 @@
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:I55" ca="1" si="1">IF(C2="","",IF(L2="",TODAY()-C2,L2-C2))</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J2" s="13" t="str">
         <f ca="1">IF(I2="","",
@@ -1464,7 +1497,7 @@
       </c>
       <c r="I3" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J58" ca="1" si="2">IF(I3="","",
@@ -1523,7 +1556,7 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1621,7 +1654,7 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1677,7 +1710,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1726,7 +1759,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1777,7 +1810,7 @@
       </c>
       <c r="I9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1829,7 +1862,7 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1873,7 +1906,7 @@
       </c>
       <c r="I11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1966,7 +1999,7 @@
       </c>
       <c r="I13" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2022,7 +2055,7 @@
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2071,7 +2104,7 @@
       </c>
       <c r="I15" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2120,7 +2153,7 @@
       </c>
       <c r="I16" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2167,7 +2200,7 @@
       </c>
       <c r="I17" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2214,7 +2247,7 @@
       </c>
       <c r="I18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2261,7 +2294,7 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2308,7 +2341,7 @@
       </c>
       <c r="I20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2355,7 +2388,7 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2404,7 +2437,7 @@
       </c>
       <c r="I22" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2453,7 +2486,7 @@
       </c>
       <c r="I23" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J23" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2502,7 +2535,7 @@
       </c>
       <c r="I24" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J24" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2551,7 +2584,7 @@
       </c>
       <c r="I25" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J25" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2600,7 +2633,7 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J26" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2649,7 +2682,7 @@
       </c>
       <c r="I27" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2698,7 +2731,7 @@
       </c>
       <c r="I28" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J28" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2747,7 +2780,7 @@
       </c>
       <c r="I29" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2796,7 +2829,7 @@
       </c>
       <c r="I30" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J30" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2845,7 +2878,7 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J31" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2894,7 +2927,7 @@
       </c>
       <c r="I32" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J32" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2943,7 +2976,7 @@
       </c>
       <c r="I33" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J33" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2992,7 +3025,7 @@
       </c>
       <c r="I34" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J34" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3041,7 +3074,7 @@
       </c>
       <c r="I35" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J35" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3090,7 +3123,7 @@
       </c>
       <c r="I36" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J36" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3135,7 +3168,7 @@
       </c>
       <c r="I37" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J37" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3189,7 +3222,7 @@
       </c>
       <c r="I38" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J38" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3245,7 +3278,7 @@
       </c>
       <c r="I39" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J39" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3298,7 +3331,7 @@
       </c>
       <c r="I40" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J40" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3345,7 +3378,7 @@
       </c>
       <c r="I41" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J41" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3399,7 +3432,7 @@
       </c>
       <c r="I42" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J42" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3504,7 +3537,7 @@
       </c>
       <c r="I44" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J44" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3555,7 +3588,7 @@
       </c>
       <c r="I45" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J45" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3599,7 +3632,7 @@
       </c>
       <c r="I46" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J46" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3643,7 +3676,7 @@
       </c>
       <c r="I47" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J47" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3690,7 +3723,7 @@
       </c>
       <c r="I48" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J48" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3737,7 +3770,7 @@
       </c>
       <c r="I49" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J49" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3784,7 +3817,7 @@
       </c>
       <c r="I50" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J50" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3828,7 +3861,7 @@
       </c>
       <c r="I51" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J51" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3872,7 +3905,7 @@
       </c>
       <c r="I52" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J52" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3919,7 +3952,7 @@
       </c>
       <c r="I53" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J53" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4015,7 +4048,7 @@
       </c>
       <c r="I55" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J55" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4062,7 +4095,7 @@
       </c>
       <c r="I56" s="12">
         <f t="shared" ref="I56:I65" ca="1" si="4">IF(C56="","",IF(L56="",TODAY()-C56,L56-C56))</f>
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J56" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4109,7 +4142,7 @@
       </c>
       <c r="I57" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J57" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4156,7 +4189,7 @@
       </c>
       <c r="I58" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J58" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4203,7 +4236,7 @@
       </c>
       <c r="I59" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J59" s="13" t="str">
         <f t="shared" ref="J59:J113" ca="1" si="5">IF(I59="","",
@@ -4258,7 +4291,7 @@
       </c>
       <c r="I60" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J60" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4302,7 +4335,7 @@
       </c>
       <c r="I61" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J61" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4346,7 +4379,7 @@
       </c>
       <c r="I62" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J62" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4390,7 +4423,7 @@
       </c>
       <c r="I63" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J63" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4480,7 +4513,7 @@
       </c>
       <c r="I65" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4524,7 +4557,7 @@
       </c>
       <c r="I66" s="6">
         <f t="shared" ref="I66:I71" ca="1" si="7">IF(C66="","",IF(L66="",TODAY()-C66,L66-C66))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J66" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4566,7 +4599,7 @@
       </c>
       <c r="I67" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J67" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4608,7 +4641,7 @@
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J68" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4650,7 +4683,7 @@
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J69" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4747,7 +4780,7 @@
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J71" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4799,7 +4832,7 @@
       </c>
       <c r="I72" s="6">
         <f t="shared" ref="I72:I75" ca="1" si="8">IF(C72="","",IF(L72="",TODAY()-C72,L72-C72))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J72" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4944,7 +4977,7 @@
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J75" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5182,7 +5215,7 @@
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J80" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5268,7 +5301,7 @@
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J82" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5320,7 +5353,7 @@
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J83" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5372,7 +5405,7 @@
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5424,7 +5457,7 @@
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J85" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5466,7 +5499,7 @@
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J86" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5562,7 +5595,7 @@
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J88" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5614,7 +5647,7 @@
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J89" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5710,7 +5743,7 @@
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J91" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5840,7 +5873,7 @@
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J94" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5882,7 +5915,7 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J95" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5968,7 +6001,7 @@
       </c>
       <c r="I97" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6010,7 +6043,7 @@
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6051,7 +6084,7 @@
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J99" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6155,41 +6188,41 @@
       <c r="S101" s="10"/>
     </row>
     <row r="102" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="25">
+      <c r="B102" s="26">
         <f>IF(C102="","",COUNTA($C$2:C102))</f>
         <v>101</v>
       </c>
-      <c r="C102" s="26">
+      <c r="C102" s="27">
         <v>46038</v>
       </c>
-      <c r="D102" s="25" t="str">
+      <c r="D102" s="26" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="E102" s="27" t="s">
+      <c r="E102" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="H102" s="28">
+      <c r="H102" s="29">
         <v>59635000</v>
       </c>
-      <c r="I102" s="27">
+      <c r="I102" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="J102" s="29" t="str">
+        <v>28</v>
+      </c>
+      <c r="J102" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>정상</v>
       </c>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
       <c r="S102" s="10"/>
@@ -6215,12 +6248,12 @@
       <c r="G103" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H103" s="30">
+      <c r="H103" s="25">
         <v>1138000</v>
       </c>
       <c r="I103" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6255,12 +6288,12 @@
       <c r="G104" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H104" s="25">
         <v>11632500</v>
       </c>
       <c r="I104" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6275,23 +6308,35 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="10" t="str">
+      <c r="B105" s="10">
         <f>IF(C105="","",COUNTA($C$2:C105))</f>
-        <v/>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="6" t="str">
+        <v>104</v>
+      </c>
+      <c r="C105" s="11">
+        <v>46065</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H105" s="25">
+        <v>7390000</v>
+      </c>
+      <c r="I105" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J105" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
@@ -6302,23 +6347,35 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="10" t="str">
+      <c r="B106" s="10">
         <f>IF(C106="","",COUNTA($C$2:C106))</f>
-        <v/>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="6" t="str">
+        <v>105</v>
+      </c>
+      <c r="C106" s="11">
+        <v>46065</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H106" s="25">
+        <v>651400</v>
+      </c>
+      <c r="I106" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J106" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
@@ -6329,23 +6386,35 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="2:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="10" t="str">
+      <c r="B107" s="10">
         <f>IF(C107="","",COUNTA($C$2:C107))</f>
-        <v/>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="6" t="str">
+        <v>106</v>
+      </c>
+      <c r="C107" s="11">
+        <v>46065</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H107" s="25">
+        <v>1997773</v>
+      </c>
+      <c r="I107" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J107" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>정상</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
@@ -13023,48 +13092,63 @@
   <autoFilter ref="A1:S408"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E3 F56:F59">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>$J3="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="10" priority="25">
       <formula>$J8="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="7" priority="21">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>$J4="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="6" priority="20">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>$J9="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41 E37">
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$J37="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$J97="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$J97="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:F104">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$J103="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$J103="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E107">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$J105="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:F107">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$J105="잔금"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105:H107">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J103="잔금"</formula>
+      <formula>$J105="잔금"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
